--- a/外部設計/資料/円弧配列自動化に向けた共通仕様.xlsx
+++ b/外部設計/資料/円弧配列自動化に向けた共通仕様.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="140">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -835,6 +835,201 @@
   </si>
   <si>
     <t>YYYY/MM/DD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図面登録</t>
+    <rPh sb="0" eb="2">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AT-B図面、コード表が作図済で、図面タイトルが設定されていること。</t>
+    <rPh sb="4" eb="6">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクズ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Drawing Symbol</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Drawing number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＞＝ 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ReVIsion number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Control number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Registant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tire type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pattern</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pattern type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Outer diameter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Joint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Section width</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Speed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Structure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>”R”</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rim diameter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Suffix</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ply</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Size Code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Plant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Plant code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要素21</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要素22</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要素23</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要素24</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＞ 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集文字フォント名配列[]</t>
+    <rPh sb="0" eb="4">
+      <t>ヘンシュウモジ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配置編集文字数</t>
+    <rPh sb="0" eb="2">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配置編集文字数分定義</t>
+    <rPh sb="7" eb="8">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テイギ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1244,15 +1439,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1265,17 +1451,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1283,16 +1460,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1307,6 +1475,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1319,8 +1502,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1607,9 +1802,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S41"/>
+  <dimension ref="B1:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="M62" sqref="M62"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1625,1281 +1822,1951 @@
     <col min="11" max="11" width="27.25" customWidth="1"/>
     <col min="13" max="13" width="12.75" customWidth="1"/>
     <col min="14" max="14" width="25.25" customWidth="1"/>
-    <col min="16" max="16" width="13.875" customWidth="1"/>
+    <col min="16" max="16" width="20.75" customWidth="1"/>
     <col min="17" max="17" width="27.375" customWidth="1"/>
     <col min="19" max="19" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="3" t="s">
+      <c r="F2" s="17"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="13" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="3" t="s">
+      <c r="L2" s="17"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="5"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="18"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B3" s="11"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="14" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="22" t="s">
+      <c r="G3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="14" t="s">
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="22" t="s">
+      <c r="M3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="3" t="s">
+      <c r="F6" s="17"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="5"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="18"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B7" s="11"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="14" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="22" t="s">
+      <c r="G7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="10" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="3" t="s">
+      <c r="F10" s="17"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="3" t="s">
+      <c r="I10" s="17"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="10" t="s">
+      <c r="L10" s="17"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="O10" s="24"/>
-      <c r="P10" s="25"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="21"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B11" s="11"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="14" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="22" t="s">
+      <c r="G11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="13" t="s">
         <v>7</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="22" t="s">
+      <c r="J11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="13" t="s">
         <v>7</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N11" s="22" t="s">
+      <c r="M11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" s="13" t="s">
         <v>7</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P11" s="6" t="s">
+      <c r="P11" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="21" t="s">
+      <c r="F12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="L12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="M12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="N12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="P12" s="23" t="s">
+      <c r="O12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="3" t="s">
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="3" t="s">
+      <c r="I13" s="17"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="10" t="s">
+      <c r="L13" s="17"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="O13" s="24"/>
-      <c r="P13" s="25"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="21"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="13" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="22" t="s">
+      <c r="G14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="13" t="s">
         <v>7</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="22" t="s">
+      <c r="J14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="13" t="s">
         <v>7</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N14" s="22" t="s">
+      <c r="M14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" s="13" t="s">
         <v>7</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="6" t="s">
+      <c r="P14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="23" t="s">
+      <c r="F15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="L15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M15" s="9" t="s">
+      <c r="M15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="P15" s="23" t="s">
+      <c r="O15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="3" t="s">
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="3" t="s">
+      <c r="I16" s="17"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="5"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="18"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="13" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="22" t="s">
+      <c r="G17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="13" t="s">
         <v>7</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="22" t="s">
+      <c r="J17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="13" t="s">
         <v>7</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="M17" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J18" s="23" t="s">
+      <c r="J18" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="L18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M18" s="23" t="s">
+      <c r="M18" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="20" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="3" t="s">
+      <c r="F20" s="17"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="3" t="s">
+      <c r="I20" s="17"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="4"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="10" t="s">
+      <c r="L20" s="17"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="O20" s="24"/>
-      <c r="P20" s="25"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="21"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B21" s="11"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="14" t="s">
+      <c r="B21" s="24"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="22" t="s">
+      <c r="G21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="13" t="s">
         <v>7</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="22" t="s">
+      <c r="J21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="13" t="s">
         <v>7</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N21" s="22" t="s">
+      <c r="M21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N21" s="13" t="s">
         <v>7</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P21" s="6" t="s">
+      <c r="P21" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="2:19" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="21" t="s">
+      <c r="F22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="K22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L22" s="8" t="s">
+      <c r="L22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M22" s="9" t="s">
+      <c r="M22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N22" s="7" t="s">
+      <c r="N22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="O22" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="P22" s="23" t="s">
+      <c r="O22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P22" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="3" t="s">
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="3" t="s">
+      <c r="I23" s="17"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="L23" s="4"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="3" t="s">
+      <c r="L23" s="17"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="O23" s="4"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="3" t="s">
+      <c r="O23" s="17"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="R23" s="4"/>
-      <c r="S23" s="5"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="18"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="13" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="22" t="s">
+      <c r="G24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="13" t="s">
         <v>7</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="22" t="s">
+      <c r="J24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="13" t="s">
         <v>7</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N24" s="22" t="s">
+      <c r="M24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N24" s="13" t="s">
         <v>7</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q24" s="22" t="s">
+      <c r="P24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q24" s="13" t="s">
         <v>7</v>
       </c>
       <c r="R24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="S24" s="6" t="s">
+      <c r="S24" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="I25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="K25" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="L25" s="8" t="s">
+      <c r="L25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M25" s="9" t="s">
+      <c r="M25" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="N25" s="7" t="s">
+      <c r="N25" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="O25" s="8" t="s">
+      <c r="O25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="P25" s="9" t="s">
+      <c r="P25" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="Q25" s="7" t="s">
+      <c r="Q25" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="R25" s="8" t="s">
+      <c r="R25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="S25" s="9" t="s">
+      <c r="S25" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="5"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="13" t="s">
         <v>7</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="29" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="30" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="3" t="s">
+      <c r="F30" s="17"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="3" t="s">
+      <c r="I30" s="17"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="4"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="10" t="s">
+      <c r="L30" s="17"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="O30" s="24"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="3" t="s">
+      <c r="O30" s="20"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="R30" s="4"/>
-      <c r="S30" s="5"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="18"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B31" s="11"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="14" t="s">
+      <c r="B31" s="24"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G31" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="22" t="s">
+      <c r="G31" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="13" t="s">
         <v>7</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J31" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="22" t="s">
+      <c r="J31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="13" t="s">
         <v>7</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N31" s="22" t="s">
+      <c r="M31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N31" s="13" t="s">
         <v>7</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P31" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q31" s="22" t="s">
+      <c r="P31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q31" s="13" t="s">
         <v>7</v>
       </c>
       <c r="R31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="S31" s="6" t="s">
+      <c r="S31" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="32" spans="2:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G32" s="21" t="s">
+      <c r="F32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="I32" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J32" s="9" t="s">
+      <c r="I32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="K32" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="L32" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M32" s="9" t="s">
+      <c r="L32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M32" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="N32" s="7" t="s">
+      <c r="N32" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="O32" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="P32" s="23" t="s">
+      <c r="O32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P32" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="Q32" s="7" t="s">
+      <c r="Q32" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="R32" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="S32" s="9" t="s">
+      <c r="R32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S32" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="5:19" x14ac:dyDescent="0.4">
-      <c r="E33" s="3" t="s">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="E33" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="3" t="s">
+      <c r="F33" s="17"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="3" t="s">
+      <c r="I33" s="17"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="L33" s="4"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="10" t="s">
+      <c r="L33" s="17"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="O33" s="24"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="10" t="s">
+      <c r="O33" s="20"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="R33" s="24"/>
-      <c r="S33" s="25"/>
-    </row>
-    <row r="34" spans="5:19" x14ac:dyDescent="0.4">
-      <c r="E34" s="22" t="s">
+      <c r="R33" s="20"/>
+      <c r="S33" s="21"/>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="E34" s="13" t="s">
         <v>7</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" s="22" t="s">
+      <c r="G34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="13" t="s">
         <v>7</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J34" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="22" t="s">
+      <c r="J34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="13" t="s">
         <v>7</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M34" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N34" s="22" t="s">
+      <c r="M34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N34" s="13" t="s">
         <v>7</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P34" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q34" s="22" t="s">
+      <c r="P34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q34" s="13" t="s">
         <v>7</v>
       </c>
       <c r="R34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="S34" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="5:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E35" s="7" t="s">
+      <c r="S34" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E35" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F35" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" s="23" t="s">
+      <c r="F35" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I35" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J35" s="9" t="s">
+      <c r="I35" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="K35" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="L35" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M35" s="9" t="s">
+      <c r="L35" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M35" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="N35" s="7" t="s">
+      <c r="N35" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="O35" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="P35" s="23" t="s">
+      <c r="O35" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P35" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="Q35" s="7" t="s">
+      <c r="Q35" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="R35" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="S35" s="23" t="s">
+      <c r="R35" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S35" s="14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="5:19" x14ac:dyDescent="0.4">
-      <c r="E36" s="3" t="s">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="E36" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="3" t="s">
+      <c r="F36" s="17"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="I36" s="4"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="3" t="s">
+      <c r="I36" s="17"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="L36" s="4"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="10" t="s">
+      <c r="L36" s="17"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="O36" s="24"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="10" t="s">
+      <c r="O36" s="20"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="R36" s="24"/>
-      <c r="S36" s="25"/>
-    </row>
-    <row r="37" spans="5:19" x14ac:dyDescent="0.4">
-      <c r="E37" s="22" t="s">
+      <c r="R36" s="20"/>
+      <c r="S36" s="21"/>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="E37" s="13" t="s">
         <v>7</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G37" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" s="22" t="s">
+      <c r="G37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="13" t="s">
         <v>7</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J37" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="22" t="s">
+      <c r="J37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="13" t="s">
         <v>7</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M37" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N37" s="22" t="s">
+      <c r="M37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N37" s="13" t="s">
         <v>7</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P37" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q37" s="22" t="s">
+      <c r="P37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q37" s="13" t="s">
         <v>7</v>
       </c>
       <c r="R37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="S37" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="5:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E38" s="7" t="s">
+      <c r="S37" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E38" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F38" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G38" s="23" t="s">
+      <c r="F38" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H38" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="I38" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J38" s="9" t="s">
+      <c r="I38" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="K38" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="L38" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M38" s="9" t="s">
+      <c r="L38" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M38" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="N38" s="7" t="s">
+      <c r="N38" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="O38" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="P38" s="23" t="s">
+      <c r="O38" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P38" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="Q38" s="7" t="s">
+      <c r="Q38" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="R38" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="S38" s="23" t="s">
+      <c r="R38" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S38" s="14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="5:19" x14ac:dyDescent="0.4">
-      <c r="E39" s="3" t="s">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="E39" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="3" t="s">
+      <c r="F39" s="17"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="I39" s="4"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="3" t="s">
+      <c r="I39" s="17"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="L39" s="4"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="10" t="s">
+      <c r="L39" s="17"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="O39" s="24"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="10" t="s">
+      <c r="O39" s="20"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="R39" s="24"/>
-      <c r="S39" s="25"/>
-    </row>
-    <row r="40" spans="5:19" x14ac:dyDescent="0.4">
-      <c r="E40" s="22" t="s">
+      <c r="R39" s="20"/>
+      <c r="S39" s="21"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="E40" s="13" t="s">
         <v>7</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H40" s="22" t="s">
+      <c r="G40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="13" t="s">
         <v>7</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J40" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="22" t="s">
+      <c r="J40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="13" t="s">
         <v>7</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M40" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N40" s="22" t="s">
+      <c r="M40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N40" s="13" t="s">
         <v>7</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P40" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q40" s="22" t="s">
+      <c r="P40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q40" s="13" t="s">
         <v>7</v>
       </c>
       <c r="R40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="S40" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="5:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E41" s="7" t="s">
+      <c r="S40" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E41" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F41" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G41" s="23" t="s">
+      <c r="F41" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I41" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J41" s="9" t="s">
+      <c r="I41" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="K41" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="L41" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M41" s="9" t="s">
+      <c r="L41" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M41" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="N41" s="7" t="s">
+      <c r="N41" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="O41" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="P41" s="23" t="s">
+      <c r="O41" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P41" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="Q41" s="7" t="s">
+      <c r="Q41" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="R41" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="S41" s="23" t="s">
+      <c r="R41" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S41" s="14" t="s">
         <v>106</v>
       </c>
     </row>
+    <row r="42" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B43" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="17"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="17"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="O43" s="20"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="R43" s="17"/>
+      <c r="S43" s="18"/>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B44" s="24"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N44" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q44" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P45" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="R45" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S45" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="E46" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46" s="17"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I46" s="17"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="O46" s="20"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="R46" s="20"/>
+      <c r="S46" s="21"/>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="E47" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N47" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q47" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E48" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P48" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q48" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="R48" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S48" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="5:19" x14ac:dyDescent="0.4">
+      <c r="E49" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" s="17"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="I49" s="17"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="O49" s="20"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="R49" s="20"/>
+      <c r="S49" s="21"/>
+    </row>
+    <row r="50" spans="5:19" x14ac:dyDescent="0.4">
+      <c r="E50" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N50" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q50" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S50" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="5:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E51" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O51" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P51" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q51" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="R51" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S51" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="5:19" x14ac:dyDescent="0.4">
+      <c r="E52" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F52" s="17"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="I52" s="17"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="O52" s="20"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="R52" s="20"/>
+      <c r="S52" s="21"/>
+    </row>
+    <row r="53" spans="5:19" x14ac:dyDescent="0.4">
+      <c r="E53" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N53" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q53" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S53" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="5:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E54" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="O54" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P54" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q54" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="R54" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S54" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="5:19" x14ac:dyDescent="0.4">
+      <c r="E55" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F55" s="17"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="I55" s="17"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="O55" s="20"/>
+      <c r="P55" s="21"/>
+    </row>
+    <row r="56" spans="5:19" x14ac:dyDescent="0.4">
+      <c r="E56" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N56" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P56" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="5:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E57" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M57" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="O57" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P57" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="Q39:S39"/>
+  <mergeCells count="89">
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="Q52:S52"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="Q43:S43"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
     <mergeCell ref="Q30:S30"/>
     <mergeCell ref="Q33:S33"/>
     <mergeCell ref="E36:G36"/>
@@ -2913,57 +3780,18 @@
     <mergeCell ref="H33:J33"/>
     <mergeCell ref="K33:M33"/>
     <mergeCell ref="N33:P33"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="Q39:S39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12 C4 C8 C22 C32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12 C4 C8 C22 C32 C45">
       <formula1>"単一,複数"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 I4 F8 I8 L4 O4 F12 I12 O15 F15 I15 O12 F18 I18 L18 F22 I22 L12 L15 O22 L22 F25 I25 L25 O25 R25 F28 F32 I32 O35 F35 I35 O32 L32 L35 R32 R35 O38 F38 I38 L38 R38 O41 F41 I41 L41 R41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 I4 F8 I8 L4 O4 F12 I12 O15 F15 I15 O12 F18 I18 L18 F22 I22 L12 L15 O22 L22 F25 I25 L25 O25 R25 F28 F32 I32 O35 F35 I35 O32 L32 L35 R32 R35 O38 F38 I38 L38 R38 O41 F41 I41 L41 R41 F45 I45 O45 L45 R45 O48 F48 I48 L48 R48 O51 F51 I51 L51 R51 O54 F54 I54 L54 R54 O57 F57 I57 L57">
       <formula1>"int,double,string"</formula1>
     </dataValidation>
   </dataValidations>

--- a/外部設計/資料/円弧配列自動化に向けた共通仕様.xlsx
+++ b/外部設計/資料/円弧配列自動化に向けた共通仕様.xlsx
@@ -16,7 +16,6 @@
     <sheet name="クラス" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="289">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -1203,14 +1202,6 @@
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>―</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>―</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1654,7 +1645,591 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Topの形状に編集文字を配置</t>
+    <t>処理クラス</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図面タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図面登録</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB「bz_kanri」テーブルレコードチェック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB「bz_kanri_1」テーブルレコードチェック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB「bz_kanri_2」テーブルレコードチェック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベリングの配置済であること。</t>
+    <rPh sb="6" eb="8">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Brand No配列[]</t>
+    <rPh sb="8" eb="10">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベリングコード表</t>
+    <rPh sb="8" eb="9">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集文字数</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>モジスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>刻印文字数</t>
+    <rPh sb="0" eb="2">
+      <t>コクイン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>モジスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＞＝ 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>―</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>―</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>―</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォント名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>≠""</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>刻印文字のフォント区分1</t>
+    <rPh sb="0" eb="2">
+      <t>コクイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>刻印文字のフォント区分2</t>
+    <rPh sb="0" eb="2">
+      <t>コクイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字名1</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字名2</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字の高さ</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字の幅</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>角度or角Ｒ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実高さ</t>
+    <rPh sb="0" eb="1">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ずれ量</t>
+    <rPh sb="2" eb="3">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水平原点位置</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>垂直原点位置</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＝ "C"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＝ "B"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>縁取り幅</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハッチング角度</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハッチング幅</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハッチング間隔</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハッチング始点Ｘ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハッチング始点Y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基準R</t>
+    <rPh sb="0" eb="2">
+      <t>キジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旧フォント名</t>
+    <rPh sb="0" eb="1">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旧フォント区分</t>
+    <rPh sb="0" eb="1">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旧文字名</t>
+    <rPh sb="0" eb="1">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t>モジメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑦</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑧</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑨</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォント区分</t>
+    <rPh sb="4" eb="6">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スペル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配置方法</t>
+    <rPh sb="0" eb="2">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配置する刻印文字が登録されていること。</t>
+    <rPh sb="0" eb="2">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コクイン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＝１：文字間指定 2:全体幅指定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全幅</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンハバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基準高さ</t>
+    <rPh sb="0" eb="2">
+      <t>キジュン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基準角度</t>
+    <rPh sb="0" eb="2">
+      <t>キジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集文字属性</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>刻印文字属性</t>
+    <rPh sb="0" eb="2">
+      <t>コクイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集文字属性配列[]</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集文字 DWG.配列[]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>刻印文字属性配列[]</t>
+    <rPh sb="0" eb="2">
+      <t>コクイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>刻印文字 DWG.配列[][]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt; 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sub No配列[]</t>
+    <rPh sb="6" eb="8">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>刻印文字属性情報</t>
+    <rPh sb="0" eb="2">
+      <t>コクイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集文字属性情報</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラメータ一覧⑧の要素</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラメータ一覧⑨の要素</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラメータ一覧⑦の要素</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベリングコード表情報</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB登録（登録チェック含む）</t>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBからの情報取得</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メソッド5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メソッド6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メソッド7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデルファイル登録（登録チェック含む）</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデル取得</t>
+    <rPh sb="3" eb="5">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像登録（登録チェック含む）</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像取得</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コード表用ページレイアウト作成</t>
+    <rPh sb="3" eb="4">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベリング配置編集文字の収集</t>
+    <rPh sb="5" eb="7">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュウシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Topの形状に編集文字を配置（作図）</t>
     <rPh sb="4" eb="6">
       <t>ケイジョウ</t>
     </rPh>
@@ -1667,10 +2242,13 @@
     <rPh sb="12" eb="14">
       <t>ハイチ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Bottomの形状に編集文字を配置</t>
+    <rPh sb="15" eb="17">
+      <t>サクズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bottomの形状に編集文字を配置（作図）</t>
     <rPh sb="7" eb="9">
       <t>ケイジョウ</t>
     </rPh>
@@ -1686,60 +2264,81 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>処理クラス</t>
-    <rPh sb="0" eb="2">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>図面タイトル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイトル情報読み出し</t>
+    <t>DBより編集文字属性の取得</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBより刻印文字属性の取得</t>
+    <rPh sb="4" eb="6">
+      <t>コクイン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Topのコード表を作図</t>
+    <rPh sb="7" eb="8">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bottomのコード表を作図</t>
+    <rPh sb="10" eb="11">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル情報ファイル読み出し</t>
     <rPh sb="4" eb="6">
       <t>ジョウホウ</t>
     </rPh>
-    <rPh sb="6" eb="7">
+    <rPh sb="10" eb="11">
       <t>ヨ</t>
     </rPh>
-    <rPh sb="8" eb="9">
+    <rPh sb="12" eb="13">
       <t>ダ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タイトル情報書き込み</t>
+    <t>タイトル情報ファイル書き込み</t>
     <rPh sb="4" eb="6">
       <t>ジョウホウ</t>
     </rPh>
-    <rPh sb="6" eb="7">
+    <rPh sb="10" eb="11">
       <t>カ</t>
     </rPh>
-    <rPh sb="8" eb="9">
+    <rPh sb="12" eb="13">
       <t>コ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>図面登録</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DB「bz_kanri」テーブルレコードチェック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DB「bz_kanri_1」テーブルレコードチェック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DB「bz_kanri_2」テーブルレコードチェック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⑦</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2201,7 +2800,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2286,13 +2885,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2313,15 +2915,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2334,6 +2927,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2343,14 +2954,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2638,10 +3249,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T63"/>
+  <dimension ref="B1:T84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2651,59 +3262,59 @@
     <col min="3" max="3" width="23.25" customWidth="1"/>
     <col min="4" max="4" width="14.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="38.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.5" customWidth="1"/>
+    <col min="6" max="6" width="30.875" customWidth="1"/>
     <col min="7" max="7" width="9.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="25.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="28.5" customWidth="1"/>
+    <col min="9" max="9" width="30.625" customWidth="1"/>
     <col min="11" max="11" width="24.25" customWidth="1"/>
-    <col min="12" max="12" width="27.25" customWidth="1"/>
+    <col min="12" max="12" width="29.625" customWidth="1"/>
     <col min="14" max="14" width="12.75" customWidth="1"/>
-    <col min="15" max="15" width="25.25" customWidth="1"/>
-    <col min="17" max="17" width="20.75" customWidth="1"/>
-    <col min="18" max="18" width="27.375" customWidth="1"/>
-    <col min="20" max="20" width="16.25" customWidth="1"/>
+    <col min="15" max="15" width="29.25" customWidth="1"/>
+    <col min="17" max="17" width="29" customWidth="1"/>
+    <col min="18" max="18" width="31.125" customWidth="1"/>
+    <col min="20" max="20" width="26.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B2" s="28" t="s">
+    <row r="1" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B2" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="31" t="s">
+      <c r="G2" s="33"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="32"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="42" t="s">
+      <c r="J2" s="33"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="32"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="31" t="s">
+      <c r="M2" s="33"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="33"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B3" s="29"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="41"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="34"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B3" s="46"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2741,8 +3352,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="30"/>
+    <row r="4" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="47"/>
       <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
@@ -2789,36 +3400,36 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="28" t="s">
+    <row r="5" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B6" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="31" t="s">
+      <c r="G6" s="33"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="32"/>
-      <c r="K6" s="33"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B7" s="29"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="41"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="34"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B7" s="46"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="39"/>
       <c r="F7" s="8" t="s">
         <v>7</v>
       </c>
@@ -2838,8 +3449,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="30"/>
+    <row r="8" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="47"/>
       <c r="C8" s="7" t="s">
         <v>16</v>
       </c>
@@ -2868,50 +3479,66 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B10" s="28" t="s">
+    <row r="9" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="30"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B10" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="31" t="s">
+      <c r="G10" s="33"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="32"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="31" t="s">
+      <c r="J10" s="33"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="32"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="34" t="s">
+      <c r="M10" s="33"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="36"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B11" s="29"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="41"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="S10" s="33"/>
+      <c r="T10" s="34"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B11" s="46"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="28" t="s">
         <v>8</v>
       </c>
       <c r="H11" s="11" t="s">
@@ -2920,7 +3547,7 @@
       <c r="I11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="28" t="s">
         <v>8</v>
       </c>
       <c r="K11" s="3" t="s">
@@ -2929,7 +3556,7 @@
       <c r="L11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="28" t="s">
         <v>8</v>
       </c>
       <c r="N11" s="3" t="s">
@@ -2938,88 +3565,111 @@
       <c r="O11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="P11" s="28" t="s">
         <v>8</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="2:17" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="30"/>
+      <c r="R11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="S11" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="47"/>
       <c r="C12" s="7" t="s">
-        <v>26</v>
+        <v>257</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>28</v>
+        <v>220</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>31</v>
+        <v>221</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>47</v>
+        <v>222</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>13</v>
+        <v>29</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>32</v>
+        <v>223</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>13</v>
+        <v>29</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>33</v>
+        <v>224</v>
       </c>
       <c r="P12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Q12" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="F13" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="32"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="31" t="s">
+      <c r="Q12" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="F13" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="J13" s="32"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="31" t="s">
+      <c r="G13" s="33"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="M13" s="32"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="34" t="s">
+      <c r="J13" s="33"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="36"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="M13" s="33"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="S13" s="36"/>
+      <c r="T13" s="37"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F14" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="28" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
@@ -3028,7 +3678,7 @@
       <c r="I14" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="28" t="s">
         <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
@@ -3037,7 +3687,7 @@
       <c r="L14" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="28" t="s">
         <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
@@ -3046,73 +3696,101 @@
       <c r="O14" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="P14" s="28" t="s">
         <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="R14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="S14" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F15" s="4" t="s">
-        <v>35</v>
+        <v>226</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>48</v>
+        <v>227</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>38</v>
+        <v>228</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q15" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="F16" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="J16" s="32"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="31" t="s">
+      <c r="R15" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="F16" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="M16" s="32"/>
-      <c r="N16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" s="33"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="M16" s="33"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="S16" s="36"/>
+      <c r="T16" s="37"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F17" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="28" t="s">
         <v>8</v>
       </c>
       <c r="H17" s="3" t="s">
@@ -3121,7 +3799,7 @@
       <c r="I17" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="28" t="s">
         <v>8</v>
       </c>
       <c r="K17" s="3" t="s">
@@ -3130,1505 +3808,2579 @@
       <c r="L17" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="28" t="s">
         <v>8</v>
       </c>
       <c r="N17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P17" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="S17" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="T17" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F18" s="4" t="s">
-        <v>41</v>
+        <v>231</v>
       </c>
       <c r="G18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="52" t="s">
+        <v>233</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="M18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J18" s="5" t="s">
+      <c r="N18" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="P18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K18" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M18" s="5" t="s">
+      <c r="Q18" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="T18" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="F19" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="33"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="J19" s="33"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="M19" s="33"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="S19" s="36"/>
+      <c r="T19" s="37"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="F20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="S20" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F21" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T21" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="F22" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22" s="33"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="J22" s="33"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="F23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="29"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+    </row>
+    <row r="24" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F24" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="L24" s="29"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+    </row>
+    <row r="25" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F25" s="29"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B26" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="33"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="33"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="33"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="S26" s="33"/>
+      <c r="T26" s="34"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B27" s="46"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M27" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P27" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="S27" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="47"/>
+      <c r="C28" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N28" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="P28" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="N18" s="14" t="s">
+      <c r="Q28" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="S28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T28" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B20" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20" s="34" t="s">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="F29" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="33"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="J29" s="33"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="M29" s="33"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="F30" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M30" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O30" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P30" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R30" s="29"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+    </row>
+    <row r="31" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F31" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N31" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="R31" s="29"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="30"/>
+    </row>
+    <row r="32" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B33" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="C33" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D33" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="40" t="s">
+      <c r="E33" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="42" t="s">
+      <c r="F33" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="32"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="31" t="s">
+      <c r="G33" s="33"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="32"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="31" t="s">
+      <c r="J33" s="33"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="M20" s="32"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="34" t="s">
+      <c r="M33" s="33"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="36"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B21" s="29"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L21" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O21" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="2:20" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="30"/>
-      <c r="C22" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="10" t="s">
+      <c r="P33" s="36"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="S33" s="33"/>
+      <c r="T33" s="34"/>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B34" s="46"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O34" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R34" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="S34" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="T34" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="47"/>
+      <c r="C35" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" s="5" t="s">
+      <c r="E35" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H35" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I22" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J22" s="5" t="s">
+      <c r="I35" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J35" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="K35" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L22" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="M22" s="5" t="s">
+      <c r="L35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M35" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="N22" s="6" t="s">
+      <c r="N35" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O22" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="P22" s="5" t="s">
+      <c r="O35" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P35" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Q22" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F23" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="32"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="31" t="s">
+      <c r="Q35" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="R35" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S35" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T35" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="F36" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="J23" s="32"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="31" t="s">
+      <c r="G36" s="33"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="M23" s="32"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="31" t="s">
+      <c r="J36" s="33"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="31" t="s">
+      <c r="M36" s="36"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="S23" s="32"/>
-      <c r="T23" s="33"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F24" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O24" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R24" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="S24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F25" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G25" s="5" t="s">
+      <c r="P36" s="33"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="S36" s="33"/>
+      <c r="T36" s="34"/>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="F37" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L37" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M37" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O37" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P37" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R37" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="S37" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="T37" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F38" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="M25" s="5" t="s">
+      <c r="H38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J38" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="N25" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q25" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="R25" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="S25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="T25" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F26" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="G26" s="32"/>
-      <c r="H26" s="33"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F27" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F28" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F29" s="47"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="49"/>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F30" s="47"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="49"/>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F31" s="47"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="49"/>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F32" s="47"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="49"/>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F33" s="47"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="49"/>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F34" s="47"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="49"/>
-    </row>
-    <row r="35" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B36" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="C36" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="F36" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="G36" s="32"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="J36" s="32"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="M36" s="32"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="S36" s="32"/>
-      <c r="T36" s="33"/>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B37" s="29"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I37" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L37" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O37" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R37" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="S37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T37" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="2:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="30"/>
-      <c r="C38" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="K38" s="6" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="M38" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N38" s="6" t="s">
-        <v>30</v>
+      <c r="N38" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q38" s="14" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="S38" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T38" s="6" t="s">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="T38" s="14" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F39" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="G39" s="32"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="J39" s="32"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="M39" s="32"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="36"/>
-      <c r="R39" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="S39" s="35"/>
-      <c r="T39" s="36"/>
+      <c r="F39" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G39" s="33"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F40" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="28" t="s">
         <v>8</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I40" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L40" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O40" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R40" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="S40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T40" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="I40" s="29"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="30"/>
     </row>
     <row r="41" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="29"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+    </row>
+    <row r="42" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B43" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="33"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" s="33"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43" s="33"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="P43" s="36"/>
+      <c r="Q43" s="37"/>
+      <c r="R43" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="S43" s="33"/>
+      <c r="T43" s="34"/>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B44" s="46"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L44" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O44" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R44" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="S44" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="47"/>
+      <c r="C45" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q45" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="R45" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="S45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T45" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="F46" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="G46" s="36"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="J46" s="36"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="M46" s="36"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="P46" s="33"/>
+      <c r="Q46" s="34"/>
+      <c r="R46" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="S46" s="33"/>
+      <c r="T46" s="34"/>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="F47" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J47" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L47" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M47" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O47" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P47" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R47" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="S47" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F48" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O48" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q48" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="R48" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="S48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T48" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F49" s="29"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="31"/>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B50" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="C50" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="F50" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50" s="33"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="J50" s="33"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="M50" s="33"/>
+      <c r="N50" s="34"/>
+      <c r="O50" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="P50" s="36"/>
+      <c r="Q50" s="37"/>
+      <c r="R50" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="S50" s="33"/>
+      <c r="T50" s="34"/>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B51" s="46"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J51" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L51" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M51" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O51" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P51" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R51" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="S51" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="T51" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="2:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="47"/>
+      <c r="C52" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" s="52" t="s">
+        <v>262</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K52" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N52" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="O52" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="R52" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="S52" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T52" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="30"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G53" s="33"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="30"/>
+      <c r="R53" s="29"/>
+      <c r="S53" s="30"/>
+      <c r="T53" s="31"/>
+    </row>
+    <row r="54" spans="2:20" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B54" s="30"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I54" s="29"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="30"/>
+      <c r="N54" s="30"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="30"/>
+      <c r="Q54" s="30"/>
+      <c r="R54" s="29"/>
+      <c r="S54" s="30"/>
+      <c r="T54" s="31"/>
+    </row>
+    <row r="55" spans="2:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="30"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I55" s="29"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="30"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="29"/>
+      <c r="P55" s="30"/>
+      <c r="Q55" s="30"/>
+      <c r="R55" s="29"/>
+      <c r="S55" s="30"/>
+      <c r="T55" s="31"/>
+    </row>
+    <row r="56" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B57" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="C57" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="F57" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="33"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="J57" s="33"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="M57" s="33"/>
+      <c r="N57" s="34"/>
+      <c r="O57" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="P57" s="36"/>
+      <c r="Q57" s="37"/>
+      <c r="R57" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="S57" s="33"/>
+      <c r="T57" s="34"/>
+    </row>
+    <row r="58" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B58" s="46"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L58" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O58" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R58" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="S58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="2:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="47"/>
+      <c r="C59" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M59" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N59" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O59" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P59" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q59" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="R59" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="S59" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T59" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="F60" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G60" s="33"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="J60" s="33"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="M60" s="33"/>
+      <c r="N60" s="34"/>
+      <c r="O60" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="P60" s="36"/>
+      <c r="Q60" s="37"/>
+      <c r="R60" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="S60" s="36"/>
+      <c r="T60" s="37"/>
+    </row>
+    <row r="61" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="F61" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I61" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L61" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O61" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q61" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R61" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="S61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T61" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F62" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G62" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H41" s="14" t="s">
+      <c r="H62" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="I62" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="J41" s="5" t="s">
+      <c r="J62" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K41" s="6" t="s">
+      <c r="K62" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="L41" s="4" t="s">
+      <c r="L62" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="M41" s="5" t="s">
+      <c r="M62" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N41" s="6" t="s">
+      <c r="N62" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="O41" s="4" t="s">
+      <c r="O62" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="P41" s="5" t="s">
+      <c r="P62" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Q41" s="14" t="s">
+      <c r="Q62" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="R41" s="4" t="s">
+      <c r="R62" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="S41" s="5" t="s">
+      <c r="S62" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="T41" s="14" t="s">
+      <c r="T62" s="14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F42" s="31" t="s">
+    <row r="63" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="F63" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="G42" s="32"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="31" t="s">
+      <c r="G63" s="33"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="J42" s="32"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="31" t="s">
+      <c r="J63" s="33"/>
+      <c r="K63" s="34"/>
+      <c r="L63" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="M42" s="32"/>
-      <c r="N42" s="33"/>
-      <c r="O42" s="34" t="s">
+      <c r="M63" s="33"/>
+      <c r="N63" s="34"/>
+      <c r="O63" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="36"/>
-      <c r="R42" s="34" t="s">
+      <c r="P63" s="36"/>
+      <c r="Q63" s="37"/>
+      <c r="R63" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="S42" s="35"/>
-      <c r="T42" s="36"/>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F43" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I43" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L43" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O43" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="P43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R43" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="S43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T43" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F44" s="4" t="s">
+      <c r="S63" s="36"/>
+      <c r="T63" s="37"/>
+    </row>
+    <row r="64" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="F64" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L64" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N64" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O64" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q64" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R64" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="S64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T64" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F65" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="G65" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H44" s="14" t="s">
+      <c r="H65" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="I65" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J44" s="5" t="s">
+      <c r="J65" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K44" s="6" t="s">
+      <c r="K65" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="L44" s="4" t="s">
+      <c r="L65" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="M44" s="5" t="s">
+      <c r="M65" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N44" s="6" t="s">
+      <c r="N65" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="O44" s="4" t="s">
+      <c r="O65" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="P44" s="5" t="s">
+      <c r="P65" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Q44" s="14" t="s">
+      <c r="Q65" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="R44" s="4" t="s">
+      <c r="R65" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="S44" s="5" t="s">
+      <c r="S65" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="T44" s="14" t="s">
+      <c r="T65" s="14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F45" s="31" t="s">
+    <row r="66" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="F66" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="G45" s="32"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="31" t="s">
+      <c r="G66" s="33"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="J45" s="32"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="31" t="s">
+      <c r="J66" s="33"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="M45" s="32"/>
-      <c r="N45" s="33"/>
-      <c r="O45" s="34" t="s">
+      <c r="M66" s="33"/>
+      <c r="N66" s="34"/>
+      <c r="O66" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="P45" s="35"/>
-      <c r="Q45" s="36"/>
-      <c r="R45" s="34" t="s">
+      <c r="P66" s="36"/>
+      <c r="Q66" s="37"/>
+      <c r="R66" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="S45" s="35"/>
-      <c r="T45" s="36"/>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F46" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I46" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L46" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O46" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="P46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R46" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="S46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T46" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F47" s="4" t="s">
+      <c r="S66" s="36"/>
+      <c r="T66" s="37"/>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="F67" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I67" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L67" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O67" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q67" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R67" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="S67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T67" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F68" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G68" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H47" s="14" t="s">
+      <c r="H68" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="I68" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="J47" s="5" t="s">
+      <c r="J68" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K47" s="6" t="s">
+      <c r="K68" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="L47" s="4" t="s">
+      <c r="L68" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="M47" s="5" t="s">
+      <c r="M68" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N47" s="6" t="s">
+      <c r="N68" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="O47" s="4" t="s">
+      <c r="O68" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="P47" s="5" t="s">
+      <c r="P68" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Q47" s="14" t="s">
+      <c r="Q68" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="R47" s="4" t="s">
+      <c r="R68" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="S47" s="5" t="s">
+      <c r="S68" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="T47" s="14" t="s">
+      <c r="T68" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="48" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B49" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="C49" s="34" t="s">
+    <row r="69" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B70" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="C70" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D49" s="38" t="s">
+      <c r="D70" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E49" s="40" t="s">
+      <c r="E70" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="F49" s="42" t="s">
+      <c r="F70" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G49" s="32"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="31" t="s">
+      <c r="G70" s="33"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J49" s="32"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="31" t="s">
+      <c r="J70" s="33"/>
+      <c r="K70" s="34"/>
+      <c r="L70" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="M49" s="32"/>
-      <c r="N49" s="33"/>
-      <c r="O49" s="34" t="s">
+      <c r="M70" s="33"/>
+      <c r="N70" s="34"/>
+      <c r="O70" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="P49" s="35"/>
-      <c r="Q49" s="36"/>
-      <c r="R49" s="31" t="s">
+      <c r="P70" s="36"/>
+      <c r="Q70" s="37"/>
+      <c r="R70" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="S49" s="32"/>
-      <c r="T49" s="33"/>
-    </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B50" s="29"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I50" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L50" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N50" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O50" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="P50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q50" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R50" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="S50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T50" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="2:20" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="30"/>
-      <c r="C51" s="7" t="s">
+      <c r="S70" s="33"/>
+      <c r="T70" s="34"/>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B71" s="46"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I71" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L71" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N71" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O71" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q71" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R71" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="S71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T71" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="47"/>
+      <c r="C72" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D72" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="15" t="s">
+      <c r="E72" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="F72" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="G72" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H51" s="12" t="s">
+      <c r="H72" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I51" s="4" t="s">
+      <c r="I72" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="J51" s="5" t="s">
+      <c r="J72" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K51" s="6" t="s">
+      <c r="K72" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="L51" s="4" t="s">
+      <c r="L72" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="M51" s="5" t="s">
+      <c r="M72" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="N51" s="6" t="s">
+      <c r="N72" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O51" s="4" t="s">
+      <c r="O72" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="P51" s="5" t="s">
+      <c r="P72" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Q51" s="14" t="s">
+      <c r="Q72" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="R51" s="4" t="s">
+      <c r="R72" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="S51" s="5" t="s">
+      <c r="S72" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="T51" s="6" t="s">
+      <c r="T72" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F52" s="31" t="s">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="F73" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="G52" s="32"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="31" t="s">
+      <c r="G73" s="33"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="J52" s="32"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="31" t="s">
+      <c r="J73" s="33"/>
+      <c r="K73" s="34"/>
+      <c r="L73" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="M52" s="32"/>
-      <c r="N52" s="33"/>
-      <c r="O52" s="34" t="s">
+      <c r="M73" s="33"/>
+      <c r="N73" s="34"/>
+      <c r="O73" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="P52" s="35"/>
-      <c r="Q52" s="36"/>
-      <c r="R52" s="34" t="s">
+      <c r="P73" s="36"/>
+      <c r="Q73" s="37"/>
+      <c r="R73" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="S52" s="35"/>
-      <c r="T52" s="36"/>
-    </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F53" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I53" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L53" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N53" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O53" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="P53" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q53" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R53" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="S53" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T53" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F54" s="4" t="s">
+      <c r="S73" s="36"/>
+      <c r="T73" s="37"/>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="F74" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I74" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L74" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O74" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q74" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R74" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="S74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T74" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F75" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="G75" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H54" s="14" t="s">
+      <c r="H75" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I54" s="4" t="s">
+      <c r="I75" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="J54" s="5" t="s">
+      <c r="J75" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K54" s="6" t="s">
+      <c r="K75" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L54" s="4" t="s">
+      <c r="L75" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="M54" s="5" t="s">
+      <c r="M75" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N54" s="6" t="s">
+      <c r="N75" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="O54" s="4" t="s">
+      <c r="O75" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="P54" s="5" t="s">
+      <c r="P75" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Q54" s="14" t="s">
+      <c r="Q75" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="R54" s="4" t="s">
+      <c r="R75" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="S54" s="5" t="s">
+      <c r="S75" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="T54" s="14" t="s">
+      <c r="T75" s="14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F55" s="31" t="s">
+    <row r="76" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="F76" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="G55" s="32"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="31" t="s">
+      <c r="G76" s="33"/>
+      <c r="H76" s="34"/>
+      <c r="I76" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="J55" s="32"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="31" t="s">
+      <c r="J76" s="33"/>
+      <c r="K76" s="34"/>
+      <c r="L76" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="M55" s="32"/>
-      <c r="N55" s="33"/>
-      <c r="O55" s="34" t="s">
+      <c r="M76" s="33"/>
+      <c r="N76" s="34"/>
+      <c r="O76" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="P55" s="35"/>
-      <c r="Q55" s="36"/>
-      <c r="R55" s="34" t="s">
+      <c r="P76" s="36"/>
+      <c r="Q76" s="37"/>
+      <c r="R76" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="S55" s="35"/>
-      <c r="T55" s="36"/>
-    </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F56" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I56" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L56" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O56" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="P56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R56" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="S56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T56" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F57" s="4" t="s">
+      <c r="S76" s="36"/>
+      <c r="T76" s="37"/>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="F77" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I77" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L77" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N77" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O77" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q77" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R77" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="S77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T77" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F78" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="G78" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H57" s="14" t="s">
+      <c r="H78" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I57" s="4" t="s">
+      <c r="I78" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="J57" s="5" t="s">
+      <c r="J78" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K57" s="6" t="s">
+      <c r="K78" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L57" s="4" t="s">
+      <c r="L78" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="M57" s="5" t="s">
+      <c r="M78" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N57" s="6" t="s">
+      <c r="N78" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="O57" s="4" t="s">
+      <c r="O78" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="P57" s="5" t="s">
+      <c r="P78" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Q57" s="14" t="s">
+      <c r="Q78" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="R57" s="4" t="s">
+      <c r="R78" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="S57" s="5" t="s">
+      <c r="S78" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="T57" s="14" t="s">
+      <c r="T78" s="14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F58" s="31" t="s">
+    <row r="79" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="F79" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="G58" s="32"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="31" t="s">
+      <c r="G79" s="33"/>
+      <c r="H79" s="34"/>
+      <c r="I79" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="32"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="31" t="s">
+      <c r="J79" s="33"/>
+      <c r="K79" s="34"/>
+      <c r="L79" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="M58" s="32"/>
-      <c r="N58" s="33"/>
-      <c r="O58" s="34" t="s">
+      <c r="M79" s="33"/>
+      <c r="N79" s="34"/>
+      <c r="O79" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="P58" s="35"/>
-      <c r="Q58" s="36"/>
-      <c r="R58" s="34" t="s">
+      <c r="P79" s="36"/>
+      <c r="Q79" s="37"/>
+      <c r="R79" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="S58" s="35"/>
-      <c r="T58" s="36"/>
-    </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F59" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I59" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L59" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="M59" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O59" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="P59" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R59" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="S59" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F60" s="4" t="s">
+      <c r="S79" s="36"/>
+      <c r="T79" s="37"/>
+    </row>
+    <row r="80" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="F80" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I80" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L80" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N80" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O80" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q80" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R80" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T80" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="6:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F81" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="G81" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H60" s="14" t="s">
+      <c r="H81" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="I60" s="4" t="s">
+      <c r="I81" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="J60" s="5" t="s">
+      <c r="J81" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K60" s="6" t="s">
+      <c r="K81" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="L60" s="4" t="s">
+      <c r="L81" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="M60" s="5" t="s">
+      <c r="M81" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N60" s="6" t="s">
+      <c r="N81" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="O60" s="4" t="s">
+      <c r="O81" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="P60" s="5" t="s">
+      <c r="P81" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Q60" s="14" t="s">
+      <c r="Q81" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="R60" s="4" t="s">
+      <c r="R81" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S60" s="5" t="s">
+      <c r="S81" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="T60" s="14" t="s">
+      <c r="T81" s="14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F61" s="31" t="s">
+    <row r="82" spans="6:20" x14ac:dyDescent="0.4">
+      <c r="F82" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="G61" s="32"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="31" t="s">
+      <c r="G82" s="33"/>
+      <c r="H82" s="34"/>
+      <c r="I82" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="J61" s="32"/>
-      <c r="K61" s="33"/>
-      <c r="L61" s="31" t="s">
+      <c r="J82" s="33"/>
+      <c r="K82" s="34"/>
+      <c r="L82" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="M61" s="32"/>
-      <c r="N61" s="33"/>
-      <c r="O61" s="34" t="s">
+      <c r="M82" s="33"/>
+      <c r="N82" s="34"/>
+      <c r="O82" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="P61" s="35"/>
-      <c r="Q61" s="36"/>
-    </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F62" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I62" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L62" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="M62" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O62" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="P62" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F63" s="4" t="s">
+      <c r="P82" s="36"/>
+      <c r="Q82" s="37"/>
+    </row>
+    <row r="83" spans="6:20" x14ac:dyDescent="0.4">
+      <c r="F83" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I83" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L83" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O83" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="6:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F84" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="G84" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H63" s="14" t="s">
+      <c r="H84" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="I63" s="4" t="s">
+      <c r="I84" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="J63" s="5" t="s">
+      <c r="J84" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K63" s="6" t="s">
+      <c r="K84" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="L63" s="4" t="s">
+      <c r="L84" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="M63" s="5" t="s">
+      <c r="M84" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="N63" s="6" t="s">
+      <c r="N84" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="O63" s="4" t="s">
+      <c r="O84" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="P63" s="5" t="s">
+      <c r="P84" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Q63" s="14" t="s">
+      <c r="Q84" s="14" t="s">
         <v>139</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="95">
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="I61:K61"/>
-    <mergeCell ref="L61:N61"/>
-    <mergeCell ref="O61:Q61"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="I58:K58"/>
-    <mergeCell ref="L58:N58"/>
-    <mergeCell ref="O58:Q58"/>
-    <mergeCell ref="R58:T58"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="L55:N55"/>
-    <mergeCell ref="O55:Q55"/>
-    <mergeCell ref="R55:T55"/>
-    <mergeCell ref="O49:Q49"/>
-    <mergeCell ref="R49:T49"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="O52:Q52"/>
-    <mergeCell ref="R52:T52"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="O2:Q2"/>
+  <mergeCells count="144">
+    <mergeCell ref="R43:T43"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="B10:B12"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="I66:K66"/>
+    <mergeCell ref="L66:N66"/>
+    <mergeCell ref="O66:Q66"/>
+    <mergeCell ref="R66:T66"/>
+    <mergeCell ref="R60:T60"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="I63:K63"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="O63:Q63"/>
+    <mergeCell ref="R63:T63"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="I60:K60"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="O60:Q60"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="O43:Q43"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="I57:K57"/>
+    <mergeCell ref="O46:Q46"/>
+    <mergeCell ref="R46:T46"/>
+    <mergeCell ref="R57:T57"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="O57:Q57"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="R50:T50"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="E33:E34"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="C2:C3"/>
@@ -4638,63 +6390,50 @@
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="R39:T39"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="O42:Q42"/>
-    <mergeCell ref="R42:T42"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="O39:Q39"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="O45:Q45"/>
-    <mergeCell ref="R45:T45"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="I70:K70"/>
+    <mergeCell ref="L70:N70"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="O70:Q70"/>
+    <mergeCell ref="R70:T70"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="I73:K73"/>
+    <mergeCell ref="L73:N73"/>
+    <mergeCell ref="O73:Q73"/>
+    <mergeCell ref="R73:T73"/>
+    <mergeCell ref="R79:T79"/>
+    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="L76:N76"/>
+    <mergeCell ref="O76:Q76"/>
+    <mergeCell ref="R76:T76"/>
+    <mergeCell ref="F82:H82"/>
+    <mergeCell ref="I82:K82"/>
+    <mergeCell ref="L82:N82"/>
+    <mergeCell ref="O82:Q82"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="I79:K79"/>
+    <mergeCell ref="L79:N79"/>
+    <mergeCell ref="O79:Q79"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12 D4 D8 D22 D38 D51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35 D4 D52:D55 D45 D59 D72 D8:D9 D12 D28">
       <formula1>"単一,複数"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 J4 G8 J8 M4 P4 G12 J12 P15 G15 J15 P12 G18 J18 M18 G22 J22 M12 M15 P22 M22 G25 J25 M25 P25 S25 G28:G34 G38 J38 P41 G41 J41 P38 M38 M41 S38 S41 P44 G44 J44 M44 S44 P47 G47 J47 M47 S47 G51 J51 P51 M51 S51 P54 G54 J54 M54 S54 P57 G57 J57 M57 S57 P60 G60 J60 M60 S60 P63 G63 J63 M63">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 J4 J8:J9 M4 P4 G35 J35 M38:M41 S35 G38 P35 S38 P38 G41 G45 J45 M35 J38:J41 P45 M45 S45 J48 M48 P48 M84 G59 J59 P62 G62 J62 P59 M59 M62 S59 S62 P65 G65 J65 M65 S65 P68 G68 J68 M68 S68 G72 J72 P72 M72 S72 P75 G75 J75 M75 S75 P78 G78 J78 M78 S78 P81 G81 J81 M81 S81 P84 G84 J84 M52:M55 J52:J55 P52:P55 P31 S52:S55 G8:G9 J15 G18 S18 J12 P12 G12 M18 M15 S12 P15 G15 S15 P18 M12 J18 S28:S31 J21 G31 J31 G21 M31 J24:J25 G24:G25 M21:M25 S21:S25 P21:P25 J28 G28 M28 P28 G52 G55 S48 G48:G49">
       <formula1>"int,double,string"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4705,11 +6444,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I35"/>
+  <dimension ref="B2:L43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -4720,33 +6457,34 @@
     <col min="5" max="5" width="37.75" style="16" customWidth="1"/>
     <col min="6" max="6" width="38.875" style="16" customWidth="1"/>
     <col min="7" max="7" width="40.875" customWidth="1"/>
-    <col min="8" max="8" width="30.625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="29.125" customWidth="1"/>
+    <col min="8" max="8" width="34.75" style="16" customWidth="1"/>
+    <col min="9" max="9" width="36" customWidth="1"/>
+    <col min="10" max="12" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="45" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" s="45"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B2" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="49"/>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
       <c r="E3" s="22"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="44"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="21" t="s">
         <v>160</v>
       </c>
@@ -4754,13 +6492,22 @@
         <v>162</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>165</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="17">
         <v>1</v>
       </c>
@@ -4774,13 +6521,16 @@
         <v>161</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="18"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="17">
         <v>2</v>
       </c>
@@ -4799,13 +6549,16 @@
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="I6" s="18"/>
-    </row>
-    <row r="7" spans="2:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B7" s="17">
         <v>3</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>147</v>
+        <v>264</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>155</v>
@@ -4817,17 +6570,30 @@
         <v>159</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-    </row>
-    <row r="8" spans="2:9" ht="37.5" x14ac:dyDescent="0.4">
+        <v>270</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B8" s="17">
         <v>4</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>148</v>
+        <v>265</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>156</v>
@@ -4841,19 +6607,28 @@
       <c r="G8" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="H8" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H8" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="17">
         <v>5</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>157</v>
@@ -4864,16 +6639,21 @@
       <c r="F9" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="G9" s="18"/>
+      <c r="G9" s="19" t="s">
+        <v>168</v>
+      </c>
       <c r="H9" s="19"/>
-      <c r="I9" s="18"/>
-    </row>
-    <row r="10" spans="2:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+    </row>
+    <row r="10" spans="2:12" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B10" s="17">
         <v>6</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>158</v>
@@ -4884,294 +6664,346 @@
       <c r="F10" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="I10" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="18"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="46" t="s">
-        <v>208</v>
-      </c>
-      <c r="C13" s="46"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="25" t="s">
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B11" s="17">
+        <v>7</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B12" s="17">
+        <v>8</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+    </row>
+    <row r="13" spans="2:12" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B13" s="17">
+        <v>9</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B16" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="50"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B18" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="E18" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="F18" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B19" s="17">
+        <v>1</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="F20"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B21" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="C21" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D21" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="F21" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="G21" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="F15" s="25" t="s">
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B22" s="17">
+        <v>2</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="D22" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="F22" s="19" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="17">
-        <v>1</v>
-      </c>
-      <c r="C16" s="18" t="s">
+      <c r="G22" s="18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B24" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="G16" s="18" t="s">
+      <c r="E24" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B25" s="17">
+        <v>3</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D26" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D27" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D28" s="16"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B29" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="25" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="F17"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="26" t="s">
+      <c r="E29" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="H29" s="25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B30" s="17">
+        <v>4</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="D30" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="C18" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="17">
-        <v>2</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="G19" s="18" t="s">
+      <c r="E30" s="19" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="25" t="s">
+      <c r="F30" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D31" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G31" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="C21" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="H21" s="25" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="17">
-        <v>3</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="I22" s="16"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="D23" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D24" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D25" s="16"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B26" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="H26" s="25" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B27" s="17">
-        <v>4</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="D27" s="18" t="s">
+      <c r="H31" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="E27" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="D28" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="G28" s="25" t="s">
+    </row>
+    <row r="32" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D32" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="H28" s="25" t="s">
+      <c r="E32" s="19" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D29" s="18" t="s">
+      <c r="F32" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="E29" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B31" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="F31" s="25" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B32" s="17">
-        <v>5</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="G32" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D33" s="29"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+    </row>
+    <row r="34" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="25" t="s">
         <v>163</v>
       </c>
@@ -5179,47 +7011,153 @@
         <v>151</v>
       </c>
       <c r="D34" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="F34" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="G34" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="F34" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="G34" s="25" t="s">
-        <v>181</v>
-      </c>
       <c r="H34" s="25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="17">
+        <v>5</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="30"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="E36" s="25" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B35" s="17">
+      <c r="F36" s="29"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+    </row>
+    <row r="37" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="30"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="F37" s="29"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B39" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B40" s="17">
         <v>6</v>
       </c>
-      <c r="C35" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="G35" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="H35" s="19"/>
+      <c r="C40" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B42" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="G42" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="H42" s="25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B43" s="17">
+        <v>7</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="H43" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/外部設計/資料/円弧配列自動化に向けた共通仕様.xlsx
+++ b/外部設計/資料/円弧配列自動化に向けた共通仕様.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25380" windowHeight="10065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25380" windowHeight="10065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="パラメータ一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="クラス" sheetId="2" r:id="rId2"/>
+    <sheet name="DBテーブル" sheetId="3" r:id="rId2"/>
+    <sheet name="クラス" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="524">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -1834,10 +1835,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>水平原点位置</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>垂直原点位置</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1854,15 +1851,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ハッチング角度</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ハッチング幅</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ハッチング間隔</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2339,6 +2328,1273 @@
     <rPh sb="12" eb="13">
       <t>コ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gm_kanri</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列名</t>
+    <rPh sb="0" eb="1">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>font_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>font_class1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>font_class2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hight</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>width</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ang</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moji_high</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moji_shift</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>org_hor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>org_ver</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>org_x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>org_y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>left_bottom_x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>left_bottom_y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>right_bottom_x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>right_bottom_y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>right_top_x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>right_top_y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>left_top_x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>left_top_y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hem_width</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hatch_ang</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hatch_width</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hatch_space</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hatch_x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hatch_y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>base_r</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>old_font_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>old_font_class</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>old_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>haiti_pic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gz_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gz_no1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gz_no2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dep_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>entry_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>entry_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"GM"固定</t>
+    <rPh sb="4" eb="6">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>”KO****”</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字名1</t>
+    <rPh sb="0" eb="3">
+      <t>モジメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字名2</t>
+    <rPh sb="0" eb="3">
+      <t>モジメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Font Category1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Font Category2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Character name1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Character name2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高さ</t>
+    <rPh sb="0" eb="1">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>幅</t>
+    <rPh sb="0" eb="1">
+      <t>ハバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>角度</t>
+    <rPh sb="0" eb="2">
+      <t>カクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水平原点位置</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>垂直原点位置</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左下X座標</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左下Y座標</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右下X座標</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右下Y座標</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右上X座標</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右上Y座標</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左上X座標</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左上Y座標</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハッチング角度</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハッチング角度</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハッチング幅</t>
+    <rPh sb="5" eb="6">
+      <t>ハバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハッチング間隔</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハッチング間隔</t>
+    <rPh sb="5" eb="7">
+      <t>カンカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハッチング始点Ｘ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハッチング始点Y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基準R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旧フォント名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旧フォント区分</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォント区分1</t>
+    <rPh sb="4" eb="6">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォント区分2</t>
+    <rPh sb="4" eb="6">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旧文字名</t>
+    <rPh sb="0" eb="1">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配置ピクチャー</t>
+    <rPh sb="0" eb="2">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録名</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録日</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hm_kanri1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>font_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>haiti_sitei</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gm_num</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>width</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>high</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ang</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>haiti_pic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hz_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hz_no1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hz_no2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dep_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UNIT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録部署</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"HM"固定</t>
+    <rPh sb="4" eb="6">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>”HE****”</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>区分番号</t>
+    <rPh sb="0" eb="2">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00～99</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スペル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１：文字間指定 2:全体幅指定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原始文字数</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンシ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>モジスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基準角度</t>
+    <rPh sb="0" eb="2">
+      <t>キジュン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hm_kanri2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>font_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gm_no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gm_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原始文字番号</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1～</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原始文字名</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KO****A0A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"HE****"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bz_kanri1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原始文字管理</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集文字管理1</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集文字管理2</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>no1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>no2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kanri_no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>syurui</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>syubetu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pattern</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>size1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>size2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>size3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>size4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>size5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>size6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>size7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>size8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>size_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kikaku</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>plant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>plant_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tos_moyou</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>side_moyou</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>side_kenti</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>peak_mark</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nasiji</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dep_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hm_num</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブランド図面管理1</t>
+    <rPh sb="4" eb="6">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"ATB"等</t>
+    <rPh sb="5" eb="6">
+      <t>ナド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図面番号</t>
+    <rPh sb="0" eb="2">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Drawing number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Control number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Revision number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リビジョン番号</t>
+    <rPh sb="5" eb="7">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>業務管理番号</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイヤ種別</t>
+    <rPh sb="3" eb="5">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パターン種別</t>
+    <rPh sb="4" eb="6">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パターン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tyre type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pattern type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pattern</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外径</t>
+    <rPh sb="0" eb="2">
+      <t>ガイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>継</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Joint   "/"固定</t>
+    <rPh sb="11" eb="13">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"205/60R16" 等</t>
+    <rPh sb="12" eb="13">
+      <t>ナド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Outer diameter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>断面幅</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Section width</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <rPh sb="0" eb="2">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構造</t>
+    <rPh sb="0" eb="2">
+      <t>コウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Structure  "R" 固定</t>
+    <rPh sb="15" eb="17">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>接尾</t>
+    <rPh sb="0" eb="2">
+      <t>セツビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プライ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ply</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リム幅</t>
+    <rPh sb="2" eb="3">
+      <t>ハバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイズコード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Size code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>規格</t>
+    <rPh sb="0" eb="2">
+      <t>キカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工場</t>
+    <rPh sb="0" eb="2">
+      <t>コウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工場コード</t>
+    <rPh sb="0" eb="2">
+      <t>コウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ＴＯＳ対応模様</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイド凹凸模様</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイド凹凸検知</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピークマーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>梨地</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Plant code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブランド図面管理2</t>
+    <rPh sb="4" eb="6">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bz_kanri2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>no1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>no2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hm_no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hm_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集文字番号</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1～編集文字数まで</t>
+    <rPh sb="2" eb="4">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集文字名</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HE****99</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Char(2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Char(6)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Char(1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Char(6)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tynyint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Char(4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>smalldatetime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>smallint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Char(10)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Char(5)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Char(8)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Char(2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Char(3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Char(6)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Char(21)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Char(5)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Char(10)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Char(8)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2800,7 +4056,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2897,6 +4153,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2915,6 +4183,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2927,24 +4213,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2954,14 +4222,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2971,8 +4239,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCFFCC"/>
       <color rgb="FF99CCFF"/>
-      <color rgb="FFCCFFCC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3251,8 +4519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3277,44 +4545,44 @@
   <sheetData>
     <row r="1" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="32" t="s">
+      <c r="G2" s="37"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="40" t="s">
+      <c r="J2" s="37"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="33"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="32" t="s">
+      <c r="M2" s="37"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="34"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B3" s="46"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="39"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="49"/>
       <c r="F3" s="8" t="s">
         <v>7</v>
       </c>
@@ -3353,7 +4621,7 @@
       </c>
     </row>
     <row r="4" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="47"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
@@ -3402,34 +4670,34 @@
     </row>
     <row r="5" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="32" t="s">
+      <c r="G6" s="37"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="33"/>
-      <c r="K6" s="34"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="38"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B7" s="46"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="39"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="49"/>
       <c r="F7" s="8" t="s">
         <v>7</v>
       </c>
@@ -3450,7 +4718,7 @@
       </c>
     </row>
     <row r="8" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="47"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="7" t="s">
         <v>16</v>
       </c>
@@ -3483,7 +4751,7 @@
       <c r="B9" s="30"/>
       <c r="C9" s="29"/>
       <c r="D9" s="30"/>
-      <c r="E9" s="51"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="29"/>
       <c r="G9" s="30"/>
       <c r="H9" s="30"/>
@@ -3492,49 +4760,49 @@
       <c r="K9" s="31"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="32" t="s">
+      <c r="G10" s="37"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="33"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="32" t="s">
+      <c r="J10" s="37"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="33"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="35" t="s">
+      <c r="M10" s="37"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="32" t="s">
+      <c r="P10" s="40"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="S10" s="33"/>
-      <c r="T10" s="34"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="38"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B11" s="46"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="39"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="49"/>
       <c r="F11" s="8" t="s">
         <v>7</v>
       </c>
@@ -3582,9 +4850,9 @@
       </c>
     </row>
     <row r="12" spans="2:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="47"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>27</v>
@@ -3639,31 +4907,31 @@
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="32" t="s">
+      <c r="G13" s="37"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="33"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="32" t="s">
+      <c r="J13" s="37"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="M13" s="33"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="35" t="s">
+      <c r="M13" s="37"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="35" t="s">
+      <c r="P13" s="40"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="S13" s="36"/>
-      <c r="T13" s="37"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="41"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F14" s="13" t="s">
@@ -3760,31 +5028,31 @@
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="33"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="32" t="s">
+      <c r="G16" s="37"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="J16" s="33"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="32" t="s">
+      <c r="J16" s="37"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="M16" s="33"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="35" t="s">
+      <c r="M16" s="37"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="35" t="s">
+      <c r="P16" s="40"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="S16" s="36"/>
-      <c r="T16" s="37"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="41"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F17" s="13" t="s">
@@ -3835,25 +5103,25 @@
     </row>
     <row r="18" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F18" s="4" t="s">
-        <v>231</v>
+        <v>350</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="52" t="s">
-        <v>233</v>
+      <c r="H18" s="34" t="s">
+        <v>232</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K18" s="52" t="s">
+      <c r="K18" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="L18" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>235</v>
       </c>
       <c r="M18" s="5" t="s">
         <v>10</v>
@@ -3862,7 +5130,7 @@
         <v>216</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>236</v>
+        <v>360</v>
       </c>
       <c r="P18" s="5" t="s">
         <v>10</v>
@@ -3871,7 +5139,7 @@
         <v>216</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="S18" s="5" t="s">
         <v>10</v>
@@ -3881,31 +5149,31 @@
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="33"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="32" t="s">
+      <c r="G19" s="37"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="J19" s="33"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="32" t="s">
+      <c r="J19" s="37"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="M19" s="33"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="35" t="s">
+      <c r="M19" s="37"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="35" t="s">
+      <c r="P19" s="40"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="S19" s="36"/>
-      <c r="T19" s="37"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="41"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F20" s="13" t="s">
@@ -3956,7 +5224,7 @@
     </row>
     <row r="21" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F21" s="4" t="s">
-        <v>238</v>
+        <v>363</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>10</v>
@@ -3965,7 +5233,7 @@
         <v>216</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>239</v>
+        <v>365</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>10</v>
@@ -3974,7 +5242,7 @@
         <v>216</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M21" s="5" t="s">
         <v>10</v>
@@ -3983,7 +5251,7 @@
         <v>216</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P21" s="5" t="s">
         <v>10</v>
@@ -3992,7 +5260,7 @@
         <v>59</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="S21" s="5" t="s">
         <v>29</v>
@@ -4002,16 +5270,16 @@
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="G22" s="33"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="32" t="s">
+      <c r="G22" s="37"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="J22" s="33"/>
-      <c r="K22" s="34"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="38"/>
       <c r="L22" s="29"/>
       <c r="M22" s="30"/>
       <c r="N22" s="30"/>
@@ -4053,7 +5321,7 @@
     </row>
     <row r="24" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F24" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>29</v>
@@ -4062,7 +5330,7 @@
         <v>59</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>29</v>
@@ -4098,49 +5366,49 @@
       <c r="T25" s="30"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="43" t="s">
+      <c r="D26" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="38" t="s">
+      <c r="E26" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="40" t="s">
+      <c r="F26" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="33"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="32" t="s">
+      <c r="G26" s="37"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J26" s="33"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="32" t="s">
+      <c r="J26" s="37"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M26" s="33"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="35" t="s">
+      <c r="M26" s="37"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="32" t="s">
+      <c r="P26" s="40"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="S26" s="33"/>
-      <c r="T26" s="34"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="38"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B27" s="46"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="39"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="49"/>
       <c r="F27" s="8" t="s">
         <v>7</v>
       </c>
@@ -4188,15 +5456,15 @@
       </c>
     </row>
     <row r="28" spans="2:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="47"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>27</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>220</v>
@@ -4208,7 +5476,7 @@
         <v>221</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J28" s="5" t="s">
         <v>29</v>
@@ -4217,7 +5485,7 @@
         <v>221</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M28" s="5" t="s">
         <v>29</v>
@@ -4226,13 +5494,13 @@
         <v>221</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="P28" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Q28" s="52" t="s">
-        <v>252</v>
+      <c r="Q28" s="34" t="s">
+        <v>249</v>
       </c>
       <c r="R28" s="4" t="s">
         <v>215</v>
@@ -4245,26 +5513,26 @@
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F29" s="32" t="s">
+      <c r="F29" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="33"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="32" t="s">
+      <c r="G29" s="37"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="J29" s="33"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="32" t="s">
+      <c r="J29" s="37"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="M29" s="33"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="35" t="s">
+      <c r="M29" s="37"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="37"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="41"/>
       <c r="R29" s="29"/>
       <c r="S29" s="30"/>
       <c r="T29" s="30"/>
@@ -4312,7 +5580,7 @@
     </row>
     <row r="31" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F31" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>10</v>
@@ -4321,7 +5589,7 @@
         <v>13</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J31" s="5" t="s">
         <v>10</v>
@@ -4330,7 +5598,7 @@
         <v>13</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M31" s="5" t="s">
         <v>10</v>
@@ -4339,7 +5607,7 @@
         <v>216</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P31" s="5"/>
       <c r="Q31" s="14" t="s">
@@ -4351,49 +5619,49 @@
     </row>
     <row r="32" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="33" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D33" s="43" t="s">
+      <c r="D33" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="38" t="s">
+      <c r="E33" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="F33" s="40" t="s">
+      <c r="F33" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="33"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="32" t="s">
+      <c r="G33" s="37"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J33" s="33"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="32" t="s">
+      <c r="J33" s="37"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M33" s="33"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="35" t="s">
+      <c r="M33" s="37"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="32" t="s">
+      <c r="P33" s="40"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="S33" s="33"/>
-      <c r="T33" s="34"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="38"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B34" s="46"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="39"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="49"/>
       <c r="F34" s="8" t="s">
         <v>7</v>
       </c>
@@ -4441,7 +5709,7 @@
       </c>
     </row>
     <row r="35" spans="2:20" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="47"/>
+      <c r="B35" s="44"/>
       <c r="C35" s="7" t="s">
         <v>26</v>
       </c>
@@ -4498,31 +5766,31 @@
       </c>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F36" s="32" t="s">
+      <c r="F36" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="G36" s="33"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="32" t="s">
+      <c r="G36" s="37"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="J36" s="33"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="35" t="s">
+      <c r="J36" s="37"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="M36" s="36"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="32" t="s">
+      <c r="M36" s="40"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="34"/>
-      <c r="R36" s="32" t="s">
+      <c r="P36" s="37"/>
+      <c r="Q36" s="38"/>
+      <c r="R36" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="S36" s="33"/>
-      <c r="T36" s="34"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="38"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F37" s="13" t="s">
@@ -4619,11 +5887,11 @@
       </c>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F39" s="32" t="s">
+      <c r="F39" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="G39" s="33"/>
-      <c r="H39" s="34"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="38"/>
       <c r="I39" s="29"/>
       <c r="J39" s="30"/>
       <c r="K39" s="30"/>
@@ -4667,49 +5935,49 @@
     </row>
     <row r="42" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="43" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B43" s="45" t="s">
+      <c r="B43" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D43" s="43" t="s">
+      <c r="D43" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E43" s="38" t="s">
+      <c r="E43" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="F43" s="40" t="s">
+      <c r="F43" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="33"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="32" t="s">
+      <c r="G43" s="37"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J43" s="33"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="32" t="s">
+      <c r="J43" s="37"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M43" s="33"/>
-      <c r="N43" s="34"/>
-      <c r="O43" s="35" t="s">
+      <c r="M43" s="37"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P43" s="36"/>
-      <c r="Q43" s="37"/>
-      <c r="R43" s="32" t="s">
+      <c r="P43" s="40"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="S43" s="33"/>
-      <c r="T43" s="34"/>
+      <c r="S43" s="37"/>
+      <c r="T43" s="38"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B44" s="46"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="39"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="49"/>
       <c r="F44" s="8" t="s">
         <v>7</v>
       </c>
@@ -4757,7 +6025,7 @@
       </c>
     </row>
     <row r="45" spans="2:20" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="47"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="7" t="s">
         <v>46</v>
       </c>
@@ -4814,31 +6082,31 @@
       </c>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F46" s="35" t="s">
+      <c r="F46" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="G46" s="36"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="35" t="s">
+      <c r="G46" s="40"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="J46" s="36"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="35" t="s">
+      <c r="J46" s="40"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="M46" s="36"/>
-      <c r="N46" s="37"/>
-      <c r="O46" s="32" t="s">
+      <c r="M46" s="40"/>
+      <c r="N46" s="41"/>
+      <c r="O46" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="P46" s="33"/>
-      <c r="Q46" s="34"/>
-      <c r="R46" s="32" t="s">
+      <c r="P46" s="37"/>
+      <c r="Q46" s="38"/>
+      <c r="R46" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="S46" s="33"/>
-      <c r="T46" s="34"/>
+      <c r="S46" s="37"/>
+      <c r="T46" s="38"/>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F47" s="13" t="s">
@@ -4940,49 +6208,49 @@
       <c r="H49" s="31"/>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B50" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="C50" s="35" t="s">
+      <c r="B50" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="C50" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D50" s="43" t="s">
+      <c r="D50" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E50" s="38" t="s">
+      <c r="E50" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="F50" s="40" t="s">
+      <c r="F50" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G50" s="33"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="32" t="s">
+      <c r="G50" s="37"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J50" s="33"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="32" t="s">
+      <c r="J50" s="37"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M50" s="33"/>
-      <c r="N50" s="34"/>
-      <c r="O50" s="35" t="s">
+      <c r="M50" s="37"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P50" s="36"/>
-      <c r="Q50" s="37"/>
-      <c r="R50" s="32" t="s">
+      <c r="P50" s="40"/>
+      <c r="Q50" s="41"/>
+      <c r="R50" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="S50" s="33"/>
-      <c r="T50" s="34"/>
+      <c r="S50" s="37"/>
+      <c r="T50" s="38"/>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B51" s="46"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="39"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="49"/>
       <c r="F51" s="8" t="s">
         <v>7</v>
       </c>
@@ -5030,7 +6298,7 @@
       </c>
     </row>
     <row r="52" spans="2:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="47"/>
+      <c r="B52" s="44"/>
       <c r="C52" s="7" t="s">
         <v>213</v>
       </c>
@@ -5046,8 +6314,8 @@
       <c r="G52" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H52" s="52" t="s">
-        <v>262</v>
+      <c r="H52" s="34" t="s">
+        <v>259</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>212</v>
@@ -5059,7 +6327,7 @@
         <v>217</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M52" s="5" t="s">
         <v>29</v>
@@ -5068,14 +6336,14 @@
         <v>59</v>
       </c>
       <c r="O52" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="P52" s="5"/>
       <c r="Q52" s="14" t="s">
         <v>218</v>
       </c>
       <c r="R52" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="S52" s="5" t="s">
         <v>29</v>
@@ -5088,12 +6356,12 @@
       <c r="B53" s="30"/>
       <c r="C53" s="29"/>
       <c r="D53" s="30"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="32" t="s">
+      <c r="E53" s="33"/>
+      <c r="F53" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="G53" s="33"/>
-      <c r="H53" s="34"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="38"/>
       <c r="I53" s="29"/>
       <c r="J53" s="30"/>
       <c r="K53" s="30"/>
@@ -5111,7 +6379,7 @@
       <c r="B54" s="30"/>
       <c r="C54" s="29"/>
       <c r="D54" s="30"/>
-      <c r="E54" s="51"/>
+      <c r="E54" s="33"/>
       <c r="F54" s="13" t="s">
         <v>7</v>
       </c>
@@ -5138,9 +6406,9 @@
       <c r="B55" s="30"/>
       <c r="C55" s="29"/>
       <c r="D55" s="30"/>
-      <c r="E55" s="51"/>
+      <c r="E55" s="33"/>
       <c r="F55" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>29</v>
@@ -5163,49 +6431,49 @@
     </row>
     <row r="56" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="57" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B57" s="45" t="s">
-        <v>246</v>
-      </c>
-      <c r="C57" s="35" t="s">
+      <c r="B57" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="C57" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D57" s="43" t="s">
+      <c r="D57" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E57" s="38" t="s">
+      <c r="E57" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="F57" s="40" t="s">
+      <c r="F57" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G57" s="33"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="32" t="s">
+      <c r="G57" s="37"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J57" s="33"/>
-      <c r="K57" s="34"/>
-      <c r="L57" s="32" t="s">
+      <c r="J57" s="37"/>
+      <c r="K57" s="38"/>
+      <c r="L57" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M57" s="33"/>
-      <c r="N57" s="34"/>
-      <c r="O57" s="35" t="s">
+      <c r="M57" s="37"/>
+      <c r="N57" s="38"/>
+      <c r="O57" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P57" s="36"/>
-      <c r="Q57" s="37"/>
-      <c r="R57" s="32" t="s">
+      <c r="P57" s="40"/>
+      <c r="Q57" s="41"/>
+      <c r="R57" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="S57" s="33"/>
-      <c r="T57" s="34"/>
+      <c r="S57" s="37"/>
+      <c r="T57" s="38"/>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B58" s="46"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="39"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="49"/>
       <c r="F58" s="8" t="s">
         <v>7</v>
       </c>
@@ -5253,7 +6521,7 @@
       </c>
     </row>
     <row r="59" spans="2:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="47"/>
+      <c r="B59" s="44"/>
       <c r="C59" s="7" t="s">
         <v>73</v>
       </c>
@@ -5310,31 +6578,31 @@
       </c>
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F60" s="32" t="s">
+      <c r="F60" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="G60" s="33"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="32" t="s">
+      <c r="G60" s="37"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="J60" s="33"/>
-      <c r="K60" s="34"/>
-      <c r="L60" s="32" t="s">
+      <c r="J60" s="37"/>
+      <c r="K60" s="38"/>
+      <c r="L60" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="M60" s="33"/>
-      <c r="N60" s="34"/>
-      <c r="O60" s="35" t="s">
+      <c r="M60" s="37"/>
+      <c r="N60" s="38"/>
+      <c r="O60" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="P60" s="36"/>
-      <c r="Q60" s="37"/>
-      <c r="R60" s="35" t="s">
+      <c r="P60" s="40"/>
+      <c r="Q60" s="41"/>
+      <c r="R60" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="S60" s="36"/>
-      <c r="T60" s="37"/>
+      <c r="S60" s="40"/>
+      <c r="T60" s="41"/>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F61" s="13" t="s">
@@ -5431,31 +6699,31 @@
       </c>
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F63" s="32" t="s">
+      <c r="F63" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="G63" s="33"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="32" t="s">
+      <c r="G63" s="37"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="J63" s="33"/>
-      <c r="K63" s="34"/>
-      <c r="L63" s="32" t="s">
+      <c r="J63" s="37"/>
+      <c r="K63" s="38"/>
+      <c r="L63" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="M63" s="33"/>
-      <c r="N63" s="34"/>
-      <c r="O63" s="35" t="s">
+      <c r="M63" s="37"/>
+      <c r="N63" s="38"/>
+      <c r="O63" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="P63" s="36"/>
-      <c r="Q63" s="37"/>
-      <c r="R63" s="35" t="s">
+      <c r="P63" s="40"/>
+      <c r="Q63" s="41"/>
+      <c r="R63" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="S63" s="36"/>
-      <c r="T63" s="37"/>
+      <c r="S63" s="40"/>
+      <c r="T63" s="41"/>
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F64" s="13" t="s">
@@ -5552,31 +6820,31 @@
       </c>
     </row>
     <row r="66" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F66" s="32" t="s">
+      <c r="F66" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="G66" s="33"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="32" t="s">
+      <c r="G66" s="37"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="J66" s="33"/>
-      <c r="K66" s="34"/>
-      <c r="L66" s="32" t="s">
+      <c r="J66" s="37"/>
+      <c r="K66" s="38"/>
+      <c r="L66" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="M66" s="33"/>
-      <c r="N66" s="34"/>
-      <c r="O66" s="35" t="s">
+      <c r="M66" s="37"/>
+      <c r="N66" s="38"/>
+      <c r="O66" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="P66" s="36"/>
-      <c r="Q66" s="37"/>
-      <c r="R66" s="35" t="s">
+      <c r="P66" s="40"/>
+      <c r="Q66" s="41"/>
+      <c r="R66" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="S66" s="36"/>
-      <c r="T66" s="37"/>
+      <c r="S66" s="40"/>
+      <c r="T66" s="41"/>
     </row>
     <row r="67" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F67" s="13" t="s">
@@ -5674,49 +6942,49 @@
     </row>
     <row r="69" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="70" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B70" s="45" t="s">
-        <v>247</v>
-      </c>
-      <c r="C70" s="35" t="s">
+      <c r="B70" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="C70" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D70" s="43" t="s">
+      <c r="D70" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E70" s="38" t="s">
+      <c r="E70" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="F70" s="40" t="s">
+      <c r="F70" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G70" s="33"/>
-      <c r="H70" s="41"/>
-      <c r="I70" s="32" t="s">
+      <c r="G70" s="37"/>
+      <c r="H70" s="51"/>
+      <c r="I70" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J70" s="33"/>
-      <c r="K70" s="34"/>
-      <c r="L70" s="32" t="s">
+      <c r="J70" s="37"/>
+      <c r="K70" s="38"/>
+      <c r="L70" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M70" s="33"/>
-      <c r="N70" s="34"/>
-      <c r="O70" s="35" t="s">
+      <c r="M70" s="37"/>
+      <c r="N70" s="38"/>
+      <c r="O70" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="P70" s="36"/>
-      <c r="Q70" s="37"/>
-      <c r="R70" s="32" t="s">
+      <c r="P70" s="40"/>
+      <c r="Q70" s="41"/>
+      <c r="R70" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="S70" s="33"/>
-      <c r="T70" s="34"/>
+      <c r="S70" s="37"/>
+      <c r="T70" s="38"/>
     </row>
     <row r="71" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B71" s="46"/>
-      <c r="C71" s="42"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="39"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="49"/>
       <c r="F71" s="8" t="s">
         <v>7</v>
       </c>
@@ -5764,7 +7032,7 @@
       </c>
     </row>
     <row r="72" spans="2:20" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="47"/>
+      <c r="B72" s="44"/>
       <c r="C72" s="7" t="s">
         <v>107</v>
       </c>
@@ -5821,31 +7089,31 @@
       </c>
     </row>
     <row r="73" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F73" s="32" t="s">
+      <c r="F73" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="G73" s="33"/>
-      <c r="H73" s="34"/>
-      <c r="I73" s="32" t="s">
+      <c r="G73" s="37"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="J73" s="33"/>
-      <c r="K73" s="34"/>
-      <c r="L73" s="32" t="s">
+      <c r="J73" s="37"/>
+      <c r="K73" s="38"/>
+      <c r="L73" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="M73" s="33"/>
-      <c r="N73" s="34"/>
-      <c r="O73" s="35" t="s">
+      <c r="M73" s="37"/>
+      <c r="N73" s="38"/>
+      <c r="O73" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="P73" s="36"/>
-      <c r="Q73" s="37"/>
-      <c r="R73" s="35" t="s">
+      <c r="P73" s="40"/>
+      <c r="Q73" s="41"/>
+      <c r="R73" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="S73" s="36"/>
-      <c r="T73" s="37"/>
+      <c r="S73" s="40"/>
+      <c r="T73" s="41"/>
     </row>
     <row r="74" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F74" s="13" t="s">
@@ -5942,31 +7210,31 @@
       </c>
     </row>
     <row r="76" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F76" s="32" t="s">
+      <c r="F76" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="G76" s="33"/>
-      <c r="H76" s="34"/>
-      <c r="I76" s="32" t="s">
+      <c r="G76" s="37"/>
+      <c r="H76" s="38"/>
+      <c r="I76" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="J76" s="33"/>
-      <c r="K76" s="34"/>
-      <c r="L76" s="32" t="s">
+      <c r="J76" s="37"/>
+      <c r="K76" s="38"/>
+      <c r="L76" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="M76" s="33"/>
-      <c r="N76" s="34"/>
-      <c r="O76" s="35" t="s">
+      <c r="M76" s="37"/>
+      <c r="N76" s="38"/>
+      <c r="O76" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="P76" s="36"/>
-      <c r="Q76" s="37"/>
-      <c r="R76" s="35" t="s">
+      <c r="P76" s="40"/>
+      <c r="Q76" s="41"/>
+      <c r="R76" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="S76" s="36"/>
-      <c r="T76" s="37"/>
+      <c r="S76" s="40"/>
+      <c r="T76" s="41"/>
     </row>
     <row r="77" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F77" s="13" t="s">
@@ -6063,31 +7331,31 @@
       </c>
     </row>
     <row r="79" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F79" s="32" t="s">
+      <c r="F79" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="G79" s="33"/>
-      <c r="H79" s="34"/>
-      <c r="I79" s="32" t="s">
+      <c r="G79" s="37"/>
+      <c r="H79" s="38"/>
+      <c r="I79" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="J79" s="33"/>
-      <c r="K79" s="34"/>
-      <c r="L79" s="32" t="s">
+      <c r="J79" s="37"/>
+      <c r="K79" s="38"/>
+      <c r="L79" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="M79" s="33"/>
-      <c r="N79" s="34"/>
-      <c r="O79" s="35" t="s">
+      <c r="M79" s="37"/>
+      <c r="N79" s="38"/>
+      <c r="O79" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="P79" s="36"/>
-      <c r="Q79" s="37"/>
-      <c r="R79" s="35" t="s">
+      <c r="P79" s="40"/>
+      <c r="Q79" s="41"/>
+      <c r="R79" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="S79" s="36"/>
-      <c r="T79" s="37"/>
+      <c r="S79" s="40"/>
+      <c r="T79" s="41"/>
     </row>
     <row r="80" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F80" s="13" t="s">
@@ -6184,26 +7452,26 @@
       </c>
     </row>
     <row r="82" spans="6:20" x14ac:dyDescent="0.4">
-      <c r="F82" s="32" t="s">
+      <c r="F82" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="G82" s="33"/>
-      <c r="H82" s="34"/>
-      <c r="I82" s="32" t="s">
+      <c r="G82" s="37"/>
+      <c r="H82" s="38"/>
+      <c r="I82" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="J82" s="33"/>
-      <c r="K82" s="34"/>
-      <c r="L82" s="32" t="s">
+      <c r="J82" s="37"/>
+      <c r="K82" s="38"/>
+      <c r="L82" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="M82" s="33"/>
-      <c r="N82" s="34"/>
-      <c r="O82" s="35" t="s">
+      <c r="M82" s="37"/>
+      <c r="N82" s="38"/>
+      <c r="O82" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="P82" s="36"/>
-      <c r="Q82" s="37"/>
+      <c r="P82" s="40"/>
+      <c r="Q82" s="41"/>
     </row>
     <row r="83" spans="6:20" x14ac:dyDescent="0.4">
       <c r="F83" s="13" t="s">
@@ -6283,25 +7551,112 @@
     </row>
   </sheetData>
   <mergeCells count="144">
-    <mergeCell ref="R43:T43"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="F82:H82"/>
+    <mergeCell ref="I82:K82"/>
+    <mergeCell ref="L82:N82"/>
+    <mergeCell ref="O82:Q82"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="I79:K79"/>
+    <mergeCell ref="L79:N79"/>
+    <mergeCell ref="O79:Q79"/>
+    <mergeCell ref="O70:Q70"/>
+    <mergeCell ref="R70:T70"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="I73:K73"/>
+    <mergeCell ref="L73:N73"/>
+    <mergeCell ref="O73:Q73"/>
+    <mergeCell ref="R73:T73"/>
+    <mergeCell ref="R79:T79"/>
+    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="L76:N76"/>
+    <mergeCell ref="O76:Q76"/>
+    <mergeCell ref="R76:T76"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="I70:K70"/>
+    <mergeCell ref="L70:N70"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="R46:T46"/>
+    <mergeCell ref="R57:T57"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="O57:Q57"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="R50:T50"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="I57:K57"/>
+    <mergeCell ref="O46:Q46"/>
+    <mergeCell ref="L66:N66"/>
+    <mergeCell ref="O66:Q66"/>
+    <mergeCell ref="R66:T66"/>
+    <mergeCell ref="R60:T60"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="I63:K63"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="O63:Q63"/>
+    <mergeCell ref="R63:T63"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="I60:K60"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="O60:Q60"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="I66:K66"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:H50"/>
     <mergeCell ref="O16:Q16"/>
     <mergeCell ref="R16:T16"/>
     <mergeCell ref="F19:H19"/>
@@ -6318,115 +7673,28 @@
     <mergeCell ref="L13:N13"/>
     <mergeCell ref="O13:Q13"/>
     <mergeCell ref="R13:T13"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="F66:H66"/>
-    <mergeCell ref="I66:K66"/>
-    <mergeCell ref="L66:N66"/>
-    <mergeCell ref="O66:Q66"/>
-    <mergeCell ref="R66:T66"/>
-    <mergeCell ref="R60:T60"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="I63:K63"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="O63:Q63"/>
-    <mergeCell ref="R63:T63"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="I60:K60"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="O60:Q60"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="R43:T43"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="O29:Q29"/>
     <mergeCell ref="O33:Q33"/>
     <mergeCell ref="O36:Q36"/>
     <mergeCell ref="O43:Q43"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="L46:N46"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="I57:K57"/>
-    <mergeCell ref="O46:Q46"/>
-    <mergeCell ref="R46:T46"/>
-    <mergeCell ref="R57:T57"/>
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="O57:Q57"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="O50:Q50"/>
-    <mergeCell ref="R50:T50"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:H70"/>
-    <mergeCell ref="I70:K70"/>
-    <mergeCell ref="L70:N70"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="O70:Q70"/>
-    <mergeCell ref="R70:T70"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="I73:K73"/>
-    <mergeCell ref="L73:N73"/>
-    <mergeCell ref="O73:Q73"/>
-    <mergeCell ref="R73:T73"/>
-    <mergeCell ref="R79:T79"/>
-    <mergeCell ref="F76:H76"/>
-    <mergeCell ref="I76:K76"/>
-    <mergeCell ref="L76:N76"/>
-    <mergeCell ref="O76:Q76"/>
-    <mergeCell ref="R76:T76"/>
-    <mergeCell ref="F82:H82"/>
-    <mergeCell ref="I82:K82"/>
-    <mergeCell ref="L82:N82"/>
-    <mergeCell ref="O82:Q82"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="I79:K79"/>
-    <mergeCell ref="L79:N79"/>
-    <mergeCell ref="O79:Q79"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
@@ -6443,6 +7711,1829 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:U77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="6.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.25" customWidth="1"/>
+    <col min="4" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="25.75" customWidth="1"/>
+    <col min="9" max="9" width="5.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.875" customWidth="1"/>
+    <col min="11" max="11" width="16.875" customWidth="1"/>
+    <col min="12" max="12" width="14.5" customWidth="1"/>
+    <col min="13" max="13" width="21.875" customWidth="1"/>
+    <col min="14" max="14" width="27.125" customWidth="1"/>
+    <col min="16" max="16" width="5.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.875" style="1" customWidth="1"/>
+    <col min="18" max="19" width="18.25" customWidth="1"/>
+    <col min="20" max="20" width="17.125" customWidth="1"/>
+    <col min="21" max="21" width="20.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B2" s="53" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="D2" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>419</v>
+      </c>
+      <c r="F2" s="57"/>
+      <c r="I2" s="53" t="s">
+        <v>287</v>
+      </c>
+      <c r="J2" s="53"/>
+      <c r="K2" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="L2" s="56" t="s">
+        <v>420</v>
+      </c>
+      <c r="M2" s="57"/>
+      <c r="P2" s="56" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="S2" s="56" t="s">
+        <v>421</v>
+      </c>
+      <c r="T2" s="57"/>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B3" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="P3" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q3" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="R3" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="S3" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="U3" s="32" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B4" s="17">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="I4" s="17">
+        <v>1</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="P4" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="R4" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="U4" s="18"/>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B5" s="17">
+        <v>2</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="I5" s="17">
+        <v>2</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="P5" s="17">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="R5" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="S5" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="T5" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="U5" s="18" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B6" s="17">
+        <v>3</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="I6" s="17">
+        <v>3</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="M6" s="55" t="s">
+        <v>397</v>
+      </c>
+      <c r="N6" s="55" t="s">
+        <v>398</v>
+      </c>
+      <c r="P6" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="R6" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="S6" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="T6" s="55" t="s">
+        <v>397</v>
+      </c>
+      <c r="U6" s="55" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B7" s="17">
+        <v>4</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="I7" s="17">
+        <v>4</v>
+      </c>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="M7" s="55" t="s">
+        <v>399</v>
+      </c>
+      <c r="N7" s="18"/>
+      <c r="P7" s="17">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="R7" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="S7" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="T7" s="55" t="s">
+        <v>413</v>
+      </c>
+      <c r="U7" s="55" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B8" s="17">
+        <v>5</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="I8" s="17">
+        <v>5</v>
+      </c>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="M8" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="P8" s="17">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="S8" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="T8" s="55" t="s">
+        <v>415</v>
+      </c>
+      <c r="U8" s="55" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B9" s="17">
+        <v>6</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="I9" s="17">
+        <v>6</v>
+      </c>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="M9" s="55" t="s">
+        <v>401</v>
+      </c>
+      <c r="N9" s="18"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B10" s="17">
+        <v>7</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="I10" s="17">
+        <v>7</v>
+      </c>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="M10" s="55" t="s">
+        <v>250</v>
+      </c>
+      <c r="N10" s="18"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B11" s="17">
+        <v>8</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="I11" s="17">
+        <v>8</v>
+      </c>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="M11" s="55" t="s">
+        <v>251</v>
+      </c>
+      <c r="N11" s="18"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B12" s="17">
+        <v>9</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="I12" s="17">
+        <v>9</v>
+      </c>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="M12" s="55" t="s">
+        <v>402</v>
+      </c>
+      <c r="N12" s="18"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B13" s="17">
+        <v>10</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="I13" s="17">
+        <v>10</v>
+      </c>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="M13" s="55" t="s">
+        <v>373</v>
+      </c>
+      <c r="N13" s="18"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B14" s="17">
+        <v>11</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="I14" s="17">
+        <v>11</v>
+      </c>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B15" s="17">
+        <v>12</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="I15" s="17">
+        <v>12</v>
+      </c>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B16" s="17">
+        <v>13</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="G16" s="18"/>
+      <c r="I16" s="17">
+        <v>13</v>
+      </c>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B17" s="17">
+        <v>14</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="18"/>
+      <c r="I17" s="17">
+        <v>14</v>
+      </c>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="L17" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="M17" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="N17" s="18"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B18" s="17">
+        <v>15</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="18"/>
+      <c r="I18" s="17">
+        <v>15</v>
+      </c>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="L18" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="M18" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="N18" s="18" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B19" s="17">
+        <v>16</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="G19" s="18"/>
+      <c r="I19" s="17">
+        <v>16</v>
+      </c>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="L19" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="M19" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="N19" s="18"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B20" s="17">
+        <v>17</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="G20" s="18"/>
+      <c r="I20" s="17">
+        <v>17</v>
+      </c>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="L20" s="18" t="s">
+        <v>511</v>
+      </c>
+      <c r="M20" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="N20" s="18"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B21" s="17">
+        <v>18</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B22" s="17">
+        <v>19</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B23" s="17">
+        <v>20</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B24" s="17">
+        <v>21</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B25" s="17">
+        <v>22</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="G25" s="18"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B26" s="17">
+        <v>23</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="G26" s="18"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B27" s="17">
+        <v>24</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="G27" s="18"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B28" s="17">
+        <v>25</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="G28" s="18"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B29" s="17">
+        <v>26</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="G29" s="18"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B30" s="17">
+        <v>27</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="G30" s="18"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B31" s="17">
+        <v>28</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="G31" s="18"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B32" s="17">
+        <v>29</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="G32" s="18"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B33" s="17">
+        <v>30</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="G33" s="18"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B34" s="17">
+        <v>31</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>507</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="G34" s="18"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B35" s="17">
+        <v>32</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="G35" s="18"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B36" s="17">
+        <v>33</v>
+      </c>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="G36" s="18"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B37" s="17">
+        <v>34</v>
+      </c>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="G37" s="18"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B38" s="17">
+        <v>35</v>
+      </c>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B39" s="17">
+        <v>36</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B40" s="17">
+        <v>37</v>
+      </c>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B41" s="17">
+        <v>38</v>
+      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="G41" s="18"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B42" s="17">
+        <v>39</v>
+      </c>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B43" s="17">
+        <v>40</v>
+      </c>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="G43" s="18"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B44" s="17">
+        <v>41</v>
+      </c>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>511</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="G44" s="18"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B46" s="53" t="s">
+        <v>287</v>
+      </c>
+      <c r="C46" s="53"/>
+      <c r="D46" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="E46" s="56" t="s">
+        <v>452</v>
+      </c>
+      <c r="F46" s="57"/>
+      <c r="I46" s="53" t="s">
+        <v>287</v>
+      </c>
+      <c r="J46" s="53"/>
+      <c r="K46" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="L46" s="56" t="s">
+        <v>492</v>
+      </c>
+      <c r="M46" s="57"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B47" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="G47" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="I47" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="J47" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="K47" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="L47" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="N47" s="32" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B48" s="17">
+        <v>1</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="D48" s="55" t="s">
+        <v>422</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="F48" s="55" t="s">
+        <v>338</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="I48" s="17">
+        <v>1</v>
+      </c>
+      <c r="J48" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="K48" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="L48" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="M48" s="55" t="s">
+        <v>338</v>
+      </c>
+      <c r="N48" s="18" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B49" s="17">
+        <v>2</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="D49" s="55" t="s">
+        <v>423</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="F49" s="55" t="s">
+        <v>454</v>
+      </c>
+      <c r="G49" s="55" t="s">
+        <v>455</v>
+      </c>
+      <c r="I49" s="17">
+        <v>2</v>
+      </c>
+      <c r="J49" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="K49" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="L49" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="M49" s="55" t="s">
+        <v>454</v>
+      </c>
+      <c r="N49" s="55" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B50" s="17">
+        <v>3</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="D50" s="55" t="s">
+        <v>424</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="F50" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="G50" s="55" t="s">
+        <v>457</v>
+      </c>
+      <c r="I50" s="17">
+        <v>3</v>
+      </c>
+      <c r="J50" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="K50" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="L50" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="M50" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="N50" s="55" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B51" s="17">
+        <v>4</v>
+      </c>
+      <c r="C51" s="18"/>
+      <c r="D51" s="55" t="s">
+        <v>425</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>515</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="G51" s="55" t="s">
+        <v>456</v>
+      </c>
+      <c r="I51" s="17">
+        <v>4</v>
+      </c>
+      <c r="J51" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="K51" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="L51" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="M51" s="55" t="s">
+        <v>499</v>
+      </c>
+      <c r="N51" s="55" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B52" s="17">
+        <v>5</v>
+      </c>
+      <c r="C52" s="18"/>
+      <c r="D52" s="55" t="s">
+        <v>426</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="G52" s="55" t="s">
+        <v>463</v>
+      </c>
+      <c r="I52" s="17">
+        <v>5</v>
+      </c>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="L52" s="18" t="s">
+        <v>523</v>
+      </c>
+      <c r="M52" s="55" t="s">
+        <v>501</v>
+      </c>
+      <c r="N52" s="55" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B53" s="17">
+        <v>6</v>
+      </c>
+      <c r="C53" s="18"/>
+      <c r="D53" s="55" t="s">
+        <v>427</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="G53" s="55" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B54" s="17">
+        <v>7</v>
+      </c>
+      <c r="C54" s="18"/>
+      <c r="D54" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="F54" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="G54" s="55" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B55" s="17">
+        <v>8</v>
+      </c>
+      <c r="C55" s="18"/>
+      <c r="D55" s="55" t="s">
+        <v>429</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="G55" s="55" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B56" s="17">
+        <v>9</v>
+      </c>
+      <c r="C56" s="18"/>
+      <c r="D56" s="55" t="s">
+        <v>430</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="G56" s="55" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B57" s="17">
+        <v>10</v>
+      </c>
+      <c r="C57" s="18"/>
+      <c r="D57" s="55" t="s">
+        <v>431</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="G57" s="18" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B58" s="17">
+        <v>11</v>
+      </c>
+      <c r="C58" s="18"/>
+      <c r="D58" s="55" t="s">
+        <v>432</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="G58" s="18" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B59" s="17">
+        <v>12</v>
+      </c>
+      <c r="C59" s="18"/>
+      <c r="D59" s="55" t="s">
+        <v>433</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="F59" s="18" t="s">
+        <v>474</v>
+      </c>
+      <c r="G59" s="18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B60" s="17">
+        <v>13</v>
+      </c>
+      <c r="C60" s="18"/>
+      <c r="D60" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="F60" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="G60" s="18" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B61" s="17">
+        <v>14</v>
+      </c>
+      <c r="C61" s="18"/>
+      <c r="D61" s="55" t="s">
+        <v>435</v>
+      </c>
+      <c r="E61" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="G61" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B62" s="17">
+        <v>15</v>
+      </c>
+      <c r="C62" s="18"/>
+      <c r="D62" s="55" t="s">
+        <v>436</v>
+      </c>
+      <c r="E62" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="F62" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="G62" s="18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B63" s="17">
+        <v>16</v>
+      </c>
+      <c r="C63" s="18"/>
+      <c r="D63" s="55" t="s">
+        <v>437</v>
+      </c>
+      <c r="E63" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="F63" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="G63" s="18" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B64" s="17">
+        <v>17</v>
+      </c>
+      <c r="C64" s="18"/>
+      <c r="D64" s="55" t="s">
+        <v>438</v>
+      </c>
+      <c r="E64" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="F64" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="G64" s="18" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B65" s="17">
+        <v>18</v>
+      </c>
+      <c r="C65" s="18"/>
+      <c r="D65" s="55" t="s">
+        <v>439</v>
+      </c>
+      <c r="E65" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="F65" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="G65" s="18"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B66" s="17">
+        <v>19</v>
+      </c>
+      <c r="C66" s="18"/>
+      <c r="D66" s="55" t="s">
+        <v>440</v>
+      </c>
+      <c r="E66" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="F66" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="G66" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B67" s="17">
+        <v>20</v>
+      </c>
+      <c r="C67" s="18"/>
+      <c r="D67" s="55" t="s">
+        <v>441</v>
+      </c>
+      <c r="E67" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="F67" s="18" t="s">
+        <v>485</v>
+      </c>
+      <c r="G67" s="18" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B68" s="17">
+        <v>21</v>
+      </c>
+      <c r="C68" s="18"/>
+      <c r="D68" s="55" t="s">
+        <v>442</v>
+      </c>
+      <c r="E68" s="55" t="s">
+        <v>522</v>
+      </c>
+      <c r="F68" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="G68" s="18"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B69" s="17">
+        <v>22</v>
+      </c>
+      <c r="C69" s="18"/>
+      <c r="D69" s="55" t="s">
+        <v>443</v>
+      </c>
+      <c r="E69" s="55" t="s">
+        <v>522</v>
+      </c>
+      <c r="F69" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="G69" s="18"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B70" s="17">
+        <v>23</v>
+      </c>
+      <c r="C70" s="18"/>
+      <c r="D70" s="55" t="s">
+        <v>444</v>
+      </c>
+      <c r="E70" s="55" t="s">
+        <v>522</v>
+      </c>
+      <c r="F70" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="G70" s="18"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B71" s="17">
+        <v>24</v>
+      </c>
+      <c r="C71" s="18"/>
+      <c r="D71" s="55" t="s">
+        <v>445</v>
+      </c>
+      <c r="E71" s="55" t="s">
+        <v>522</v>
+      </c>
+      <c r="F71" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="G71" s="18"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B72" s="17">
+        <v>25</v>
+      </c>
+      <c r="C72" s="18"/>
+      <c r="D72" s="55" t="s">
+        <v>446</v>
+      </c>
+      <c r="E72" s="55" t="s">
+        <v>522</v>
+      </c>
+      <c r="F72" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="G72" s="18"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B73" s="17">
+        <v>26</v>
+      </c>
+      <c r="C73" s="18"/>
+      <c r="D73" s="55" t="s">
+        <v>447</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="F73" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="G73" s="18"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B74" s="17">
+        <v>27</v>
+      </c>
+      <c r="C74" s="18"/>
+      <c r="D74" s="55" t="s">
+        <v>448</v>
+      </c>
+      <c r="E74" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="F74" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="G74" s="18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B75" s="17">
+        <v>28</v>
+      </c>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="F75" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="G75" s="18"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B76" s="17">
+        <v>29</v>
+      </c>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>511</v>
+      </c>
+      <c r="F76" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="G76" s="18"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B77" s="17">
+        <v>30</v>
+      </c>
+      <c r="C77" s="18"/>
+      <c r="D77" s="55" t="s">
+        <v>449</v>
+      </c>
+      <c r="E77" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="F77" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="G77" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="I46:J46"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L43"/>
   <sheetViews>
@@ -6463,10 +9554,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="53"/>
       <c r="E2" s="22"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.4">
@@ -6481,10 +9572,10 @@
       <c r="C4" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="48"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="21" t="s">
         <v>160</v>
       </c>
@@ -6498,13 +9589,13 @@
         <v>165</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6558,7 +9649,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>155</v>
@@ -6570,22 +9661,22 @@
         <v>159</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I7" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="L7" s="18" t="s">
         <v>275</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="L7" s="18" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.4">
@@ -6593,7 +9684,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>156</v>
@@ -6682,10 +9773,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="18" t="s">
@@ -6706,7 +9797,7 @@
         <v>149</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>159</v>
@@ -6729,7 +9820,7 @@
         <v>150</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>159</v>
@@ -6747,10 +9838,10 @@
       <c r="L13" s="18"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="C16" s="50"/>
+      <c r="C16" s="54"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B17" s="24"/>
@@ -6990,16 +10081,16 @@
         <v>203</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D33" s="29"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
       <c r="G33" s="29"/>
       <c r="H33" s="29"/>
     </row>
@@ -7037,16 +10128,16 @@
         <v>198</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F35" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="G35" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="G35" s="19" t="s">
-        <v>283</v>
-      </c>
       <c r="H35" s="19" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -7059,21 +10150,21 @@
         <v>190</v>
       </c>
       <c r="F36" s="29"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
     </row>
     <row r="37" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="30"/>
       <c r="C37" s="29"/>
       <c r="D37" s="18" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F37" s="29"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B39" s="25" t="s">
@@ -7103,10 +10194,10 @@
         <v>198</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.4">

--- a/外部設計/資料/円弧配列自動化に向けた共通仕様.xlsx
+++ b/外部設計/資料/円弧配列自動化に向けた共通仕様.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25380" windowHeight="10065" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25380" windowHeight="10065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="パラメータ一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="DBテーブル" sheetId="3" r:id="rId2"/>
+    <sheet name="現状のDBテーブル" sheetId="3" r:id="rId2"/>
     <sheet name="クラス" sheetId="2" r:id="rId3"/>
+    <sheet name="CAD側のDBテーブル" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="559">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -3315,13 +3316,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Joint   "/"固定</t>
-    <rPh sb="11" eb="13">
-      <t>コテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>"205/60R16" 等</t>
     <rPh sb="12" eb="13">
       <t>ナド</t>
@@ -3355,13 +3349,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Structure  "R" 固定</t>
-    <rPh sb="15" eb="17">
-      <t>コテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>接尾</t>
     <rPh sb="0" eb="2">
       <t>セツビ</t>
@@ -3595,6 +3582,332 @@
   </si>
   <si>
     <t>Char(8)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tynyint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>smallint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4 or 6 or 8 or 12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基準線</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内側の円の直径</t>
+    <rPh sb="0" eb="1">
+      <t>ウチ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チョッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外側の円の直径</t>
+    <rPh sb="0" eb="1">
+      <t>ソト</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チョッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベリング配置</t>
+    <rPh sb="5" eb="7">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Char(6)</t>
+  </si>
+  <si>
+    <t>Char(2)</t>
+  </si>
+  <si>
+    <t>編集文字フォント名</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集文字区分番号</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加編集文字フォント名1</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加編集文字区分番号1</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加編集文字フォント名2</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加編集文字区分番号2</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単体 or グループの親編集文字</t>
+    <rPh sb="0" eb="2">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  〃</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループの追加編集文字1</t>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループの追加編集文字2</t>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水平方向のグループ化相対距離1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>垂直方向のグループ化相対距離1</t>
+    <rPh sb="0" eb="2">
+      <t>スイチョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水平方向のグループ化相対距離2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>垂直方向のグループ化相対距離2</t>
+    <rPh sb="0" eb="2">
+      <t>スイチョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集文字の風船Brand No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集文字の風船Sub No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループの親編集文字</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加編集文字の風船Brand No1</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加編集文字の風船Sub No1</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加編集文字の風船Brand No2</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加編集文字の風船Sub No2</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対グループの追加編集文字1</t>
+    <rPh sb="0" eb="1">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対グループの追加編集文字2</t>
+    <rPh sb="0" eb="1">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Structure  "R" デフォルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Joint   "/" デフォルト</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3627,7 +3940,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3643,6 +3956,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4056,7 +4375,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4165,6 +4484,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4183,13 +4505,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4207,28 +4526,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4239,8 +4564,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF99CCFF"/>
       <color rgb="FFCCFFCC"/>
-      <color rgb="FF99CCFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -4519,8 +4844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T84"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4545,10 +4870,10 @@
   <sheetData>
     <row r="1" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="40" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="46" t="s">
@@ -4557,29 +4882,29 @@
       <c r="E2" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="36" t="s">
+      <c r="G2" s="38"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="50" t="s">
+      <c r="J2" s="38"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="36" t="s">
+      <c r="M2" s="38"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="39"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B3" s="43"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="45"/>
       <c r="D3" s="47"/>
       <c r="E3" s="49"/>
@@ -4621,7 +4946,7 @@
       </c>
     </row>
     <row r="4" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="44"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
@@ -4670,10 +4995,10 @@
     </row>
     <row r="5" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="40" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="46" t="s">
@@ -4682,19 +5007,19 @@
       <c r="E6" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="36" t="s">
+      <c r="G6" s="38"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="37"/>
-      <c r="K6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="39"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B7" s="43"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="45"/>
       <c r="D7" s="47"/>
       <c r="E7" s="49"/>
@@ -4718,7 +5043,7 @@
       </c>
     </row>
     <row r="8" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="44"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="7" t="s">
         <v>16</v>
       </c>
@@ -4760,10 +5085,10 @@
       <c r="K9" s="31"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="40" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="46" t="s">
@@ -4772,34 +5097,34 @@
       <c r="E10" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="36" t="s">
+      <c r="G10" s="38"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="37"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="36" t="s">
+      <c r="J10" s="38"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="37"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="39" t="s">
+      <c r="M10" s="38"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="36" t="s">
+      <c r="P10" s="41"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="S10" s="37"/>
-      <c r="T10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="39"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B11" s="43"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="45"/>
       <c r="D11" s="47"/>
       <c r="E11" s="49"/>
@@ -4850,7 +5175,7 @@
       </c>
     </row>
     <row r="12" spans="2:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="44"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="7" t="s">
         <v>254</v>
       </c>
@@ -4907,31 +5232,31 @@
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="36" t="s">
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="37"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="36" t="s">
+      <c r="J13" s="38"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="M13" s="37"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="39" t="s">
+      <c r="M13" s="38"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="39" t="s">
+      <c r="P13" s="41"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="S13" s="40"/>
-      <c r="T13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="42"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F14" s="13" t="s">
@@ -5028,31 +5353,31 @@
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F16" s="36" t="s">
+      <c r="F16" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="36" t="s">
+      <c r="G16" s="38"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="36" t="s">
+      <c r="J16" s="38"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="M16" s="37"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="39" t="s">
+      <c r="M16" s="38"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="39" t="s">
+      <c r="P16" s="41"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="S16" s="40"/>
-      <c r="T16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="42"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F17" s="13" t="s">
@@ -5149,31 +5474,31 @@
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="37"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="36" t="s">
+      <c r="G19" s="38"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="J19" s="37"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="36" t="s">
+      <c r="J19" s="38"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="M19" s="37"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="39" t="s">
+      <c r="M19" s="38"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="39" t="s">
+      <c r="P19" s="41"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="S19" s="40"/>
-      <c r="T19" s="41"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="42"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F20" s="13" t="s">
@@ -5270,16 +5595,16 @@
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="G22" s="37"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="36" t="s">
+      <c r="G22" s="38"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="J22" s="37"/>
-      <c r="K22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="39"/>
       <c r="L22" s="29"/>
       <c r="M22" s="30"/>
       <c r="N22" s="30"/>
@@ -5366,10 +5691,10 @@
       <c r="T25" s="30"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="40" t="s">
         <v>0</v>
       </c>
       <c r="D26" s="46" t="s">
@@ -5378,34 +5703,34 @@
       <c r="E26" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="50" t="s">
+      <c r="F26" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="37"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="36" t="s">
+      <c r="G26" s="38"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="36" t="s">
+      <c r="J26" s="38"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="M26" s="37"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="39" t="s">
+      <c r="M26" s="38"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="36" t="s">
+      <c r="P26" s="41"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="S26" s="37"/>
-      <c r="T26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="39"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B27" s="43"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="45"/>
       <c r="D27" s="47"/>
       <c r="E27" s="49"/>
@@ -5456,7 +5781,7 @@
       </c>
     </row>
     <row r="28" spans="2:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="44"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="7" t="s">
         <v>253</v>
       </c>
@@ -5513,26 +5838,26 @@
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F29" s="36" t="s">
+      <c r="F29" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="37"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="36" t="s">
+      <c r="G29" s="38"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="J29" s="37"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="36" t="s">
+      <c r="J29" s="38"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="M29" s="37"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="39" t="s">
+      <c r="M29" s="38"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="42"/>
       <c r="R29" s="29"/>
       <c r="S29" s="30"/>
       <c r="T29" s="30"/>
@@ -5619,10 +5944,10 @@
     </row>
     <row r="32" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="33" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="40" t="s">
         <v>0</v>
       </c>
       <c r="D33" s="46" t="s">
@@ -5631,34 +5956,34 @@
       <c r="E33" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="F33" s="50" t="s">
+      <c r="F33" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="37"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="36" t="s">
+      <c r="G33" s="38"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="J33" s="37"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="36" t="s">
+      <c r="J33" s="38"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="M33" s="37"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="39" t="s">
+      <c r="M33" s="38"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="36" t="s">
+      <c r="P33" s="41"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="S33" s="37"/>
-      <c r="T33" s="38"/>
+      <c r="S33" s="38"/>
+      <c r="T33" s="39"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B34" s="43"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="45"/>
       <c r="D34" s="47"/>
       <c r="E34" s="49"/>
@@ -5709,7 +6034,7 @@
       </c>
     </row>
     <row r="35" spans="2:20" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="44"/>
+      <c r="B35" s="52"/>
       <c r="C35" s="7" t="s">
         <v>26</v>
       </c>
@@ -5766,31 +6091,31 @@
       </c>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F36" s="36" t="s">
+      <c r="F36" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="G36" s="37"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="36" t="s">
+      <c r="G36" s="38"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="J36" s="37"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="39" t="s">
+      <c r="J36" s="38"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="M36" s="40"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="36" t="s">
+      <c r="M36" s="41"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="38"/>
-      <c r="R36" s="36" t="s">
+      <c r="P36" s="38"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="S36" s="37"/>
-      <c r="T36" s="38"/>
+      <c r="S36" s="38"/>
+      <c r="T36" s="39"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F37" s="13" t="s">
@@ -5887,11 +6212,11 @@
       </c>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F39" s="36" t="s">
+      <c r="F39" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="G39" s="37"/>
-      <c r="H39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="39"/>
       <c r="I39" s="29"/>
       <c r="J39" s="30"/>
       <c r="K39" s="30"/>
@@ -5935,10 +6260,10 @@
     </row>
     <row r="42" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="43" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B43" s="42" t="s">
+      <c r="B43" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="C43" s="39" t="s">
+      <c r="C43" s="40" t="s">
         <v>0</v>
       </c>
       <c r="D43" s="46" t="s">
@@ -5947,34 +6272,34 @@
       <c r="E43" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="F43" s="50" t="s">
+      <c r="F43" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="37"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="36" t="s">
+      <c r="G43" s="38"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="J43" s="37"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="36" t="s">
+      <c r="J43" s="38"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="M43" s="37"/>
-      <c r="N43" s="38"/>
-      <c r="O43" s="39" t="s">
+      <c r="M43" s="38"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="36" t="s">
+      <c r="P43" s="41"/>
+      <c r="Q43" s="42"/>
+      <c r="R43" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="S43" s="37"/>
-      <c r="T43" s="38"/>
+      <c r="S43" s="38"/>
+      <c r="T43" s="39"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B44" s="43"/>
+      <c r="B44" s="51"/>
       <c r="C44" s="45"/>
       <c r="D44" s="47"/>
       <c r="E44" s="49"/>
@@ -6025,7 +6350,7 @@
       </c>
     </row>
     <row r="45" spans="2:20" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="44"/>
+      <c r="B45" s="52"/>
       <c r="C45" s="7" t="s">
         <v>46</v>
       </c>
@@ -6082,31 +6407,31 @@
       </c>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F46" s="39" t="s">
+      <c r="F46" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="G46" s="40"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="39" t="s">
+      <c r="G46" s="41"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="J46" s="40"/>
-      <c r="K46" s="41"/>
-      <c r="L46" s="39" t="s">
+      <c r="J46" s="41"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="M46" s="40"/>
-      <c r="N46" s="41"/>
-      <c r="O46" s="36" t="s">
+      <c r="M46" s="41"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="P46" s="37"/>
-      <c r="Q46" s="38"/>
-      <c r="R46" s="36" t="s">
+      <c r="P46" s="38"/>
+      <c r="Q46" s="39"/>
+      <c r="R46" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="S46" s="37"/>
-      <c r="T46" s="38"/>
+      <c r="S46" s="38"/>
+      <c r="T46" s="39"/>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F47" s="13" t="s">
@@ -6208,10 +6533,10 @@
       <c r="H49" s="31"/>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B50" s="42" t="s">
+      <c r="B50" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="C50" s="39" t="s">
+      <c r="C50" s="40" t="s">
         <v>0</v>
       </c>
       <c r="D50" s="46" t="s">
@@ -6220,34 +6545,34 @@
       <c r="E50" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="F50" s="50" t="s">
+      <c r="F50" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G50" s="37"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="36" t="s">
+      <c r="G50" s="38"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="J50" s="37"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="36" t="s">
+      <c r="J50" s="38"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="M50" s="37"/>
-      <c r="N50" s="38"/>
-      <c r="O50" s="39" t="s">
+      <c r="M50" s="38"/>
+      <c r="N50" s="39"/>
+      <c r="O50" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="P50" s="40"/>
-      <c r="Q50" s="41"/>
-      <c r="R50" s="36" t="s">
+      <c r="P50" s="41"/>
+      <c r="Q50" s="42"/>
+      <c r="R50" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="S50" s="37"/>
-      <c r="T50" s="38"/>
+      <c r="S50" s="38"/>
+      <c r="T50" s="39"/>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B51" s="43"/>
+      <c r="B51" s="51"/>
       <c r="C51" s="45"/>
       <c r="D51" s="47"/>
       <c r="E51" s="49"/>
@@ -6298,7 +6623,7 @@
       </c>
     </row>
     <row r="52" spans="2:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="44"/>
+      <c r="B52" s="52"/>
       <c r="C52" s="7" t="s">
         <v>213</v>
       </c>
@@ -6357,11 +6682,11 @@
       <c r="C53" s="29"/>
       <c r="D53" s="30"/>
       <c r="E53" s="33"/>
-      <c r="F53" s="36" t="s">
+      <c r="F53" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="G53" s="37"/>
-      <c r="H53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="39"/>
       <c r="I53" s="29"/>
       <c r="J53" s="30"/>
       <c r="K53" s="30"/>
@@ -6431,10 +6756,10 @@
     </row>
     <row r="56" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="57" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B57" s="42" t="s">
+      <c r="B57" s="50" t="s">
         <v>243</v>
       </c>
-      <c r="C57" s="39" t="s">
+      <c r="C57" s="40" t="s">
         <v>0</v>
       </c>
       <c r="D57" s="46" t="s">
@@ -6443,34 +6768,34 @@
       <c r="E57" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="F57" s="50" t="s">
+      <c r="F57" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G57" s="37"/>
-      <c r="H57" s="51"/>
-      <c r="I57" s="36" t="s">
+      <c r="G57" s="38"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="J57" s="37"/>
-      <c r="K57" s="38"/>
-      <c r="L57" s="36" t="s">
+      <c r="J57" s="38"/>
+      <c r="K57" s="39"/>
+      <c r="L57" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="M57" s="37"/>
-      <c r="N57" s="38"/>
-      <c r="O57" s="39" t="s">
+      <c r="M57" s="38"/>
+      <c r="N57" s="39"/>
+      <c r="O57" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="P57" s="40"/>
-      <c r="Q57" s="41"/>
-      <c r="R57" s="36" t="s">
+      <c r="P57" s="41"/>
+      <c r="Q57" s="42"/>
+      <c r="R57" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="S57" s="37"/>
-      <c r="T57" s="38"/>
+      <c r="S57" s="38"/>
+      <c r="T57" s="39"/>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B58" s="43"/>
+      <c r="B58" s="51"/>
       <c r="C58" s="45"/>
       <c r="D58" s="47"/>
       <c r="E58" s="49"/>
@@ -6521,7 +6846,7 @@
       </c>
     </row>
     <row r="59" spans="2:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="44"/>
+      <c r="B59" s="52"/>
       <c r="C59" s="7" t="s">
         <v>73</v>
       </c>
@@ -6578,31 +6903,31 @@
       </c>
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F60" s="36" t="s">
+      <c r="F60" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="G60" s="37"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="36" t="s">
+      <c r="G60" s="38"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="J60" s="37"/>
-      <c r="K60" s="38"/>
-      <c r="L60" s="36" t="s">
+      <c r="J60" s="38"/>
+      <c r="K60" s="39"/>
+      <c r="L60" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="M60" s="37"/>
-      <c r="N60" s="38"/>
-      <c r="O60" s="39" t="s">
+      <c r="M60" s="38"/>
+      <c r="N60" s="39"/>
+      <c r="O60" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="P60" s="40"/>
-      <c r="Q60" s="41"/>
-      <c r="R60" s="39" t="s">
+      <c r="P60" s="41"/>
+      <c r="Q60" s="42"/>
+      <c r="R60" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="S60" s="40"/>
-      <c r="T60" s="41"/>
+      <c r="S60" s="41"/>
+      <c r="T60" s="42"/>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F61" s="13" t="s">
@@ -6699,31 +7024,31 @@
       </c>
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F63" s="36" t="s">
+      <c r="F63" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="G63" s="37"/>
-      <c r="H63" s="38"/>
-      <c r="I63" s="36" t="s">
+      <c r="G63" s="38"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="J63" s="37"/>
-      <c r="K63" s="38"/>
-      <c r="L63" s="36" t="s">
+      <c r="J63" s="38"/>
+      <c r="K63" s="39"/>
+      <c r="L63" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="M63" s="37"/>
-      <c r="N63" s="38"/>
-      <c r="O63" s="39" t="s">
+      <c r="M63" s="38"/>
+      <c r="N63" s="39"/>
+      <c r="O63" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="P63" s="40"/>
-      <c r="Q63" s="41"/>
-      <c r="R63" s="39" t="s">
+      <c r="P63" s="41"/>
+      <c r="Q63" s="42"/>
+      <c r="R63" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="S63" s="40"/>
-      <c r="T63" s="41"/>
+      <c r="S63" s="41"/>
+      <c r="T63" s="42"/>
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F64" s="13" t="s">
@@ -6820,31 +7145,31 @@
       </c>
     </row>
     <row r="66" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F66" s="36" t="s">
+      <c r="F66" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="G66" s="37"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="36" t="s">
+      <c r="G66" s="38"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="J66" s="37"/>
-      <c r="K66" s="38"/>
-      <c r="L66" s="36" t="s">
+      <c r="J66" s="38"/>
+      <c r="K66" s="39"/>
+      <c r="L66" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="M66" s="37"/>
-      <c r="N66" s="38"/>
-      <c r="O66" s="39" t="s">
+      <c r="M66" s="38"/>
+      <c r="N66" s="39"/>
+      <c r="O66" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="P66" s="40"/>
-      <c r="Q66" s="41"/>
-      <c r="R66" s="39" t="s">
+      <c r="P66" s="41"/>
+      <c r="Q66" s="42"/>
+      <c r="R66" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="S66" s="40"/>
-      <c r="T66" s="41"/>
+      <c r="S66" s="41"/>
+      <c r="T66" s="42"/>
     </row>
     <row r="67" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F67" s="13" t="s">
@@ -6942,10 +7267,10 @@
     </row>
     <row r="69" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="70" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B70" s="42" t="s">
+      <c r="B70" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="C70" s="39" t="s">
+      <c r="C70" s="40" t="s">
         <v>0</v>
       </c>
       <c r="D70" s="46" t="s">
@@ -6954,34 +7279,34 @@
       <c r="E70" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="F70" s="50" t="s">
+      <c r="F70" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G70" s="37"/>
-      <c r="H70" s="51"/>
-      <c r="I70" s="36" t="s">
+      <c r="G70" s="38"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="J70" s="37"/>
-      <c r="K70" s="38"/>
-      <c r="L70" s="36" t="s">
+      <c r="J70" s="38"/>
+      <c r="K70" s="39"/>
+      <c r="L70" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="M70" s="37"/>
-      <c r="N70" s="38"/>
-      <c r="O70" s="39" t="s">
+      <c r="M70" s="38"/>
+      <c r="N70" s="39"/>
+      <c r="O70" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="P70" s="40"/>
-      <c r="Q70" s="41"/>
-      <c r="R70" s="36" t="s">
+      <c r="P70" s="41"/>
+      <c r="Q70" s="42"/>
+      <c r="R70" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="S70" s="37"/>
-      <c r="T70" s="38"/>
+      <c r="S70" s="38"/>
+      <c r="T70" s="39"/>
     </row>
     <row r="71" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B71" s="43"/>
+      <c r="B71" s="51"/>
       <c r="C71" s="45"/>
       <c r="D71" s="47"/>
       <c r="E71" s="49"/>
@@ -7032,7 +7357,7 @@
       </c>
     </row>
     <row r="72" spans="2:20" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="44"/>
+      <c r="B72" s="52"/>
       <c r="C72" s="7" t="s">
         <v>107</v>
       </c>
@@ -7089,31 +7414,31 @@
       </c>
     </row>
     <row r="73" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F73" s="36" t="s">
+      <c r="F73" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="G73" s="37"/>
-      <c r="H73" s="38"/>
-      <c r="I73" s="36" t="s">
+      <c r="G73" s="38"/>
+      <c r="H73" s="39"/>
+      <c r="I73" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="J73" s="37"/>
-      <c r="K73" s="38"/>
-      <c r="L73" s="36" t="s">
+      <c r="J73" s="38"/>
+      <c r="K73" s="39"/>
+      <c r="L73" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="M73" s="37"/>
-      <c r="N73" s="38"/>
-      <c r="O73" s="39" t="s">
+      <c r="M73" s="38"/>
+      <c r="N73" s="39"/>
+      <c r="O73" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="P73" s="40"/>
-      <c r="Q73" s="41"/>
-      <c r="R73" s="39" t="s">
+      <c r="P73" s="41"/>
+      <c r="Q73" s="42"/>
+      <c r="R73" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="S73" s="40"/>
-      <c r="T73" s="41"/>
+      <c r="S73" s="41"/>
+      <c r="T73" s="42"/>
     </row>
     <row r="74" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F74" s="13" t="s">
@@ -7210,31 +7535,31 @@
       </c>
     </row>
     <row r="76" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F76" s="36" t="s">
+      <c r="F76" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="G76" s="37"/>
-      <c r="H76" s="38"/>
-      <c r="I76" s="36" t="s">
+      <c r="G76" s="38"/>
+      <c r="H76" s="39"/>
+      <c r="I76" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="J76" s="37"/>
-      <c r="K76" s="38"/>
-      <c r="L76" s="36" t="s">
+      <c r="J76" s="38"/>
+      <c r="K76" s="39"/>
+      <c r="L76" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="M76" s="37"/>
-      <c r="N76" s="38"/>
-      <c r="O76" s="39" t="s">
+      <c r="M76" s="38"/>
+      <c r="N76" s="39"/>
+      <c r="O76" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="P76" s="40"/>
-      <c r="Q76" s="41"/>
-      <c r="R76" s="39" t="s">
+      <c r="P76" s="41"/>
+      <c r="Q76" s="42"/>
+      <c r="R76" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="S76" s="40"/>
-      <c r="T76" s="41"/>
+      <c r="S76" s="41"/>
+      <c r="T76" s="42"/>
     </row>
     <row r="77" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F77" s="13" t="s">
@@ -7331,31 +7656,31 @@
       </c>
     </row>
     <row r="79" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F79" s="36" t="s">
+      <c r="F79" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="G79" s="37"/>
-      <c r="H79" s="38"/>
-      <c r="I79" s="36" t="s">
+      <c r="G79" s="38"/>
+      <c r="H79" s="39"/>
+      <c r="I79" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="J79" s="37"/>
-      <c r="K79" s="38"/>
-      <c r="L79" s="36" t="s">
+      <c r="J79" s="38"/>
+      <c r="K79" s="39"/>
+      <c r="L79" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="M79" s="37"/>
-      <c r="N79" s="38"/>
-      <c r="O79" s="39" t="s">
+      <c r="M79" s="38"/>
+      <c r="N79" s="39"/>
+      <c r="O79" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="P79" s="40"/>
-      <c r="Q79" s="41"/>
-      <c r="R79" s="39" t="s">
+      <c r="P79" s="41"/>
+      <c r="Q79" s="42"/>
+      <c r="R79" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="S79" s="40"/>
-      <c r="T79" s="41"/>
+      <c r="S79" s="41"/>
+      <c r="T79" s="42"/>
     </row>
     <row r="80" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F80" s="13" t="s">
@@ -7452,26 +7777,26 @@
       </c>
     </row>
     <row r="82" spans="6:20" x14ac:dyDescent="0.4">
-      <c r="F82" s="36" t="s">
+      <c r="F82" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="G82" s="37"/>
-      <c r="H82" s="38"/>
-      <c r="I82" s="36" t="s">
+      <c r="G82" s="38"/>
+      <c r="H82" s="39"/>
+      <c r="I82" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="J82" s="37"/>
-      <c r="K82" s="38"/>
-      <c r="L82" s="36" t="s">
+      <c r="J82" s="38"/>
+      <c r="K82" s="39"/>
+      <c r="L82" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="M82" s="37"/>
-      <c r="N82" s="38"/>
-      <c r="O82" s="39" t="s">
+      <c r="M82" s="38"/>
+      <c r="N82" s="39"/>
+      <c r="O82" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="P82" s="40"/>
-      <c r="Q82" s="41"/>
+      <c r="P82" s="41"/>
+      <c r="Q82" s="42"/>
     </row>
     <row r="83" spans="6:20" x14ac:dyDescent="0.4">
       <c r="F83" s="13" t="s">
@@ -7551,78 +7876,52 @@
     </row>
   </sheetData>
   <mergeCells count="144">
-    <mergeCell ref="F82:H82"/>
-    <mergeCell ref="I82:K82"/>
-    <mergeCell ref="L82:N82"/>
-    <mergeCell ref="O82:Q82"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="I79:K79"/>
-    <mergeCell ref="L79:N79"/>
-    <mergeCell ref="O79:Q79"/>
-    <mergeCell ref="O70:Q70"/>
-    <mergeCell ref="R70:T70"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="I73:K73"/>
-    <mergeCell ref="L73:N73"/>
-    <mergeCell ref="O73:Q73"/>
-    <mergeCell ref="R73:T73"/>
-    <mergeCell ref="R79:T79"/>
-    <mergeCell ref="F76:H76"/>
-    <mergeCell ref="I76:K76"/>
-    <mergeCell ref="L76:N76"/>
-    <mergeCell ref="O76:Q76"/>
-    <mergeCell ref="R76:T76"/>
-    <mergeCell ref="F70:H70"/>
-    <mergeCell ref="I70:K70"/>
-    <mergeCell ref="L70:N70"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="R46:T46"/>
-    <mergeCell ref="R57:T57"/>
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="O57:Q57"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="O50:Q50"/>
-    <mergeCell ref="R50:T50"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L46:N46"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="I57:K57"/>
-    <mergeCell ref="O46:Q46"/>
-    <mergeCell ref="L66:N66"/>
-    <mergeCell ref="O66:Q66"/>
-    <mergeCell ref="R66:T66"/>
-    <mergeCell ref="R60:T60"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="I63:K63"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="O63:Q63"/>
-    <mergeCell ref="R63:T63"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="I60:K60"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="O60:Q60"/>
-    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="R43:T43"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="O43:Q43"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:H50"/>
     <mergeCell ref="B70:B72"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B6:B8"/>
@@ -7647,54 +7946,80 @@
     <mergeCell ref="D70:D71"/>
     <mergeCell ref="E70:E71"/>
     <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="R66:T66"/>
+    <mergeCell ref="R60:T60"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="I63:K63"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="O63:Q63"/>
+    <mergeCell ref="R63:T63"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="I60:K60"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="O60:Q60"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="I57:K57"/>
+    <mergeCell ref="O46:Q46"/>
+    <mergeCell ref="L66:N66"/>
+    <mergeCell ref="O66:Q66"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="L2:N2"/>
     <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="R13:T13"/>
     <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="R43:T43"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="O43:Q43"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="R46:T46"/>
+    <mergeCell ref="R57:T57"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="O57:Q57"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="R50:T50"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="R70:T70"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="I73:K73"/>
+    <mergeCell ref="L73:N73"/>
+    <mergeCell ref="O73:Q73"/>
+    <mergeCell ref="R73:T73"/>
+    <mergeCell ref="R79:T79"/>
+    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="L76:N76"/>
+    <mergeCell ref="O76:Q76"/>
+    <mergeCell ref="R76:T76"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="I70:K70"/>
+    <mergeCell ref="L70:N70"/>
+    <mergeCell ref="F82:H82"/>
+    <mergeCell ref="I82:K82"/>
+    <mergeCell ref="L82:N82"/>
+    <mergeCell ref="O82:Q82"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="I79:K79"/>
+    <mergeCell ref="L79:N79"/>
+    <mergeCell ref="O79:Q79"/>
+    <mergeCell ref="O70:Q70"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
@@ -7714,7 +8039,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -7738,39 +8065,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="55" t="s">
         <v>287</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="55"/>
       <c r="D2" s="18" t="s">
         <v>286</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="53" t="s">
         <v>419</v>
       </c>
-      <c r="F2" s="57"/>
-      <c r="I2" s="53" t="s">
+      <c r="F2" s="54"/>
+      <c r="I2" s="55" t="s">
         <v>287</v>
       </c>
-      <c r="J2" s="53"/>
+      <c r="J2" s="55"/>
       <c r="K2" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="L2" s="56" t="s">
+      <c r="L2" s="53" t="s">
         <v>420</v>
       </c>
-      <c r="M2" s="57"/>
-      <c r="P2" s="56" t="s">
+      <c r="M2" s="54"/>
+      <c r="P2" s="53" t="s">
         <v>287</v>
       </c>
-      <c r="Q2" s="57"/>
+      <c r="Q2" s="54"/>
       <c r="R2" s="18" t="s">
         <v>405</v>
       </c>
-      <c r="S2" s="56" t="s">
+      <c r="S2" s="53" t="s">
         <v>421</v>
       </c>
-      <c r="T2" s="57"/>
+      <c r="T2" s="54"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B3" s="32" t="s">
@@ -7839,7 +8166,7 @@
         <v>290</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>338</v>
@@ -7857,7 +8184,7 @@
         <v>378</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="M4" s="18" t="s">
         <v>394</v>
@@ -7875,7 +8202,7 @@
         <v>406</v>
       </c>
       <c r="S4" s="18" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="T4" s="18" t="s">
         <v>395</v>
@@ -7893,7 +8220,7 @@
         <v>291</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>220</v>
@@ -7911,7 +8238,7 @@
         <v>379</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="M5" s="18" t="s">
         <v>220</v>
@@ -7929,9 +8256,9 @@
         <v>407</v>
       </c>
       <c r="S5" s="18" t="s">
-        <v>504</v>
-      </c>
-      <c r="T5" s="55" t="s">
+        <v>502</v>
+      </c>
+      <c r="T5" s="36" t="s">
         <v>220</v>
       </c>
       <c r="U5" s="18" t="s">
@@ -7949,7 +8276,7 @@
         <v>292</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>370</v>
@@ -7967,12 +8294,12 @@
         <v>380</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>503</v>
-      </c>
-      <c r="M6" s="55" t="s">
+        <v>501</v>
+      </c>
+      <c r="M6" s="36" t="s">
         <v>397</v>
       </c>
-      <c r="N6" s="55" t="s">
+      <c r="N6" s="36" t="s">
         <v>398</v>
       </c>
       <c r="P6" s="17">
@@ -7985,12 +8312,12 @@
         <v>408</v>
       </c>
       <c r="S6" s="18" t="s">
-        <v>503</v>
-      </c>
-      <c r="T6" s="55" t="s">
+        <v>501</v>
+      </c>
+      <c r="T6" s="36" t="s">
         <v>397</v>
       </c>
-      <c r="U6" s="55" t="s">
+      <c r="U6" s="36" t="s">
         <v>398</v>
       </c>
     </row>
@@ -8005,7 +8332,7 @@
         <v>293</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>371</v>
@@ -8021,9 +8348,9 @@
         <v>381</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="M7" s="55" t="s">
+        <v>508</v>
+      </c>
+      <c r="M7" s="36" t="s">
         <v>399</v>
       </c>
       <c r="N7" s="18"/>
@@ -8037,12 +8364,12 @@
         <v>409</v>
       </c>
       <c r="S7" s="18" t="s">
-        <v>512</v>
-      </c>
-      <c r="T7" s="55" t="s">
+        <v>510</v>
+      </c>
+      <c r="T7" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="U7" s="55" t="s">
+      <c r="U7" s="36" t="s">
         <v>414</v>
       </c>
     </row>
@@ -8057,7 +8384,7 @@
         <v>295</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>341</v>
@@ -8073,9 +8400,9 @@
         <v>382</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>508</v>
-      </c>
-      <c r="M8" s="55" t="s">
+        <v>506</v>
+      </c>
+      <c r="M8" s="36" t="s">
         <v>247</v>
       </c>
       <c r="N8" s="18" t="s">
@@ -8089,12 +8416,12 @@
         <v>410</v>
       </c>
       <c r="S8" s="18" t="s">
-        <v>513</v>
-      </c>
-      <c r="T8" s="55" t="s">
+        <v>511</v>
+      </c>
+      <c r="T8" s="36" t="s">
         <v>415</v>
       </c>
-      <c r="U8" s="55" t="s">
+      <c r="U8" s="36" t="s">
         <v>416</v>
       </c>
     </row>
@@ -8109,7 +8436,7 @@
         <v>294</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>342</v>
@@ -8125,9 +8452,9 @@
         <v>383</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>512</v>
-      </c>
-      <c r="M9" s="55" t="s">
+        <v>525</v>
+      </c>
+      <c r="M9" s="36" t="s">
         <v>401</v>
       </c>
       <c r="N9" s="18"/>
@@ -8141,7 +8468,7 @@
         <v>301</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>347</v>
@@ -8155,9 +8482,9 @@
         <v>384</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>506</v>
-      </c>
-      <c r="M10" s="55" t="s">
+        <v>504</v>
+      </c>
+      <c r="M10" s="36" t="s">
         <v>250</v>
       </c>
       <c r="N10" s="18"/>
@@ -8171,7 +8498,7 @@
         <v>302</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>348</v>
@@ -8185,9 +8512,9 @@
         <v>385</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>506</v>
-      </c>
-      <c r="M11" s="55" t="s">
+        <v>504</v>
+      </c>
+      <c r="M11" s="36" t="s">
         <v>251</v>
       </c>
       <c r="N11" s="18"/>
@@ -8201,7 +8528,7 @@
         <v>303</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>349</v>
@@ -8215,9 +8542,9 @@
         <v>386</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>506</v>
-      </c>
-      <c r="M12" s="55" t="s">
+        <v>504</v>
+      </c>
+      <c r="M12" s="36" t="s">
         <v>402</v>
       </c>
       <c r="N12" s="18"/>
@@ -8231,7 +8558,7 @@
         <v>304</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>229</v>
@@ -8245,9 +8572,9 @@
         <v>387</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>508</v>
-      </c>
-      <c r="M13" s="55" t="s">
+        <v>506</v>
+      </c>
+      <c r="M13" s="36" t="s">
         <v>373</v>
       </c>
       <c r="N13" s="18"/>
@@ -8261,7 +8588,7 @@
         <v>305</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>230</v>
@@ -8275,7 +8602,7 @@
         <v>388</v>
       </c>
       <c r="L14" s="18" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
@@ -8289,7 +8616,7 @@
         <v>306</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>350</v>
@@ -8303,7 +8630,7 @@
         <v>389</v>
       </c>
       <c r="L15" s="18" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
@@ -8317,7 +8644,7 @@
         <v>307</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>351</v>
@@ -8331,7 +8658,7 @@
         <v>390</v>
       </c>
       <c r="L16" s="18" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
@@ -8345,7 +8672,7 @@
         <v>308</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>22</v>
@@ -8359,7 +8686,7 @@
         <v>332</v>
       </c>
       <c r="L17" s="18" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M17" s="18" t="s">
         <v>403</v>
@@ -8375,7 +8702,7 @@
         <v>309</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F18" s="18" t="s">
         <v>24</v>
@@ -8389,7 +8716,7 @@
         <v>391</v>
       </c>
       <c r="L18" s="18" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="M18" s="18" t="s">
         <v>393</v>
@@ -8407,7 +8734,7 @@
         <v>310</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>352</v>
@@ -8421,7 +8748,7 @@
         <v>334</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="M19" s="18" t="s">
         <v>375</v>
@@ -8437,7 +8764,7 @@
         <v>311</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>353</v>
@@ -8451,7 +8778,7 @@
         <v>335</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="M20" s="18" t="s">
         <v>376</v>
@@ -8467,7 +8794,7 @@
         <v>312</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>354</v>
@@ -8483,7 +8810,7 @@
         <v>313</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F22" s="18" t="s">
         <v>355</v>
@@ -8499,7 +8826,7 @@
         <v>314</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>356</v>
@@ -8515,7 +8842,7 @@
         <v>315</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>357</v>
@@ -8531,7 +8858,7 @@
         <v>316</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>358</v>
@@ -8547,7 +8874,7 @@
         <v>317</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F26" s="18" t="s">
         <v>359</v>
@@ -8563,7 +8890,7 @@
         <v>318</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F27" s="18" t="s">
         <v>234</v>
@@ -8579,7 +8906,7 @@
         <v>319</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F28" s="18" t="s">
         <v>361</v>
@@ -8595,7 +8922,7 @@
         <v>320</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>362</v>
@@ -8611,7 +8938,7 @@
         <v>321</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F30" s="18" t="s">
         <v>364</v>
@@ -8627,7 +8954,7 @@
         <v>322</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>236</v>
@@ -8643,7 +8970,7 @@
         <v>323</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F32" s="18" t="s">
         <v>366</v>
@@ -8659,7 +8986,7 @@
         <v>324</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F33" s="18" t="s">
         <v>367</v>
@@ -8675,7 +9002,7 @@
         <v>325</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F34" s="18" t="s">
         <v>368</v>
@@ -8691,7 +9018,7 @@
         <v>326</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F35" s="18" t="s">
         <v>369</v>
@@ -8707,7 +9034,7 @@
         <v>327</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F36" s="18" t="s">
         <v>372</v>
@@ -8723,7 +9050,7 @@
         <v>328</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="F37" s="18" t="s">
         <v>373</v>
@@ -8739,7 +9066,7 @@
         <v>329</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
@@ -8753,7 +9080,7 @@
         <v>330</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
@@ -8767,7 +9094,7 @@
         <v>331</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
@@ -8781,7 +9108,7 @@
         <v>332</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F41" s="18" t="s">
         <v>374</v>
@@ -8797,7 +9124,7 @@
         <v>333</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F42" s="18" t="s">
         <v>393</v>
@@ -8815,7 +9142,7 @@
         <v>334</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F43" s="18" t="s">
         <v>375</v>
@@ -8831,7 +9158,7 @@
         <v>335</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F44" s="18" t="s">
         <v>376</v>
@@ -8839,28 +9166,28 @@
       <c r="G44" s="18"/>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B46" s="53" t="s">
+      <c r="B46" s="55" t="s">
         <v>287</v>
       </c>
-      <c r="C46" s="53"/>
+      <c r="C46" s="55"/>
       <c r="D46" s="18" t="s">
         <v>418</v>
       </c>
-      <c r="E46" s="56" t="s">
+      <c r="E46" s="53" t="s">
         <v>452</v>
       </c>
-      <c r="F46" s="57"/>
-      <c r="I46" s="53" t="s">
+      <c r="F46" s="54"/>
+      <c r="I46" s="55" t="s">
         <v>287</v>
       </c>
-      <c r="J46" s="53"/>
+      <c r="J46" s="55"/>
       <c r="K46" s="18" t="s">
-        <v>493</v>
-      </c>
-      <c r="L46" s="56" t="s">
-        <v>492</v>
-      </c>
-      <c r="M46" s="57"/>
+        <v>491</v>
+      </c>
+      <c r="L46" s="53" t="s">
+        <v>490</v>
+      </c>
+      <c r="M46" s="54"/>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B47" s="32" t="s">
@@ -8907,13 +9234,13 @@
       <c r="C48" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="D48" s="55" t="s">
+      <c r="D48" s="36" t="s">
         <v>422</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>509</v>
-      </c>
-      <c r="F48" s="55" t="s">
+        <v>507</v>
+      </c>
+      <c r="F48" s="36" t="s">
         <v>338</v>
       </c>
       <c r="G48" s="18" t="s">
@@ -8923,15 +9250,15 @@
         <v>1</v>
       </c>
       <c r="J48" s="17" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="K48" s="18" t="s">
         <v>378</v>
       </c>
       <c r="L48" s="18" t="s">
-        <v>509</v>
-      </c>
-      <c r="M48" s="55" t="s">
+        <v>507</v>
+      </c>
+      <c r="M48" s="36" t="s">
         <v>338</v>
       </c>
       <c r="N48" s="18" t="s">
@@ -8945,16 +9272,16 @@
       <c r="C49" s="17" t="s">
         <v>450</v>
       </c>
-      <c r="D49" s="55" t="s">
+      <c r="D49" s="36" t="s">
         <v>423</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>514</v>
-      </c>
-      <c r="F49" s="55" t="s">
+        <v>512</v>
+      </c>
+      <c r="F49" s="36" t="s">
         <v>454</v>
       </c>
-      <c r="G49" s="55" t="s">
+      <c r="G49" s="36" t="s">
         <v>455</v>
       </c>
       <c r="I49" s="17">
@@ -8964,15 +9291,15 @@
         <v>299</v>
       </c>
       <c r="K49" s="18" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="L49" s="18" t="s">
-        <v>514</v>
-      </c>
-      <c r="M49" s="55" t="s">
+        <v>512</v>
+      </c>
+      <c r="M49" s="36" t="s">
         <v>454</v>
       </c>
-      <c r="N49" s="55" t="s">
+      <c r="N49" s="36" t="s">
         <v>455</v>
       </c>
     </row>
@@ -8983,16 +9310,16 @@
       <c r="C50" s="17" t="s">
         <v>451</v>
       </c>
-      <c r="D50" s="55" t="s">
+      <c r="D50" s="36" t="s">
         <v>424</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>503</v>
-      </c>
-      <c r="F50" s="55" t="s">
+        <v>501</v>
+      </c>
+      <c r="F50" s="36" t="s">
         <v>458</v>
       </c>
-      <c r="G50" s="55" t="s">
+      <c r="G50" s="36" t="s">
         <v>457</v>
       </c>
       <c r="I50" s="17">
@@ -9002,15 +9329,15 @@
         <v>298</v>
       </c>
       <c r="K50" s="18" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L50" s="18" t="s">
-        <v>503</v>
-      </c>
-      <c r="M50" s="55" t="s">
+        <v>501</v>
+      </c>
+      <c r="M50" s="36" t="s">
         <v>458</v>
       </c>
-      <c r="N50" s="55" t="s">
+      <c r="N50" s="36" t="s">
         <v>457</v>
       </c>
     </row>
@@ -9019,16 +9346,16 @@
         <v>4</v>
       </c>
       <c r="C51" s="18"/>
-      <c r="D51" s="55" t="s">
+      <c r="D51" s="36" t="s">
         <v>425</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F51" s="18" t="s">
         <v>459</v>
       </c>
-      <c r="G51" s="55" t="s">
+      <c r="G51" s="36" t="s">
         <v>456</v>
       </c>
       <c r="I51" s="17">
@@ -9038,16 +9365,16 @@
         <v>298</v>
       </c>
       <c r="K51" s="18" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="L51" s="18" t="s">
-        <v>508</v>
-      </c>
-      <c r="M51" s="55" t="s">
-        <v>499</v>
-      </c>
-      <c r="N51" s="55" t="s">
-        <v>500</v>
+        <v>506</v>
+      </c>
+      <c r="M51" s="36" t="s">
+        <v>497</v>
+      </c>
+      <c r="N51" s="36" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.4">
@@ -9055,16 +9382,16 @@
         <v>5</v>
       </c>
       <c r="C52" s="18"/>
-      <c r="D52" s="55" t="s">
+      <c r="D52" s="36" t="s">
         <v>426</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F52" s="18" t="s">
         <v>460</v>
       </c>
-      <c r="G52" s="55" t="s">
+      <c r="G52" s="36" t="s">
         <v>463</v>
       </c>
       <c r="I52" s="17">
@@ -9072,16 +9399,16 @@
       </c>
       <c r="J52" s="18"/>
       <c r="K52" s="18" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L52" s="18" t="s">
-        <v>523</v>
-      </c>
-      <c r="M52" s="55" t="s">
-        <v>501</v>
-      </c>
-      <c r="N52" s="55" t="s">
-        <v>502</v>
+        <v>521</v>
+      </c>
+      <c r="M52" s="36" t="s">
+        <v>499</v>
+      </c>
+      <c r="N52" s="36" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.4">
@@ -9089,16 +9416,16 @@
         <v>6</v>
       </c>
       <c r="C53" s="18"/>
-      <c r="D53" s="55" t="s">
+      <c r="D53" s="36" t="s">
         <v>427</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F53" s="18" t="s">
         <v>461</v>
       </c>
-      <c r="G53" s="55" t="s">
+      <c r="G53" s="36" t="s">
         <v>464</v>
       </c>
     </row>
@@ -9107,16 +9434,16 @@
         <v>7</v>
       </c>
       <c r="C54" s="18"/>
-      <c r="D54" s="55" t="s">
+      <c r="D54" s="36" t="s">
         <v>428</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F54" s="18" t="s">
         <v>462</v>
       </c>
-      <c r="G54" s="55" t="s">
+      <c r="G54" s="36" t="s">
         <v>465</v>
       </c>
     </row>
@@ -9125,17 +9452,17 @@
         <v>8</v>
       </c>
       <c r="C55" s="18"/>
-      <c r="D55" s="55" t="s">
+      <c r="D55" s="36" t="s">
         <v>429</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F55" s="18" t="s">
         <v>466</v>
       </c>
-      <c r="G55" s="55" t="s">
-        <v>470</v>
+      <c r="G55" s="36" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.4">
@@ -9143,17 +9470,17 @@
         <v>9</v>
       </c>
       <c r="C56" s="18"/>
-      <c r="D56" s="55" t="s">
+      <c r="D56" s="36" t="s">
         <v>430</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F56" s="18" t="s">
         <v>467</v>
       </c>
-      <c r="G56" s="55" t="s">
-        <v>471</v>
+      <c r="G56" s="36" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.4">
@@ -9161,17 +9488,17 @@
         <v>10</v>
       </c>
       <c r="C57" s="18"/>
-      <c r="D57" s="55" t="s">
+      <c r="D57" s="36" t="s">
         <v>431</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F57" s="18" t="s">
         <v>468</v>
       </c>
       <c r="G57" s="18" t="s">
-        <v>469</v>
+        <v>558</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.4">
@@ -9179,17 +9506,17 @@
         <v>11</v>
       </c>
       <c r="C58" s="18"/>
-      <c r="D58" s="55" t="s">
+      <c r="D58" s="36" t="s">
         <v>432</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F58" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="G58" s="18" t="s">
         <v>472</v>
-      </c>
-      <c r="G58" s="18" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.4">
@@ -9197,14 +9524,14 @@
         <v>12</v>
       </c>
       <c r="C59" s="18"/>
-      <c r="D59" s="55" t="s">
+      <c r="D59" s="36" t="s">
         <v>433</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G59" s="18" t="s">
         <v>121</v>
@@ -9215,17 +9542,17 @@
         <v>13</v>
       </c>
       <c r="C60" s="18"/>
-      <c r="D60" s="55" t="s">
+      <c r="D60" s="36" t="s">
         <v>434</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G60" s="18" t="s">
-        <v>476</v>
+        <v>557</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.4">
@@ -9233,14 +9560,14 @@
         <v>14</v>
       </c>
       <c r="C61" s="18"/>
-      <c r="D61" s="55" t="s">
+      <c r="D61" s="36" t="s">
         <v>435</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G61" s="18" t="s">
         <v>124</v>
@@ -9251,14 +9578,14 @@
         <v>15</v>
       </c>
       <c r="C62" s="18"/>
-      <c r="D62" s="55" t="s">
+      <c r="D62" s="36" t="s">
         <v>436</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G62" s="18" t="s">
         <v>125</v>
@@ -9269,17 +9596,17 @@
         <v>16</v>
       </c>
       <c r="C63" s="18"/>
-      <c r="D63" s="55" t="s">
+      <c r="D63" s="36" t="s">
         <v>437</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.4">
@@ -9287,17 +9614,17 @@
         <v>17</v>
       </c>
       <c r="C64" s="18"/>
-      <c r="D64" s="55" t="s">
+      <c r="D64" s="36" t="s">
         <v>438</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.4">
@@ -9305,14 +9632,14 @@
         <v>18</v>
       </c>
       <c r="C65" s="18"/>
-      <c r="D65" s="55" t="s">
+      <c r="D65" s="36" t="s">
         <v>439</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G65" s="18"/>
     </row>
@@ -9321,14 +9648,14 @@
         <v>19</v>
       </c>
       <c r="C66" s="18"/>
-      <c r="D66" s="55" t="s">
+      <c r="D66" s="36" t="s">
         <v>440</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G66" s="18" t="s">
         <v>128</v>
@@ -9339,17 +9666,17 @@
         <v>20</v>
       </c>
       <c r="C67" s="18"/>
-      <c r="D67" s="55" t="s">
+      <c r="D67" s="36" t="s">
         <v>441</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.4">
@@ -9357,14 +9684,14 @@
         <v>21</v>
       </c>
       <c r="C68" s="18"/>
-      <c r="D68" s="55" t="s">
+      <c r="D68" s="36" t="s">
         <v>442</v>
       </c>
-      <c r="E68" s="55" t="s">
-        <v>522</v>
+      <c r="E68" s="36" t="s">
+        <v>520</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G68" s="18"/>
     </row>
@@ -9373,14 +9700,14 @@
         <v>22</v>
       </c>
       <c r="C69" s="18"/>
-      <c r="D69" s="55" t="s">
+      <c r="D69" s="36" t="s">
         <v>443</v>
       </c>
-      <c r="E69" s="55" t="s">
-        <v>522</v>
+      <c r="E69" s="36" t="s">
+        <v>520</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G69" s="18"/>
     </row>
@@ -9389,14 +9716,14 @@
         <v>23</v>
       </c>
       <c r="C70" s="18"/>
-      <c r="D70" s="55" t="s">
+      <c r="D70" s="36" t="s">
         <v>444</v>
       </c>
-      <c r="E70" s="55" t="s">
-        <v>522</v>
+      <c r="E70" s="36" t="s">
+        <v>520</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G70" s="18"/>
     </row>
@@ -9405,14 +9732,14 @@
         <v>24</v>
       </c>
       <c r="C71" s="18"/>
-      <c r="D71" s="55" t="s">
+      <c r="D71" s="36" t="s">
         <v>445</v>
       </c>
-      <c r="E71" s="55" t="s">
-        <v>522</v>
+      <c r="E71" s="36" t="s">
+        <v>520</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G71" s="18"/>
     </row>
@@ -9421,14 +9748,14 @@
         <v>25</v>
       </c>
       <c r="C72" s="18"/>
-      <c r="D72" s="55" t="s">
+      <c r="D72" s="36" t="s">
         <v>446</v>
       </c>
-      <c r="E72" s="55" t="s">
-        <v>522</v>
+      <c r="E72" s="36" t="s">
+        <v>520</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G72" s="18"/>
     </row>
@@ -9437,11 +9764,11 @@
         <v>26</v>
       </c>
       <c r="C73" s="18"/>
-      <c r="D73" s="55" t="s">
+      <c r="D73" s="36" t="s">
         <v>447</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F73" s="18" t="s">
         <v>403</v>
@@ -9453,11 +9780,11 @@
         <v>27</v>
       </c>
       <c r="C74" s="18"/>
-      <c r="D74" s="55" t="s">
+      <c r="D74" s="36" t="s">
         <v>448</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F74" s="18" t="s">
         <v>393</v>
@@ -9475,7 +9802,7 @@
         <v>334</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F75" s="18" t="s">
         <v>375</v>
@@ -9491,7 +9818,7 @@
         <v>335</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F76" s="18" t="s">
         <v>376</v>
@@ -9503,11 +9830,11 @@
         <v>30</v>
       </c>
       <c r="C77" s="18"/>
-      <c r="D77" s="55" t="s">
+      <c r="D77" s="36" t="s">
         <v>449</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F77" s="18" t="s">
         <v>214</v>
@@ -9516,16 +9843,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="I46:J46"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="L46:M46"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="I46:J46"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9537,7 +9864,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -9554,10 +9883,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="55"/>
       <c r="E2" s="22"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.4">
@@ -9572,10 +9901,10 @@
       <c r="C4" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="52"/>
+      <c r="E4" s="56"/>
       <c r="F4" s="21" t="s">
         <v>160</v>
       </c>
@@ -9838,10 +10167,10 @@
       <c r="L13" s="18"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="C16" s="54"/>
+      <c r="C16" s="57"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B17" s="24"/>
@@ -10253,4 +10582,344 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="2.875" customWidth="1"/>
+    <col min="2" max="2" width="4.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.75" customWidth="1"/>
+    <col min="5" max="5" width="28.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B2" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>522</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B3" s="59" t="s">
+        <v>528</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4" s="17">
+        <v>1</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B5" s="17">
+        <v>2</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B6" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B7" s="17">
+        <v>1</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B8" s="17">
+        <v>2</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B9" s="59" t="s">
+        <v>531</v>
+      </c>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B10" s="17">
+        <v>1</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B11" s="17">
+        <v>2</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B12" s="17">
+        <v>3</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B13" s="17">
+        <v>4</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>537</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B14" s="17">
+        <v>5</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>538</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B15" s="17">
+        <v>6</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>539</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B16" s="17">
+        <v>7</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>544</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B17" s="17">
+        <v>8</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>545</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B18" s="17">
+        <v>9</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B19" s="17">
+        <v>10</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>547</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B20" s="17">
+        <v>11</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>548</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B21" s="17">
+        <v>12</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B22" s="17">
+        <v>13</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B23" s="17">
+        <v>14</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>552</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B24" s="17">
+        <v>15</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B25" s="17">
+        <v>16</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>541</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B6:E6"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/外部設計/資料/円弧配列自動化に向けた共通仕様.xlsx
+++ b/外部設計/資料/円弧配列自動化に向けた共通仕様.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25380" windowHeight="10065" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25380" windowHeight="10065"/>
   </bookViews>
   <sheets>
     <sheet name="パラメータ一覧" sheetId="1" r:id="rId1"/>
@@ -114,10 +114,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>＝ 4, 6, 8, 12</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>要素2</t>
     <rPh sb="0" eb="2">
       <t>ヨウソ</t>
@@ -576,10 +572,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>= 1～12</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>主方向基準からの距離</t>
     <rPh sb="0" eb="1">
       <t>シュ</t>
@@ -626,10 +618,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>= 0(Both),  1(Top), 2(Bot)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>AT-B図面、コード表が作図済であること。</t>
     <rPh sb="4" eb="6">
       <t>ズメン</t>
@@ -926,10 +914,6 @@
   </si>
   <si>
     <t>Structure</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>”R”</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1815,10 +1799,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>角度or角Ｒ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>実高さ</t>
     <rPh sb="0" eb="1">
       <t>ジツ</t>
@@ -1836,10 +1816,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>垂直原点位置</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>＝ "C"</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1913,13 +1889,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>フォント区分</t>
-    <rPh sb="4" eb="6">
-      <t>クブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スペル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2401,10 +2370,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>hight</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>width</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2759,10 +2724,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ハッチング始点Ｘ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ハッチング始点Y</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2853,10 +2814,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>spell</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>haiti_sitei</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3908,6 +3865,46 @@
   </si>
   <si>
     <t>Joint   "/" デフォルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＝ 4, 6, 8, 12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>角度or角Ｒ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水平原点位置</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>垂直原点位置</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>縁取り幅</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハッチング始点Ｘ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>high</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>= 1～12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>= 0(Both),  1(Top), 2(Bot)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4487,28 +4484,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4526,14 +4514,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4541,17 +4544,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4844,8 +4841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T84"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="I41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T48" sqref="T48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4870,44 +4867,44 @@
   <sheetData>
     <row r="1" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B2" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="40" t="s">
+      <c r="B2" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="43" t="s">
+      <c r="E2" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="43" t="s">
+      <c r="G2" s="48"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="48"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="48"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="39"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="51"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B3" s="51"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="49"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="46"/>
       <c r="F3" s="8" t="s">
         <v>7</v>
       </c>
@@ -4946,7 +4943,7 @@
       </c>
     </row>
     <row r="4" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="52"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
@@ -4954,25 +4951,25 @@
         <v>3</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>5</v>
@@ -4990,80 +4987,80 @@
         <v>9</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>14</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B6" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="40" t="s">
+      <c r="B6" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="43" t="s">
+      <c r="E6" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="37" t="s">
+      <c r="G6" s="48"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="48"/>
+      <c r="K6" s="51"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B7" s="39"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="40"/>
+      <c r="C8" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="39"/>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B7" s="51"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="52"/>
-      <c r="C8" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>10</v>
@@ -5085,178 +5082,178 @@
       <c r="K9" s="31"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B10" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="40" t="s">
+      <c r="B10" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="48"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="48"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="48"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" s="48"/>
+      <c r="T10" s="51"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B11" s="39"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P11" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="S11" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="40"/>
+      <c r="C12" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="38"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="37" t="s">
+      <c r="F12" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="F13" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="S10" s="38"/>
-      <c r="T10" s="39"/>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B11" s="51"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="M11" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="P11" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="S11" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="52"/>
-      <c r="C12" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q12" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="S12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T12" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F13" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="37" t="s">
+      <c r="G13" s="48"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="48"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="48"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="M13" s="38"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="S13" s="41"/>
-      <c r="T13" s="42"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="S13" s="52"/>
+      <c r="T13" s="53"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F14" s="13" t="s">
@@ -5307,7 +5304,7 @@
     </row>
     <row r="15" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F15" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>10</v>
@@ -5316,7 +5313,7 @@
         <v>13</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>10</v>
@@ -5325,16 +5322,16 @@
         <v>13</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>228</v>
+        <v>550</v>
       </c>
       <c r="M15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="P15" s="5" t="s">
         <v>10</v>
@@ -5343,41 +5340,41 @@
         <v>13</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="S15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="T15" s="6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F16" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="38"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="37" t="s">
+      <c r="F16" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="48"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="48"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="M16" s="48"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="J16" s="38"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M16" s="38"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="S16" s="41"/>
-      <c r="T16" s="42"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="53"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F17" s="13" t="s">
@@ -5428,77 +5425,77 @@
     </row>
     <row r="18" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F18" s="4" t="s">
-        <v>350</v>
+        <v>551</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H18" s="34" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>231</v>
+        <v>552</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K18" s="34" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>234</v>
+        <v>553</v>
       </c>
       <c r="M18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="P18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="Q18" s="14" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="S18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="T18" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F19" s="37" t="s">
+      <c r="F19" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="48"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="J19" s="48"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="M19" s="48"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="38"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="37" t="s">
+      <c r="P19" s="52"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="J19" s="38"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="M19" s="38"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="S19" s="41"/>
-      <c r="T19" s="42"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="53"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F20" s="13" t="s">
@@ -5549,62 +5546,62 @@
     </row>
     <row r="21" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F21" s="4" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>365</v>
+        <v>554</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="M21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="P21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="Q21" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T21" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F22" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="G22" s="38"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="J22" s="38"/>
-      <c r="K22" s="39"/>
+      <c r="F22" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="48"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="J22" s="48"/>
+      <c r="K22" s="51"/>
       <c r="L22" s="29"/>
       <c r="M22" s="30"/>
       <c r="N22" s="30"/>
@@ -5646,22 +5643,22 @@
     </row>
     <row r="24" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F24" s="4" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L24" s="29"/>
       <c r="M24" s="30"/>
@@ -5691,49 +5688,49 @@
       <c r="T25" s="30"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B26" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="C26" s="40" t="s">
+      <c r="B26" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="46" t="s">
+      <c r="D26" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" s="43" t="s">
+      <c r="E26" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="38"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" s="38"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="37" t="s">
+      <c r="G26" s="48"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="48"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="48"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="M26" s="38"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="S26" s="38"/>
-      <c r="T26" s="39"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="S26" s="48"/>
+      <c r="T26" s="51"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B27" s="51"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="49"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="46"/>
       <c r="F27" s="8" t="s">
         <v>7</v>
       </c>
@@ -5781,54 +5778,54 @@
       </c>
     </row>
     <row r="28" spans="2:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="52"/>
+      <c r="B28" s="40"/>
       <c r="C28" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>245</v>
+        <v>387</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N28" s="12" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="P28" s="5" t="s">
         <v>9</v>
       </c>
       <c r="Q28" s="34" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S28" s="5" t="s">
         <v>9</v>
@@ -5838,26 +5835,26 @@
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F29" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="G29" s="38"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="J29" s="38"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="37" t="s">
+      <c r="F29" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="48"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" s="48"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="M29" s="48"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="M29" s="38"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="42"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="53"/>
       <c r="R29" s="29"/>
       <c r="S29" s="30"/>
       <c r="T29" s="30"/>
@@ -5905,7 +5902,7 @@
     </row>
     <row r="31" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F31" s="4" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>10</v>
@@ -5914,7 +5911,7 @@
         <v>13</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="J31" s="5" t="s">
         <v>10</v>
@@ -5923,20 +5920,20 @@
         <v>13</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="M31" s="5" t="s">
         <v>10</v>
       </c>
       <c r="N31" s="14" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="P31" s="5"/>
       <c r="Q31" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R31" s="29"/>
       <c r="S31" s="30"/>
@@ -5944,49 +5941,49 @@
     </row>
     <row r="32" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="33" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B33" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="40" t="s">
+      <c r="B33" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="C33" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D33" s="46" t="s">
+      <c r="D33" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="43" t="s">
+      <c r="E33" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="38"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33" s="38"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="37" t="s">
+      <c r="G33" s="48"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="48"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="M33" s="48"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="M33" s="38"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="42"/>
-      <c r="R33" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="S33" s="38"/>
-      <c r="T33" s="39"/>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="S33" s="48"/>
+      <c r="T33" s="51"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B34" s="51"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="49"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="46"/>
       <c r="F34" s="8" t="s">
         <v>7</v>
       </c>
@@ -6034,27 +6031,27 @@
       </c>
     </row>
     <row r="35" spans="2:20" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="52"/>
+      <c r="B35" s="40"/>
       <c r="C35" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="E35" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35" s="9" t="s">
+      <c r="G35" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G35" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="H35" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J35" s="5" t="s">
         <v>9</v>
@@ -6063,7 +6060,7 @@
         <v>13</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M35" s="5" t="s">
         <v>9</v>
@@ -6072,50 +6069,50 @@
         <v>13</v>
       </c>
       <c r="O35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q35" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="P35" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q35" s="14" t="s">
+      <c r="R35" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="R35" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="S35" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T35" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F36" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="G36" s="38"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="J36" s="38"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="40" t="s">
+      <c r="F36" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="48"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="J36" s="48"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="M36" s="52"/>
+      <c r="N36" s="53"/>
+      <c r="O36" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="M36" s="41"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="39"/>
-      <c r="R36" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="S36" s="38"/>
-      <c r="T36" s="39"/>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="51"/>
+      <c r="R36" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="S36" s="48"/>
+      <c r="T36" s="51"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F37" s="13" t="s">
@@ -6166,7 +6163,7 @@
     </row>
     <row r="38" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F38" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>9</v>
@@ -6175,7 +6172,7 @@
         <v>13</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J38" s="5" t="s">
         <v>9</v>
@@ -6184,39 +6181,39 @@
         <v>13</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N38" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P38" s="5" t="s">
         <v>10</v>
       </c>
       <c r="Q38" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S38" s="5" t="s">
         <v>10</v>
       </c>
       <c r="T38" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F39" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="G39" s="38"/>
-      <c r="H39" s="39"/>
+      <c r="F39" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39" s="48"/>
+      <c r="H39" s="51"/>
       <c r="I39" s="29"/>
       <c r="J39" s="30"/>
       <c r="K39" s="30"/>
@@ -6243,7 +6240,7 @@
     </row>
     <row r="41" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F41" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>9</v>
@@ -6260,49 +6257,49 @@
     </row>
     <row r="42" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="43" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B43" s="50" t="s">
-        <v>144</v>
-      </c>
-      <c r="C43" s="40" t="s">
+      <c r="B43" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D43" s="46" t="s">
+      <c r="D43" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E43" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="F43" s="43" t="s">
+      <c r="E43" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="38"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="J43" s="38"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="37" t="s">
+      <c r="G43" s="48"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" s="48"/>
+      <c r="K43" s="51"/>
+      <c r="L43" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="M43" s="48"/>
+      <c r="N43" s="51"/>
+      <c r="O43" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="M43" s="38"/>
-      <c r="N43" s="39"/>
-      <c r="O43" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="42"/>
-      <c r="R43" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="S43" s="38"/>
-      <c r="T43" s="39"/>
+      <c r="P43" s="52"/>
+      <c r="Q43" s="53"/>
+      <c r="R43" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="S43" s="48"/>
+      <c r="T43" s="51"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B44" s="51"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="49"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="46"/>
       <c r="F44" s="8" t="s">
         <v>7</v>
       </c>
@@ -6350,27 +6347,27 @@
       </c>
     </row>
     <row r="45" spans="2:20" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="52"/>
+      <c r="B45" s="40"/>
       <c r="C45" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F45" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I45" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="J45" s="5" t="s">
         <v>9</v>
@@ -6379,7 +6376,7 @@
         <v>13</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M45" s="5" t="s">
         <v>9</v>
@@ -6388,50 +6385,50 @@
         <v>13</v>
       </c>
       <c r="O45" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q45" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="P45" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q45" s="14" t="s">
+      <c r="R45" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="R45" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="S45" s="5" t="s">
         <v>9</v>
       </c>
       <c r="T45" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F46" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="G46" s="41"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="J46" s="41"/>
-      <c r="K46" s="42"/>
-      <c r="L46" s="40" t="s">
+      <c r="F46" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="G46" s="52"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="J46" s="52"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="M46" s="52"/>
+      <c r="N46" s="53"/>
+      <c r="O46" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="M46" s="41"/>
-      <c r="N46" s="42"/>
-      <c r="O46" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="P46" s="38"/>
-      <c r="Q46" s="39"/>
-      <c r="R46" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="S46" s="38"/>
-      <c r="T46" s="39"/>
+      <c r="P46" s="48"/>
+      <c r="Q46" s="51"/>
+      <c r="R46" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="S46" s="48"/>
+      <c r="T46" s="51"/>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F47" s="13" t="s">
@@ -6482,49 +6479,49 @@
     </row>
     <row r="48" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F48" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J48" s="5" t="s">
         <v>9</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>64</v>
+        <v>557</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M48" s="5" t="s">
         <v>10</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P48" s="5" t="s">
         <v>10</v>
       </c>
       <c r="Q48" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R48" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="S48" s="5" t="s">
         <v>9</v>
       </c>
       <c r="T48" s="6" t="s">
-        <v>69</v>
+        <v>558</v>
       </c>
     </row>
     <row r="49" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -6533,49 +6530,49 @@
       <c r="H49" s="31"/>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B50" s="50" t="s">
-        <v>242</v>
-      </c>
-      <c r="C50" s="40" t="s">
+      <c r="B50" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="C50" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D50" s="46" t="s">
+      <c r="D50" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E50" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="F50" s="43" t="s">
+      <c r="E50" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="F50" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G50" s="38"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="J50" s="38"/>
-      <c r="K50" s="39"/>
-      <c r="L50" s="37" t="s">
+      <c r="G50" s="48"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="J50" s="48"/>
+      <c r="K50" s="51"/>
+      <c r="L50" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="M50" s="48"/>
+      <c r="N50" s="51"/>
+      <c r="O50" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="M50" s="38"/>
-      <c r="N50" s="39"/>
-      <c r="O50" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="P50" s="41"/>
-      <c r="Q50" s="42"/>
-      <c r="R50" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="S50" s="38"/>
-      <c r="T50" s="39"/>
+      <c r="P50" s="52"/>
+      <c r="Q50" s="53"/>
+      <c r="R50" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="S50" s="48"/>
+      <c r="T50" s="51"/>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B51" s="51"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="49"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="46"/>
       <c r="F51" s="8" t="s">
         <v>7</v>
       </c>
@@ -6623,58 +6620,58 @@
       </c>
     </row>
     <row r="52" spans="2:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="52"/>
+      <c r="B52" s="40"/>
       <c r="C52" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H52" s="34" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K52" s="14" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N52" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O52" s="4" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="P52" s="5"/>
       <c r="Q52" s="14" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="R52" s="4" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="S52" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T52" s="6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="53" spans="2:20" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -6682,11 +6679,11 @@
       <c r="C53" s="29"/>
       <c r="D53" s="30"/>
       <c r="E53" s="33"/>
-      <c r="F53" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="G53" s="38"/>
-      <c r="H53" s="39"/>
+      <c r="F53" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="G53" s="48"/>
+      <c r="H53" s="51"/>
       <c r="I53" s="29"/>
       <c r="J53" s="30"/>
       <c r="K53" s="30"/>
@@ -6733,13 +6730,13 @@
       <c r="D55" s="30"/>
       <c r="E55" s="33"/>
       <c r="F55" s="4" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I55" s="29"/>
       <c r="J55" s="30"/>
@@ -6756,49 +6753,49 @@
     </row>
     <row r="56" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="57" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B57" s="50" t="s">
-        <v>243</v>
-      </c>
-      <c r="C57" s="40" t="s">
+      <c r="B57" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="C57" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D57" s="46" t="s">
+      <c r="D57" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E57" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="F57" s="43" t="s">
+      <c r="E57" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="F57" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G57" s="38"/>
-      <c r="H57" s="44"/>
-      <c r="I57" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="J57" s="38"/>
-      <c r="K57" s="39"/>
-      <c r="L57" s="37" t="s">
+      <c r="G57" s="48"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="J57" s="48"/>
+      <c r="K57" s="51"/>
+      <c r="L57" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="M57" s="48"/>
+      <c r="N57" s="51"/>
+      <c r="O57" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="M57" s="38"/>
-      <c r="N57" s="39"/>
-      <c r="O57" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="P57" s="41"/>
-      <c r="Q57" s="42"/>
-      <c r="R57" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="S57" s="38"/>
-      <c r="T57" s="39"/>
+      <c r="P57" s="52"/>
+      <c r="Q57" s="53"/>
+      <c r="R57" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="S57" s="48"/>
+      <c r="T57" s="51"/>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B58" s="51"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="49"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="46"/>
       <c r="F58" s="8" t="s">
         <v>7</v>
       </c>
@@ -6846,88 +6843,88 @@
       </c>
     </row>
     <row r="59" spans="2:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="52"/>
+      <c r="B59" s="40"/>
       <c r="C59" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F59" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L59" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G59" s="5" t="s">
+      <c r="M59" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N59" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H59" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I59" s="4" t="s">
+      <c r="O59" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P59" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q59" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="J59" s="5" t="s">
+      <c r="R59" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="S59" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T59" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K59" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L59" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M59" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N59" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="O59" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="P59" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q59" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="R59" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="S59" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T59" s="6" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F60" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="G60" s="38"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="J60" s="38"/>
-      <c r="K60" s="39"/>
-      <c r="L60" s="37" t="s">
+      <c r="F60" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="G60" s="48"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="J60" s="48"/>
+      <c r="K60" s="51"/>
+      <c r="L60" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="M60" s="48"/>
+      <c r="N60" s="51"/>
+      <c r="O60" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="M60" s="38"/>
-      <c r="N60" s="39"/>
-      <c r="O60" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="P60" s="41"/>
-      <c r="Q60" s="42"/>
-      <c r="R60" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="S60" s="41"/>
-      <c r="T60" s="42"/>
+      <c r="P60" s="52"/>
+      <c r="Q60" s="53"/>
+      <c r="R60" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="S60" s="52"/>
+      <c r="T60" s="53"/>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F61" s="13" t="s">
@@ -6978,77 +6975,77 @@
     </row>
     <row r="62" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F62" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H62" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K62" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G62" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H62" s="14" t="s">
+      <c r="L62" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="I62" s="4" t="s">
+      <c r="M62" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N62" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="J62" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K62" s="6" t="s">
+      <c r="O62" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="L62" s="4" t="s">
+      <c r="P62" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q62" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="R62" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="M62" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N62" s="6" t="s">
+      <c r="S62" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T62" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="F63" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="G63" s="48"/>
+      <c r="H63" s="51"/>
+      <c r="I63" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="O62" s="4" t="s">
+      <c r="J63" s="48"/>
+      <c r="K63" s="51"/>
+      <c r="L63" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="P62" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q62" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="R62" s="4" t="s">
+      <c r="M63" s="48"/>
+      <c r="N63" s="51"/>
+      <c r="O63" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="S62" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T62" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F63" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="G63" s="38"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="37" t="s">
+      <c r="P63" s="52"/>
+      <c r="Q63" s="53"/>
+      <c r="R63" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="J63" s="38"/>
-      <c r="K63" s="39"/>
-      <c r="L63" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M63" s="38"/>
-      <c r="N63" s="39"/>
-      <c r="O63" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="P63" s="41"/>
-      <c r="Q63" s="42"/>
-      <c r="R63" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="S63" s="41"/>
-      <c r="T63" s="42"/>
+      <c r="S63" s="52"/>
+      <c r="T63" s="53"/>
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F64" s="13" t="s">
@@ -7099,77 +7096,77 @@
     </row>
     <row r="65" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F65" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H65" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="M65" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N65" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O65" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G65" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H65" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="I65" s="4" t="s">
+      <c r="P65" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q65" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="R65" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J65" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K65" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="L65" s="4" t="s">
+      <c r="S65" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T65" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="F66" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="M65" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N65" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="O65" s="4" t="s">
+      <c r="G66" s="48"/>
+      <c r="H66" s="51"/>
+      <c r="I66" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="P65" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q65" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="R65" s="4" t="s">
+      <c r="J66" s="48"/>
+      <c r="K66" s="51"/>
+      <c r="L66" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="S65" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T65" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F66" s="37" t="s">
+      <c r="M66" s="48"/>
+      <c r="N66" s="51"/>
+      <c r="O66" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="G66" s="38"/>
-      <c r="H66" s="39"/>
-      <c r="I66" s="37" t="s">
+      <c r="P66" s="52"/>
+      <c r="Q66" s="53"/>
+      <c r="R66" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="J66" s="38"/>
-      <c r="K66" s="39"/>
-      <c r="L66" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="M66" s="38"/>
-      <c r="N66" s="39"/>
-      <c r="O66" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="P66" s="41"/>
-      <c r="Q66" s="42"/>
-      <c r="R66" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="S66" s="41"/>
-      <c r="T66" s="42"/>
+      <c r="S66" s="52"/>
+      <c r="T66" s="53"/>
     </row>
     <row r="67" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F67" s="13" t="s">
@@ -7220,96 +7217,96 @@
     </row>
     <row r="68" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F68" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H68" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L68" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="M68" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N68" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O68" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G68" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H68" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="I68" s="4" t="s">
+      <c r="P68" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q68" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="R68" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="J68" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K68" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="L68" s="4" t="s">
+      <c r="S68" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T68" s="14" t="s">
         <v>103</v>
-      </c>
-      <c r="M68" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N68" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="O68" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="P68" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q68" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="R68" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="S68" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T68" s="14" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="69" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="70" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B70" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="C70" s="40" t="s">
+      <c r="B70" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="C70" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D70" s="46" t="s">
+      <c r="D70" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E70" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="F70" s="43" t="s">
+      <c r="E70" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="F70" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G70" s="38"/>
-      <c r="H70" s="44"/>
-      <c r="I70" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="J70" s="38"/>
-      <c r="K70" s="39"/>
-      <c r="L70" s="37" t="s">
+      <c r="G70" s="48"/>
+      <c r="H70" s="49"/>
+      <c r="I70" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="J70" s="48"/>
+      <c r="K70" s="51"/>
+      <c r="L70" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="M70" s="48"/>
+      <c r="N70" s="51"/>
+      <c r="O70" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="M70" s="38"/>
-      <c r="N70" s="39"/>
-      <c r="O70" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="P70" s="41"/>
-      <c r="Q70" s="42"/>
-      <c r="R70" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="S70" s="38"/>
-      <c r="T70" s="39"/>
+      <c r="P70" s="52"/>
+      <c r="Q70" s="53"/>
+      <c r="R70" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="S70" s="48"/>
+      <c r="T70" s="51"/>
     </row>
     <row r="71" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B71" s="51"/>
-      <c r="C71" s="45"/>
-      <c r="D71" s="47"/>
-      <c r="E71" s="49"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="46"/>
       <c r="F71" s="8" t="s">
         <v>7</v>
       </c>
@@ -7357,88 +7354,88 @@
       </c>
     </row>
     <row r="72" spans="2:20" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="52"/>
+      <c r="B72" s="40"/>
       <c r="C72" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J72" s="5" t="s">
         <v>9</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M72" s="5" t="s">
         <v>9</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O72" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P72" s="5" t="s">
         <v>9</v>
       </c>
       <c r="Q72" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R72" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="S72" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T72" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T72" s="6" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="73" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F73" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="G73" s="38"/>
-      <c r="H73" s="39"/>
-      <c r="I73" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="J73" s="38"/>
-      <c r="K73" s="39"/>
-      <c r="L73" s="37" t="s">
+      <c r="F73" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="G73" s="48"/>
+      <c r="H73" s="51"/>
+      <c r="I73" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="J73" s="48"/>
+      <c r="K73" s="51"/>
+      <c r="L73" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="M73" s="48"/>
+      <c r="N73" s="51"/>
+      <c r="O73" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="M73" s="38"/>
-      <c r="N73" s="39"/>
-      <c r="O73" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="P73" s="41"/>
-      <c r="Q73" s="42"/>
-      <c r="R73" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="S73" s="41"/>
-      <c r="T73" s="42"/>
+      <c r="P73" s="52"/>
+      <c r="Q73" s="53"/>
+      <c r="R73" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="S73" s="52"/>
+      <c r="T73" s="53"/>
     </row>
     <row r="74" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F74" s="13" t="s">
@@ -7489,77 +7486,77 @@
     </row>
     <row r="75" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F75" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H75" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I75" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L75" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M75" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N75" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O75" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="P75" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q75" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="R75" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="J75" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K75" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L75" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="M75" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N75" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="O75" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="P75" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q75" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="R75" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="S75" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T75" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F76" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="G76" s="38"/>
-      <c r="H76" s="39"/>
-      <c r="I76" s="37" t="s">
+      <c r="F76" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="G76" s="48"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="J76" s="48"/>
+      <c r="K76" s="51"/>
+      <c r="L76" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="M76" s="48"/>
+      <c r="N76" s="51"/>
+      <c r="O76" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="P76" s="52"/>
+      <c r="Q76" s="53"/>
+      <c r="R76" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="J76" s="38"/>
-      <c r="K76" s="39"/>
-      <c r="L76" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M76" s="38"/>
-      <c r="N76" s="39"/>
-      <c r="O76" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="P76" s="41"/>
-      <c r="Q76" s="42"/>
-      <c r="R76" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="S76" s="41"/>
-      <c r="T76" s="42"/>
+      <c r="S76" s="52"/>
+      <c r="T76" s="53"/>
     </row>
     <row r="77" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F77" s="13" t="s">
@@ -7610,77 +7607,77 @@
     </row>
     <row r="78" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F78" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H78" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="M78" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N78" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O78" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G78" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H78" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I78" s="4" t="s">
+      <c r="P78" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q78" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="R78" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="J78" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K78" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L78" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="M78" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N78" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="O78" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="P78" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q78" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="R78" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="S78" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T78" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F79" s="37" t="s">
+      <c r="F79" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="G79" s="48"/>
+      <c r="H79" s="51"/>
+      <c r="I79" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="J79" s="48"/>
+      <c r="K79" s="51"/>
+      <c r="L79" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="M79" s="48"/>
+      <c r="N79" s="51"/>
+      <c r="O79" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="G79" s="38"/>
-      <c r="H79" s="39"/>
-      <c r="I79" s="37" t="s">
+      <c r="P79" s="52"/>
+      <c r="Q79" s="53"/>
+      <c r="R79" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="J79" s="38"/>
-      <c r="K79" s="39"/>
-      <c r="L79" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="M79" s="38"/>
-      <c r="N79" s="39"/>
-      <c r="O79" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="P79" s="41"/>
-      <c r="Q79" s="42"/>
-      <c r="R79" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="S79" s="41"/>
-      <c r="T79" s="42"/>
+      <c r="S79" s="52"/>
+      <c r="T79" s="53"/>
     </row>
     <row r="80" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F80" s="13" t="s">
@@ -7731,72 +7728,72 @@
     </row>
     <row r="81" spans="6:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F81" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H81" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L81" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M81" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N81" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O81" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="P81" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q81" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="R81" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G81" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H81" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I81" s="4" t="s">
+      <c r="S81" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T81" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="6:20" x14ac:dyDescent="0.4">
+      <c r="F82" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="J81" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K81" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="L81" s="4" t="s">
+      <c r="G82" s="48"/>
+      <c r="H82" s="51"/>
+      <c r="I82" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="M81" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N81" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="O81" s="4" t="s">
+      <c r="J82" s="48"/>
+      <c r="K82" s="51"/>
+      <c r="L82" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="P81" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q81" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="R81" s="4" t="s">
+      <c r="M82" s="48"/>
+      <c r="N82" s="51"/>
+      <c r="O82" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="S81" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T81" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="82" spans="6:20" x14ac:dyDescent="0.4">
-      <c r="F82" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="G82" s="38"/>
-      <c r="H82" s="39"/>
-      <c r="I82" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="J82" s="38"/>
-      <c r="K82" s="39"/>
-      <c r="L82" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="M82" s="38"/>
-      <c r="N82" s="39"/>
-      <c r="O82" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="P82" s="41"/>
-      <c r="Q82" s="42"/>
+      <c r="P82" s="52"/>
+      <c r="Q82" s="53"/>
     </row>
     <row r="83" spans="6:20" x14ac:dyDescent="0.4">
       <c r="F83" s="13" t="s">
@@ -7838,44 +7835,164 @@
     </row>
     <row r="84" spans="6:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F84" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H84" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K84" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L84" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H84" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="J84" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K84" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="L84" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="M84" s="5" t="s">
         <v>9</v>
       </c>
       <c r="N84" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="O84" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="P84" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q84" s="14" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="144">
+    <mergeCell ref="F82:H82"/>
+    <mergeCell ref="I82:K82"/>
+    <mergeCell ref="L82:N82"/>
+    <mergeCell ref="O82:Q82"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="I79:K79"/>
+    <mergeCell ref="L79:N79"/>
+    <mergeCell ref="O79:Q79"/>
+    <mergeCell ref="O70:Q70"/>
+    <mergeCell ref="R70:T70"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="I73:K73"/>
+    <mergeCell ref="L73:N73"/>
+    <mergeCell ref="O73:Q73"/>
+    <mergeCell ref="R73:T73"/>
+    <mergeCell ref="R79:T79"/>
+    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="L76:N76"/>
+    <mergeCell ref="O76:Q76"/>
+    <mergeCell ref="R76:T76"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="I70:K70"/>
+    <mergeCell ref="L70:N70"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="R46:T46"/>
+    <mergeCell ref="R57:T57"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="O57:Q57"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="R50:T50"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="I57:K57"/>
+    <mergeCell ref="O46:Q46"/>
+    <mergeCell ref="L66:N66"/>
+    <mergeCell ref="O66:Q66"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="R66:T66"/>
+    <mergeCell ref="R60:T60"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="I63:K63"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="O63:Q63"/>
+    <mergeCell ref="R63:T63"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="I60:K60"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="O60:Q60"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="I66:K66"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="R13:T13"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="D26:D27"/>
@@ -7900,126 +8017,6 @@
     <mergeCell ref="R16:T16"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="F66:H66"/>
-    <mergeCell ref="I66:K66"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="R66:T66"/>
-    <mergeCell ref="R60:T60"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="I63:K63"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="O63:Q63"/>
-    <mergeCell ref="R63:T63"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="I60:K60"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="O60:Q60"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="I57:K57"/>
-    <mergeCell ref="O46:Q46"/>
-    <mergeCell ref="L66:N66"/>
-    <mergeCell ref="O66:Q66"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="R46:T46"/>
-    <mergeCell ref="R57:T57"/>
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="O57:Q57"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="O50:Q50"/>
-    <mergeCell ref="R50:T50"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="L46:N46"/>
-    <mergeCell ref="R70:T70"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="I73:K73"/>
-    <mergeCell ref="L73:N73"/>
-    <mergeCell ref="O73:Q73"/>
-    <mergeCell ref="R73:T73"/>
-    <mergeCell ref="R79:T79"/>
-    <mergeCell ref="F76:H76"/>
-    <mergeCell ref="I76:K76"/>
-    <mergeCell ref="L76:N76"/>
-    <mergeCell ref="O76:Q76"/>
-    <mergeCell ref="R76:T76"/>
-    <mergeCell ref="F70:H70"/>
-    <mergeCell ref="I70:K70"/>
-    <mergeCell ref="L70:N70"/>
-    <mergeCell ref="F82:H82"/>
-    <mergeCell ref="I82:K82"/>
-    <mergeCell ref="L82:N82"/>
-    <mergeCell ref="O82:Q82"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="I79:K79"/>
-    <mergeCell ref="L79:N79"/>
-    <mergeCell ref="O79:Q79"/>
-    <mergeCell ref="O70:Q70"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
@@ -8039,8 +8036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U77"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8065,94 +8062,94 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="B2" s="55" t="s">
-        <v>287</v>
-      </c>
-      <c r="C2" s="55"/>
+      <c r="B2" s="54" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="54"/>
       <c r="D2" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="E2" s="53" t="s">
-        <v>419</v>
-      </c>
-      <c r="F2" s="54"/>
-      <c r="I2" s="55" t="s">
-        <v>287</v>
-      </c>
-      <c r="J2" s="55"/>
+        <v>279</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>409</v>
+      </c>
+      <c r="F2" s="56"/>
+      <c r="I2" s="54" t="s">
+        <v>280</v>
+      </c>
+      <c r="J2" s="54"/>
       <c r="K2" s="18" t="s">
-        <v>377</v>
-      </c>
-      <c r="L2" s="53" t="s">
-        <v>420</v>
-      </c>
-      <c r="M2" s="54"/>
-      <c r="P2" s="53" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q2" s="54"/>
+        <v>368</v>
+      </c>
+      <c r="L2" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="M2" s="56"/>
+      <c r="P2" s="55" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q2" s="56"/>
       <c r="R2" s="18" t="s">
-        <v>405</v>
-      </c>
-      <c r="S2" s="53" t="s">
-        <v>421</v>
-      </c>
-      <c r="T2" s="54"/>
+        <v>395</v>
+      </c>
+      <c r="S2" s="55" t="s">
+        <v>411</v>
+      </c>
+      <c r="T2" s="56"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B3" s="32" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D3" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="J3" s="32" t="s">
         <v>289</v>
       </c>
-      <c r="E3" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>336</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>337</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>296</v>
-      </c>
       <c r="K3" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="P3" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q3" s="32" t="s">
         <v>289</v>
       </c>
-      <c r="L3" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="32" t="s">
-        <v>336</v>
-      </c>
-      <c r="N3" s="32" t="s">
-        <v>337</v>
-      </c>
-      <c r="P3" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q3" s="32" t="s">
-        <v>296</v>
-      </c>
       <c r="R3" s="32" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="S3" s="32" t="s">
         <v>8</v>
       </c>
       <c r="T3" s="32" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="U3" s="32" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.4">
@@ -8160,52 +8157,52 @@
         <v>1</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="I4" s="17">
         <v>1</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="P4" s="17">
         <v>1</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="R4" s="18" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="S4" s="18" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="T4" s="18" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="U4" s="18"/>
     </row>
@@ -8214,55 +8211,55 @@
         <v>2</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="I5" s="17">
         <v>2</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="N5" s="18" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="P5" s="17">
         <v>2</v>
       </c>
       <c r="Q5" s="17" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="R5" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="S5" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="T5" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="U5" s="18" t="s">
         <v>407</v>
-      </c>
-      <c r="S5" s="18" t="s">
-        <v>502</v>
-      </c>
-      <c r="T5" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="U5" s="18" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.4">
@@ -8270,55 +8267,55 @@
         <v>3</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="I6" s="17">
         <v>3</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="M6" s="36" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="N6" s="36" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="P6" s="17">
         <v>3</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="R6" s="18" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="S6" s="18" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="T6" s="36" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="U6" s="36" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.4">
@@ -8326,51 +8323,51 @@
         <v>4</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="I7" s="17">
         <v>4</v>
       </c>
       <c r="J7" s="18"/>
       <c r="K7" s="18" t="s">
-        <v>381</v>
+        <v>556</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="M7" s="36" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="N7" s="18"/>
       <c r="P7" s="17">
         <v>4</v>
       </c>
       <c r="Q7" s="17" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="R7" s="18" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="S7" s="18" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="T7" s="36" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="U7" s="36" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.4">
@@ -8378,51 +8375,51 @@
         <v>5</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="I8" s="17">
         <v>5</v>
       </c>
       <c r="J8" s="18"/>
       <c r="K8" s="18" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="M8" s="36" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="N8" s="18" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="P8" s="17">
         <v>5</v>
       </c>
       <c r="Q8" s="17"/>
       <c r="R8" s="18" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="S8" s="18" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="T8" s="36" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="U8" s="36" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.4">
@@ -8430,32 +8427,32 @@
         <v>6</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="I9" s="17">
         <v>6</v>
       </c>
       <c r="J9" s="18"/>
       <c r="K9" s="18" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="M9" s="36" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="N9" s="18"/>
     </row>
@@ -8465,13 +8462,13 @@
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18" t="s">
-        <v>301</v>
+        <v>555</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="G10" s="18"/>
       <c r="I10" s="17">
@@ -8479,13 +8476,13 @@
       </c>
       <c r="J10" s="18"/>
       <c r="K10" s="18" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="M10" s="36" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="N10" s="18"/>
     </row>
@@ -8495,13 +8492,13 @@
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G11" s="18"/>
       <c r="I11" s="17">
@@ -8509,13 +8506,13 @@
       </c>
       <c r="J11" s="18"/>
       <c r="K11" s="18" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="M11" s="36" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="N11" s="18"/>
     </row>
@@ -8525,13 +8522,13 @@
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="G12" s="18"/>
       <c r="I12" s="17">
@@ -8539,13 +8536,13 @@
       </c>
       <c r="J12" s="18"/>
       <c r="K12" s="18" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="M12" s="36" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="N12" s="18"/>
     </row>
@@ -8555,13 +8552,13 @@
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G13" s="18"/>
       <c r="I13" s="17">
@@ -8569,13 +8566,13 @@
       </c>
       <c r="J13" s="18"/>
       <c r="K13" s="18" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="M13" s="36" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="N13" s="18"/>
     </row>
@@ -8585,13 +8582,13 @@
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G14" s="18"/>
       <c r="I14" s="17">
@@ -8599,10 +8596,10 @@
       </c>
       <c r="J14" s="18"/>
       <c r="K14" s="18" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="L14" s="18" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
@@ -8613,13 +8610,13 @@
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="G15" s="18"/>
       <c r="I15" s="17">
@@ -8627,10 +8624,10 @@
       </c>
       <c r="J15" s="18"/>
       <c r="K15" s="18" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="L15" s="18" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
@@ -8641,13 +8638,13 @@
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="G16" s="18"/>
       <c r="I16" s="17">
@@ -8655,10 +8652,10 @@
       </c>
       <c r="J16" s="18"/>
       <c r="K16" s="18" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="L16" s="18" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
@@ -8669,13 +8666,13 @@
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G17" s="18"/>
       <c r="I17" s="17">
@@ -8683,13 +8680,13 @@
       </c>
       <c r="J17" s="18"/>
       <c r="K17" s="18" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="L17" s="18" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="M17" s="18" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="N17" s="18"/>
     </row>
@@ -8699,13 +8696,13 @@
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G18" s="18"/>
       <c r="I18" s="17">
@@ -8713,16 +8710,16 @@
       </c>
       <c r="J18" s="18"/>
       <c r="K18" s="18" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="L18" s="18" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="M18" s="18" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="N18" s="18" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.4">
@@ -8731,13 +8728,13 @@
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G19" s="18"/>
       <c r="I19" s="17">
@@ -8745,13 +8742,13 @@
       </c>
       <c r="J19" s="18"/>
       <c r="K19" s="18" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="M19" s="18" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="N19" s="18"/>
     </row>
@@ -8761,13 +8758,13 @@
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="G20" s="18"/>
       <c r="I20" s="17">
@@ -8775,13 +8772,13 @@
       </c>
       <c r="J20" s="18"/>
       <c r="K20" s="18" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="M20" s="18" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="N20" s="18"/>
     </row>
@@ -8791,13 +8788,13 @@
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="G21" s="18"/>
     </row>
@@ -8807,13 +8804,13 @@
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="G22" s="18"/>
     </row>
@@ -8823,13 +8820,13 @@
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="G23" s="18"/>
     </row>
@@ -8839,13 +8836,13 @@
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="G24" s="18"/>
     </row>
@@ -8855,13 +8852,13 @@
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G25" s="18"/>
     </row>
@@ -8871,13 +8868,13 @@
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="G26" s="18"/>
     </row>
@@ -8887,13 +8884,13 @@
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G27" s="18"/>
     </row>
@@ -8903,13 +8900,13 @@
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="18" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="G28" s="18"/>
     </row>
@@ -8919,13 +8916,13 @@
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="18" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G29" s="18"/>
     </row>
@@ -8935,13 +8932,13 @@
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="18" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="G30" s="18"/>
     </row>
@@ -8951,13 +8948,13 @@
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="18" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G31" s="18"/>
     </row>
@@ -8967,13 +8964,13 @@
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="18" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="G32" s="18"/>
     </row>
@@ -8983,13 +8980,13 @@
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="18" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="G33" s="18"/>
     </row>
@@ -8999,13 +8996,13 @@
       </c>
       <c r="C34" s="18"/>
       <c r="D34" s="18" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="G34" s="18"/>
     </row>
@@ -9015,13 +9012,13 @@
       </c>
       <c r="C35" s="18"/>
       <c r="D35" s="18" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="G35" s="18"/>
     </row>
@@ -9031,13 +9028,13 @@
       </c>
       <c r="C36" s="18"/>
       <c r="D36" s="18" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="G36" s="18"/>
     </row>
@@ -9047,13 +9044,13 @@
       </c>
       <c r="C37" s="18"/>
       <c r="D37" s="18" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="G37" s="18"/>
     </row>
@@ -9063,10 +9060,10 @@
       </c>
       <c r="C38" s="18"/>
       <c r="D38" s="18" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
@@ -9077,10 +9074,10 @@
       </c>
       <c r="C39" s="18"/>
       <c r="D39" s="18" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
@@ -9091,10 +9088,10 @@
       </c>
       <c r="C40" s="18"/>
       <c r="D40" s="18" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
@@ -9105,13 +9102,13 @@
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="18" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="G41" s="18"/>
     </row>
@@ -9121,16 +9118,16 @@
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="18" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.4">
@@ -9139,13 +9136,13 @@
       </c>
       <c r="C43" s="18"/>
       <c r="D43" s="18" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="G43" s="18"/>
     </row>
@@ -9155,76 +9152,76 @@
       </c>
       <c r="C44" s="18"/>
       <c r="D44" s="18" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="G44" s="18"/>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B46" s="55" t="s">
-        <v>287</v>
-      </c>
-      <c r="C46" s="55"/>
+      <c r="B46" s="54" t="s">
+        <v>280</v>
+      </c>
+      <c r="C46" s="54"/>
       <c r="D46" s="18" t="s">
-        <v>418</v>
-      </c>
-      <c r="E46" s="53" t="s">
-        <v>452</v>
-      </c>
-      <c r="F46" s="54"/>
-      <c r="I46" s="55" t="s">
-        <v>287</v>
-      </c>
-      <c r="J46" s="55"/>
+        <v>408</v>
+      </c>
+      <c r="E46" s="55" t="s">
+        <v>442</v>
+      </c>
+      <c r="F46" s="56"/>
+      <c r="I46" s="54" t="s">
+        <v>280</v>
+      </c>
+      <c r="J46" s="54"/>
       <c r="K46" s="18" t="s">
-        <v>491</v>
-      </c>
-      <c r="L46" s="53" t="s">
-        <v>490</v>
-      </c>
-      <c r="M46" s="54"/>
+        <v>481</v>
+      </c>
+      <c r="L46" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="M46" s="56"/>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B47" s="32" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D47" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="G47" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="I47" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="J47" s="32" t="s">
         <v>289</v>
       </c>
-      <c r="E47" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="32" t="s">
-        <v>336</v>
-      </c>
-      <c r="G47" s="32" t="s">
-        <v>337</v>
-      </c>
-      <c r="I47" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="J47" s="32" t="s">
-        <v>296</v>
-      </c>
       <c r="K47" s="32" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="L47" s="32" t="s">
         <v>8</v>
       </c>
       <c r="M47" s="32" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="N47" s="32" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.4">
@@ -9232,37 +9229,37 @@
         <v>1</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D48" s="36" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="F48" s="36" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="I48" s="17">
         <v>1</v>
       </c>
       <c r="J48" s="17" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="K48" s="18" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="L48" s="18" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="M48" s="36" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="N48" s="18" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.4">
@@ -9270,37 +9267,37 @@
         <v>2</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="D49" s="36" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="F49" s="36" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="G49" s="36" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="I49" s="17">
         <v>2</v>
       </c>
       <c r="J49" s="17" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="K49" s="18" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="L49" s="18" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="M49" s="36" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="N49" s="36" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.4">
@@ -9308,37 +9305,37 @@
         <v>3</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="D50" s="36" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="F50" s="36" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="G50" s="36" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="I50" s="17">
         <v>3</v>
       </c>
       <c r="J50" s="17" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="K50" s="18" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="L50" s="18" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="M50" s="36" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="N50" s="36" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.4">
@@ -9347,34 +9344,34 @@
       </c>
       <c r="C51" s="18"/>
       <c r="D51" s="36" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="G51" s="36" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="I51" s="17">
         <v>4</v>
       </c>
       <c r="J51" s="17" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="K51" s="18" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="L51" s="18" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="M51" s="36" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="N51" s="36" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.4">
@@ -9383,32 +9380,32 @@
       </c>
       <c r="C52" s="18"/>
       <c r="D52" s="36" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="G52" s="36" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="I52" s="17">
         <v>5</v>
       </c>
       <c r="J52" s="18"/>
       <c r="K52" s="18" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="L52" s="18" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="M52" s="36" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="N52" s="36" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.4">
@@ -9417,16 +9414,16 @@
       </c>
       <c r="C53" s="18"/>
       <c r="D53" s="36" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="G53" s="36" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.4">
@@ -9435,16 +9432,16 @@
       </c>
       <c r="C54" s="18"/>
       <c r="D54" s="36" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="G54" s="36" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.4">
@@ -9453,16 +9450,16 @@
       </c>
       <c r="C55" s="18"/>
       <c r="D55" s="36" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="G55" s="36" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.4">
@@ -9471,16 +9468,16 @@
       </c>
       <c r="C56" s="18"/>
       <c r="D56" s="36" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="G56" s="36" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.4">
@@ -9489,16 +9486,16 @@
       </c>
       <c r="C57" s="18"/>
       <c r="D57" s="36" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="G57" s="18" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.4">
@@ -9507,16 +9504,16 @@
       </c>
       <c r="C58" s="18"/>
       <c r="D58" s="36" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="G58" s="18" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.4">
@@ -9525,16 +9522,16 @@
       </c>
       <c r="C59" s="18"/>
       <c r="D59" s="36" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="G59" s="18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.4">
@@ -9543,16 +9540,16 @@
       </c>
       <c r="C60" s="18"/>
       <c r="D60" s="36" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="G60" s="18" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.4">
@@ -9561,16 +9558,16 @@
       </c>
       <c r="C61" s="18"/>
       <c r="D61" s="36" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.4">
@@ -9579,16 +9576,16 @@
       </c>
       <c r="C62" s="18"/>
       <c r="D62" s="36" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.4">
@@ -9597,16 +9594,16 @@
       </c>
       <c r="C63" s="18"/>
       <c r="D63" s="36" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.4">
@@ -9615,16 +9612,16 @@
       </c>
       <c r="C64" s="18"/>
       <c r="D64" s="36" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.4">
@@ -9633,13 +9630,13 @@
       </c>
       <c r="C65" s="18"/>
       <c r="D65" s="36" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="G65" s="18"/>
     </row>
@@ -9649,16 +9646,16 @@
       </c>
       <c r="C66" s="18"/>
       <c r="D66" s="36" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.4">
@@ -9667,16 +9664,16 @@
       </c>
       <c r="C67" s="18"/>
       <c r="D67" s="36" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.4">
@@ -9685,13 +9682,13 @@
       </c>
       <c r="C68" s="18"/>
       <c r="D68" s="36" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="E68" s="36" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="G68" s="18"/>
     </row>
@@ -9701,13 +9698,13 @@
       </c>
       <c r="C69" s="18"/>
       <c r="D69" s="36" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="E69" s="36" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="G69" s="18"/>
     </row>
@@ -9717,13 +9714,13 @@
       </c>
       <c r="C70" s="18"/>
       <c r="D70" s="36" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="E70" s="36" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="G70" s="18"/>
     </row>
@@ -9733,13 +9730,13 @@
       </c>
       <c r="C71" s="18"/>
       <c r="D71" s="36" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="E71" s="36" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="G71" s="18"/>
     </row>
@@ -9749,13 +9746,13 @@
       </c>
       <c r="C72" s="18"/>
       <c r="D72" s="36" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="E72" s="36" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="G72" s="18"/>
     </row>
@@ -9765,13 +9762,13 @@
       </c>
       <c r="C73" s="18"/>
       <c r="D73" s="36" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="G73" s="18"/>
     </row>
@@ -9781,16 +9778,16 @@
       </c>
       <c r="C74" s="18"/>
       <c r="D74" s="36" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="G74" s="18" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.4">
@@ -9799,13 +9796,13 @@
       </c>
       <c r="C75" s="18"/>
       <c r="D75" s="18" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="G75" s="18"/>
     </row>
@@ -9815,13 +9812,13 @@
       </c>
       <c r="C76" s="18"/>
       <c r="D76" s="18" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="G76" s="18"/>
     </row>
@@ -9831,28 +9828,28 @@
       </c>
       <c r="C77" s="18"/>
       <c r="D77" s="36" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G77" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="L46:M46"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="I46:J46"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="L46:M46"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9865,7 +9862,7 @@
   <dimension ref="B2:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9883,10 +9880,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B2" s="55" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" s="55"/>
+      <c r="B2" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="54"/>
       <c r="E2" s="22"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.4">
@@ -9896,35 +9893,35 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D4" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="E4" s="56"/>
+        <v>147</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="57"/>
       <c r="F4" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="H4" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="G4" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>164</v>
-      </c>
       <c r="I4" s="21" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9932,16 +9929,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
@@ -9955,16 +9952,16 @@
         <v>2</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
@@ -9978,34 +9975,34 @@
         <v>3</v>
       </c>
       <c r="C7" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="H7" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="G7" s="19" t="s">
+      <c r="I7" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="K7" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="L7" s="18" t="s">
         <v>268</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="L7" s="18" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.4">
@@ -10013,34 +10010,34 @@
         <v>4</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -10048,19 +10045,19 @@
         <v>5</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
@@ -10073,25 +10070,25 @@
         <v>6</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
@@ -10102,14 +10099,14 @@
         <v>7</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="19"/>
@@ -10123,16 +10120,16 @@
         <v>8</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="19"/>
@@ -10146,19 +10143,19 @@
         <v>9</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="18"/>
@@ -10167,10 +10164,10 @@
       <c r="L13" s="18"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B16" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="C16" s="57"/>
+      <c r="B16" s="58" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" s="58"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B17" s="24"/>
@@ -10178,22 +10175,22 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B18" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" s="25" t="s">
         <v>175</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.4">
@@ -10201,19 +10198,19 @@
         <v>1</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.4">
@@ -10221,22 +10218,22 @@
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B21" s="26" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.4">
@@ -10244,42 +10241,42 @@
         <v>2</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B24" s="25" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.4">
@@ -10287,22 +10284,22 @@
         <v>3</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
@@ -10311,26 +10308,26 @@
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D26" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="F26" s="25" t="s">
         <v>189</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>193</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D27" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="E27" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="E27" s="19" t="s">
-        <v>191</v>
-      </c>
       <c r="F27" s="19" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10338,25 +10335,25 @@
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B29" s="25" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.4">
@@ -10364,56 +10361,56 @@
         <v>4</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D31" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="F31" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="E31" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="F31" s="25" t="s">
-        <v>193</v>
-      </c>
       <c r="G31" s="25" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D32" s="18" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -10425,25 +10422,25 @@
     </row>
     <row r="34" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="25" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -10451,32 +10448,32 @@
         <v>5</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="30"/>
       <c r="C36" s="29"/>
       <c r="D36" s="25" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F36" s="29"/>
       <c r="G36" s="35"/>
@@ -10486,10 +10483,10 @@
       <c r="B37" s="30"/>
       <c r="C37" s="29"/>
       <c r="D37" s="18" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F37" s="29"/>
       <c r="G37" s="35"/>
@@ -10497,19 +10494,19 @@
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B39" s="25" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.4">
@@ -10517,39 +10514,39 @@
         <v>6</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B42" s="25" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.4">
@@ -10557,19 +10554,19 @@
         <v>7</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H43" s="19"/>
     </row>
@@ -10588,7 +10585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -10602,21 +10599,21 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B2" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>522</v>
-      </c>
-      <c r="D2" s="58" t="s">
-        <v>523</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>337</v>
+        <v>159</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>513</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B3" s="59" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="C3" s="59"/>
       <c r="D3" s="59"/>
@@ -10630,7 +10627,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="E4" s="18"/>
     </row>
@@ -10642,15 +10639,15 @@
         <v>6</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" s="59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="59"/>
       <c r="D6" s="59"/>
@@ -10661,10 +10658,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="E7" s="18"/>
     </row>
@@ -10673,16 +10670,16 @@
         <v>2</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="E8" s="18"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B9" s="59" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="C9" s="59"/>
       <c r="D9" s="59"/>
@@ -10693,13 +10690,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.4">
@@ -10707,13 +10704,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.4">
@@ -10721,13 +10718,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="D12" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>532</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.4">
@@ -10735,13 +10732,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.4">
@@ -10749,13 +10746,13 @@
         <v>5</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.4">
@@ -10763,13 +10760,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.4">
@@ -10777,13 +10774,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.4">
@@ -10791,13 +10788,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
@@ -10805,13 +10802,13 @@
         <v>9</v>
       </c>
       <c r="C18" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="E18" s="18" t="s">
         <v>546</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>526</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.4">
@@ -10819,13 +10816,13 @@
         <v>10</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.4">
@@ -10833,13 +10830,13 @@
         <v>11</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.4">
@@ -10847,13 +10844,13 @@
         <v>12</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.4">
@@ -10861,13 +10858,13 @@
         <v>13</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
@@ -10875,13 +10872,13 @@
         <v>14</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.4">
@@ -10889,13 +10886,13 @@
         <v>15</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.4">
@@ -10903,13 +10900,13 @@
         <v>16</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>

--- a/外部設計/資料/円弧配列自動化に向けた共通仕様.xlsx
+++ b/外部設計/資料/円弧配列自動化に向けた共通仕様.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25380" windowHeight="10065"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25380" windowHeight="10065"/>
   </bookViews>
   <sheets>
     <sheet name="パラメータ一覧" sheetId="1" r:id="rId1"/>
@@ -4487,16 +4487,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4514,34 +4526,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4841,8 +4841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T48" sqref="T48"/>
+    <sheetView tabSelected="1" topLeftCell="I46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52:R55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4867,44 +4867,44 @@
   <sheetData>
     <row r="1" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="51" t="s">
         <v>136</v>
       </c>
       <c r="C2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="50" t="s">
+      <c r="G2" s="39"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="47" t="s">
+      <c r="J2" s="39"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="48"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="50" t="s">
+      <c r="M2" s="39"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="51"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="40"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B3" s="39"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="46"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="8" t="s">
         <v>7</v>
       </c>
@@ -4943,7 +4943,7 @@
       </c>
     </row>
     <row r="4" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="40"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
@@ -4992,34 +4992,34 @@
     </row>
     <row r="5" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="51" t="s">
         <v>137</v>
       </c>
       <c r="C6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="50" t="s">
+      <c r="G6" s="39"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="48"/>
-      <c r="K6" s="51"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="40"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B7" s="39"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="46"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="50"/>
       <c r="F7" s="8" t="s">
         <v>7</v>
       </c>
@@ -5040,7 +5040,7 @@
       </c>
     </row>
     <row r="8" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="40"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
@@ -5082,49 +5082,49 @@
       <c r="K9" s="31"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="51" t="s">
         <v>138</v>
       </c>
       <c r="C10" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="47" t="s">
+      <c r="F10" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="48"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="50" t="s">
+      <c r="G10" s="39"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="48"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="50" t="s">
+      <c r="J10" s="39"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="48"/>
-      <c r="N10" s="51"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="40"/>
       <c r="O10" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="50" t="s">
+      <c r="P10" s="42"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="S10" s="48"/>
-      <c r="T10" s="51"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="40"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B11" s="39"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="46"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="50"/>
       <c r="F11" s="8" t="s">
         <v>7</v>
       </c>
@@ -5172,7 +5172,7 @@
       </c>
     </row>
     <row r="12" spans="2:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="40"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="7" t="s">
         <v>247</v>
       </c>
@@ -5229,31 +5229,31 @@
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F13" s="50" t="s">
+      <c r="F13" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="48"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="50" t="s">
+      <c r="G13" s="39"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="48"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="50" t="s">
+      <c r="J13" s="39"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="M13" s="48"/>
-      <c r="N13" s="51"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="40"/>
       <c r="O13" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="53"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="43"/>
       <c r="R13" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="S13" s="52"/>
-      <c r="T13" s="53"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="43"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F14" s="13" t="s">
@@ -5350,31 +5350,31 @@
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F16" s="50" t="s">
+      <c r="F16" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="48"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="50" t="s">
+      <c r="G16" s="39"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="J16" s="48"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="50" t="s">
+      <c r="J16" s="39"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="M16" s="48"/>
-      <c r="N16" s="51"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="40"/>
       <c r="O16" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="53"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="43"/>
       <c r="R16" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="S16" s="52"/>
-      <c r="T16" s="53"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="43"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F17" s="13" t="s">
@@ -5471,31 +5471,31 @@
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="G19" s="48"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="50" t="s">
+      <c r="G19" s="39"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="J19" s="48"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="50" t="s">
+      <c r="J19" s="39"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="M19" s="48"/>
-      <c r="N19" s="51"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="40"/>
       <c r="O19" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="53"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="43"/>
       <c r="R19" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="S19" s="52"/>
-      <c r="T19" s="53"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="43"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F20" s="13" t="s">
@@ -5592,16 +5592,16 @@
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F22" s="50" t="s">
+      <c r="F22" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="G22" s="48"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="50" t="s">
+      <c r="G22" s="39"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="J22" s="48"/>
-      <c r="K22" s="51"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="40"/>
       <c r="L22" s="29"/>
       <c r="M22" s="30"/>
       <c r="N22" s="30"/>
@@ -5688,49 +5688,49 @@
       <c r="T25" s="30"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="51" t="s">
         <v>139</v>
       </c>
       <c r="C26" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="43" t="s">
+      <c r="D26" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="45" t="s">
+      <c r="E26" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="47" t="s">
+      <c r="F26" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="48"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="50" t="s">
+      <c r="G26" s="39"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="J26" s="48"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="50" t="s">
+      <c r="J26" s="39"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="M26" s="48"/>
-      <c r="N26" s="51"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="40"/>
       <c r="O26" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="50" t="s">
+      <c r="P26" s="42"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="S26" s="48"/>
-      <c r="T26" s="51"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="40"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B27" s="39"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="46"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="50"/>
       <c r="F27" s="8" t="s">
         <v>7</v>
       </c>
@@ -5778,7 +5778,7 @@
       </c>
     </row>
     <row r="28" spans="2:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="40"/>
+      <c r="B28" s="53"/>
       <c r="C28" s="7" t="s">
         <v>246</v>
       </c>
@@ -5835,26 +5835,26 @@
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F29" s="50" t="s">
+      <c r="F29" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="G29" s="48"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="50" t="s">
+      <c r="G29" s="39"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J29" s="48"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="50" t="s">
+      <c r="J29" s="39"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="M29" s="48"/>
-      <c r="N29" s="51"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="40"/>
       <c r="O29" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="53"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="43"/>
       <c r="R29" s="29"/>
       <c r="S29" s="30"/>
       <c r="T29" s="30"/>
@@ -5941,49 +5941,49 @@
     </row>
     <row r="32" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="33" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="51" t="s">
         <v>206</v>
       </c>
       <c r="C33" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D33" s="43" t="s">
+      <c r="D33" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="45" t="s">
+      <c r="E33" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="F33" s="47" t="s">
+      <c r="F33" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="48"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="50" t="s">
+      <c r="G33" s="39"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="J33" s="48"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="50" t="s">
+      <c r="J33" s="39"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="M33" s="48"/>
-      <c r="N33" s="51"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="40"/>
       <c r="O33" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="50" t="s">
+      <c r="P33" s="42"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="S33" s="48"/>
-      <c r="T33" s="51"/>
+      <c r="S33" s="39"/>
+      <c r="T33" s="40"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B34" s="39"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="46"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="50"/>
       <c r="F34" s="8" t="s">
         <v>7</v>
       </c>
@@ -6031,7 +6031,7 @@
       </c>
     </row>
     <row r="35" spans="2:20" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="40"/>
+      <c r="B35" s="53"/>
       <c r="C35" s="7" t="s">
         <v>25</v>
       </c>
@@ -6088,31 +6088,31 @@
       </c>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F36" s="50" t="s">
+      <c r="F36" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="G36" s="48"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="50" t="s">
+      <c r="G36" s="39"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J36" s="48"/>
-      <c r="K36" s="51"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="40"/>
       <c r="L36" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="M36" s="52"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="50" t="s">
+      <c r="M36" s="42"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="P36" s="48"/>
-      <c r="Q36" s="51"/>
-      <c r="R36" s="50" t="s">
+      <c r="P36" s="39"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="S36" s="48"/>
-      <c r="T36" s="51"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="40"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F37" s="13" t="s">
@@ -6209,11 +6209,11 @@
       </c>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F39" s="50" t="s">
+      <c r="F39" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="G39" s="48"/>
-      <c r="H39" s="51"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="40"/>
       <c r="I39" s="29"/>
       <c r="J39" s="30"/>
       <c r="K39" s="30"/>
@@ -6257,49 +6257,49 @@
     </row>
     <row r="42" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="43" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="51" t="s">
         <v>140</v>
       </c>
       <c r="C43" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D43" s="43" t="s">
+      <c r="D43" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E43" s="45" t="s">
+      <c r="E43" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="F43" s="47" t="s">
+      <c r="F43" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="48"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="50" t="s">
+      <c r="G43" s="39"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="J43" s="48"/>
-      <c r="K43" s="51"/>
-      <c r="L43" s="50" t="s">
+      <c r="J43" s="39"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="M43" s="48"/>
-      <c r="N43" s="51"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="40"/>
       <c r="O43" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P43" s="52"/>
-      <c r="Q43" s="53"/>
-      <c r="R43" s="50" t="s">
+      <c r="P43" s="42"/>
+      <c r="Q43" s="43"/>
+      <c r="R43" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="S43" s="48"/>
-      <c r="T43" s="51"/>
+      <c r="S43" s="39"/>
+      <c r="T43" s="40"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B44" s="39"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="46"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="50"/>
       <c r="F44" s="8" t="s">
         <v>7</v>
       </c>
@@ -6347,7 +6347,7 @@
       </c>
     </row>
     <row r="45" spans="2:20" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="40"/>
+      <c r="B45" s="53"/>
       <c r="C45" s="7" t="s">
         <v>45</v>
       </c>
@@ -6407,28 +6407,28 @@
       <c r="F46" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="G46" s="52"/>
-      <c r="H46" s="53"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="43"/>
       <c r="I46" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="J46" s="52"/>
-      <c r="K46" s="53"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="43"/>
       <c r="L46" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="M46" s="52"/>
-      <c r="N46" s="53"/>
-      <c r="O46" s="50" t="s">
+      <c r="M46" s="42"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="P46" s="48"/>
-      <c r="Q46" s="51"/>
-      <c r="R46" s="50" t="s">
+      <c r="P46" s="39"/>
+      <c r="Q46" s="40"/>
+      <c r="R46" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="S46" s="48"/>
-      <c r="T46" s="51"/>
+      <c r="S46" s="39"/>
+      <c r="T46" s="40"/>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F47" s="13" t="s">
@@ -6530,49 +6530,49 @@
       <c r="H49" s="31"/>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B50" s="38" t="s">
+      <c r="B50" s="51" t="s">
         <v>236</v>
       </c>
       <c r="C50" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D50" s="43" t="s">
+      <c r="D50" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E50" s="45" t="s">
+      <c r="E50" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="F50" s="47" t="s">
+      <c r="F50" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="G50" s="48"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="50" t="s">
+      <c r="G50" s="39"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="J50" s="48"/>
-      <c r="K50" s="51"/>
-      <c r="L50" s="50" t="s">
+      <c r="J50" s="39"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="M50" s="48"/>
-      <c r="N50" s="51"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="40"/>
       <c r="O50" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P50" s="52"/>
-      <c r="Q50" s="53"/>
-      <c r="R50" s="50" t="s">
+      <c r="P50" s="42"/>
+      <c r="Q50" s="43"/>
+      <c r="R50" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="S50" s="48"/>
-      <c r="T50" s="51"/>
+      <c r="S50" s="39"/>
+      <c r="T50" s="40"/>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B51" s="39"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="46"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="50"/>
       <c r="F51" s="8" t="s">
         <v>7</v>
       </c>
@@ -6620,7 +6620,7 @@
       </c>
     </row>
     <row r="52" spans="2:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="40"/>
+      <c r="B52" s="53"/>
       <c r="C52" s="7" t="s">
         <v>209</v>
       </c>
@@ -6679,11 +6679,11 @@
       <c r="C53" s="29"/>
       <c r="D53" s="30"/>
       <c r="E53" s="33"/>
-      <c r="F53" s="50" t="s">
+      <c r="F53" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="G53" s="48"/>
-      <c r="H53" s="51"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="40"/>
       <c r="I53" s="29"/>
       <c r="J53" s="30"/>
       <c r="K53" s="30"/>
@@ -6753,49 +6753,49 @@
     </row>
     <row r="56" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="57" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B57" s="38" t="s">
+      <c r="B57" s="51" t="s">
         <v>237</v>
       </c>
       <c r="C57" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D57" s="43" t="s">
+      <c r="D57" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E57" s="45" t="s">
+      <c r="E57" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="F57" s="47" t="s">
+      <c r="F57" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="G57" s="48"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="50" t="s">
+      <c r="G57" s="39"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="J57" s="48"/>
-      <c r="K57" s="51"/>
-      <c r="L57" s="50" t="s">
+      <c r="J57" s="39"/>
+      <c r="K57" s="40"/>
+      <c r="L57" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="M57" s="48"/>
-      <c r="N57" s="51"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="40"/>
       <c r="O57" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P57" s="52"/>
-      <c r="Q57" s="53"/>
-      <c r="R57" s="50" t="s">
+      <c r="P57" s="42"/>
+      <c r="Q57" s="43"/>
+      <c r="R57" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="S57" s="48"/>
-      <c r="T57" s="51"/>
+      <c r="S57" s="39"/>
+      <c r="T57" s="40"/>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B58" s="39"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="46"/>
+      <c r="B58" s="52"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="50"/>
       <c r="F58" s="8" t="s">
         <v>7</v>
       </c>
@@ -6843,7 +6843,7 @@
       </c>
     </row>
     <row r="59" spans="2:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="40"/>
+      <c r="B59" s="53"/>
       <c r="C59" s="7" t="s">
         <v>70</v>
       </c>
@@ -6900,31 +6900,31 @@
       </c>
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F60" s="50" t="s">
+      <c r="F60" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="G60" s="48"/>
-      <c r="H60" s="51"/>
-      <c r="I60" s="50" t="s">
+      <c r="G60" s="39"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J60" s="48"/>
-      <c r="K60" s="51"/>
-      <c r="L60" s="50" t="s">
+      <c r="J60" s="39"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="M60" s="48"/>
-      <c r="N60" s="51"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="40"/>
       <c r="O60" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="P60" s="52"/>
-      <c r="Q60" s="53"/>
+      <c r="P60" s="42"/>
+      <c r="Q60" s="43"/>
       <c r="R60" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="S60" s="52"/>
-      <c r="T60" s="53"/>
+      <c r="S60" s="42"/>
+      <c r="T60" s="43"/>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F61" s="13" t="s">
@@ -7021,31 +7021,31 @@
       </c>
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F63" s="50" t="s">
+      <c r="F63" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="G63" s="48"/>
-      <c r="H63" s="51"/>
-      <c r="I63" s="50" t="s">
+      <c r="G63" s="39"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="J63" s="48"/>
-      <c r="K63" s="51"/>
-      <c r="L63" s="50" t="s">
+      <c r="J63" s="39"/>
+      <c r="K63" s="40"/>
+      <c r="L63" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="M63" s="48"/>
-      <c r="N63" s="51"/>
+      <c r="M63" s="39"/>
+      <c r="N63" s="40"/>
       <c r="O63" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="P63" s="52"/>
-      <c r="Q63" s="53"/>
+      <c r="P63" s="42"/>
+      <c r="Q63" s="43"/>
       <c r="R63" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="S63" s="52"/>
-      <c r="T63" s="53"/>
+      <c r="S63" s="42"/>
+      <c r="T63" s="43"/>
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F64" s="13" t="s">
@@ -7142,31 +7142,31 @@
       </c>
     </row>
     <row r="66" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F66" s="50" t="s">
+      <c r="F66" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="G66" s="48"/>
-      <c r="H66" s="51"/>
-      <c r="I66" s="50" t="s">
+      <c r="G66" s="39"/>
+      <c r="H66" s="40"/>
+      <c r="I66" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="J66" s="48"/>
-      <c r="K66" s="51"/>
-      <c r="L66" s="50" t="s">
+      <c r="J66" s="39"/>
+      <c r="K66" s="40"/>
+      <c r="L66" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="M66" s="48"/>
-      <c r="N66" s="51"/>
+      <c r="M66" s="39"/>
+      <c r="N66" s="40"/>
       <c r="O66" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="P66" s="52"/>
-      <c r="Q66" s="53"/>
+      <c r="P66" s="42"/>
+      <c r="Q66" s="43"/>
       <c r="R66" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="S66" s="52"/>
-      <c r="T66" s="53"/>
+      <c r="S66" s="42"/>
+      <c r="T66" s="43"/>
     </row>
     <row r="67" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F67" s="13" t="s">
@@ -7264,49 +7264,49 @@
     </row>
     <row r="69" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="70" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B70" s="38" t="s">
+      <c r="B70" s="51" t="s">
         <v>238</v>
       </c>
       <c r="C70" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D70" s="43" t="s">
+      <c r="D70" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E70" s="45" t="s">
+      <c r="E70" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="F70" s="47" t="s">
+      <c r="F70" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="G70" s="48"/>
-      <c r="H70" s="49"/>
-      <c r="I70" s="50" t="s">
+      <c r="G70" s="39"/>
+      <c r="H70" s="45"/>
+      <c r="I70" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="J70" s="48"/>
-      <c r="K70" s="51"/>
-      <c r="L70" s="50" t="s">
+      <c r="J70" s="39"/>
+      <c r="K70" s="40"/>
+      <c r="L70" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="M70" s="48"/>
-      <c r="N70" s="51"/>
+      <c r="M70" s="39"/>
+      <c r="N70" s="40"/>
       <c r="O70" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P70" s="52"/>
-      <c r="Q70" s="53"/>
-      <c r="R70" s="50" t="s">
+      <c r="P70" s="42"/>
+      <c r="Q70" s="43"/>
+      <c r="R70" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="S70" s="48"/>
-      <c r="T70" s="51"/>
+      <c r="S70" s="39"/>
+      <c r="T70" s="40"/>
     </row>
     <row r="71" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B71" s="39"/>
-      <c r="C71" s="42"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="46"/>
+      <c r="B71" s="52"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="50"/>
       <c r="F71" s="8" t="s">
         <v>7</v>
       </c>
@@ -7354,7 +7354,7 @@
       </c>
     </row>
     <row r="72" spans="2:20" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="40"/>
+      <c r="B72" s="53"/>
       <c r="C72" s="7" t="s">
         <v>104</v>
       </c>
@@ -7411,31 +7411,31 @@
       </c>
     </row>
     <row r="73" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F73" s="50" t="s">
+      <c r="F73" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="G73" s="48"/>
-      <c r="H73" s="51"/>
-      <c r="I73" s="50" t="s">
+      <c r="G73" s="39"/>
+      <c r="H73" s="40"/>
+      <c r="I73" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J73" s="48"/>
-      <c r="K73" s="51"/>
-      <c r="L73" s="50" t="s">
+      <c r="J73" s="39"/>
+      <c r="K73" s="40"/>
+      <c r="L73" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="M73" s="48"/>
-      <c r="N73" s="51"/>
+      <c r="M73" s="39"/>
+      <c r="N73" s="40"/>
       <c r="O73" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="P73" s="52"/>
-      <c r="Q73" s="53"/>
+      <c r="P73" s="42"/>
+      <c r="Q73" s="43"/>
       <c r="R73" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="S73" s="52"/>
-      <c r="T73" s="53"/>
+      <c r="S73" s="42"/>
+      <c r="T73" s="43"/>
     </row>
     <row r="74" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F74" s="13" t="s">
@@ -7532,31 +7532,31 @@
       </c>
     </row>
     <row r="76" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F76" s="50" t="s">
+      <c r="F76" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="G76" s="48"/>
-      <c r="H76" s="51"/>
-      <c r="I76" s="50" t="s">
+      <c r="G76" s="39"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="J76" s="48"/>
-      <c r="K76" s="51"/>
-      <c r="L76" s="50" t="s">
+      <c r="J76" s="39"/>
+      <c r="K76" s="40"/>
+      <c r="L76" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="M76" s="48"/>
-      <c r="N76" s="51"/>
+      <c r="M76" s="39"/>
+      <c r="N76" s="40"/>
       <c r="O76" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="P76" s="52"/>
-      <c r="Q76" s="53"/>
+      <c r="P76" s="42"/>
+      <c r="Q76" s="43"/>
       <c r="R76" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="S76" s="52"/>
-      <c r="T76" s="53"/>
+      <c r="S76" s="42"/>
+      <c r="T76" s="43"/>
     </row>
     <row r="77" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F77" s="13" t="s">
@@ -7653,31 +7653,31 @@
       </c>
     </row>
     <row r="79" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F79" s="50" t="s">
+      <c r="F79" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="G79" s="48"/>
-      <c r="H79" s="51"/>
-      <c r="I79" s="50" t="s">
+      <c r="G79" s="39"/>
+      <c r="H79" s="40"/>
+      <c r="I79" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="J79" s="48"/>
-      <c r="K79" s="51"/>
-      <c r="L79" s="50" t="s">
+      <c r="J79" s="39"/>
+      <c r="K79" s="40"/>
+      <c r="L79" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="M79" s="48"/>
-      <c r="N79" s="51"/>
+      <c r="M79" s="39"/>
+      <c r="N79" s="40"/>
       <c r="O79" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="P79" s="52"/>
-      <c r="Q79" s="53"/>
+      <c r="P79" s="42"/>
+      <c r="Q79" s="43"/>
       <c r="R79" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="S79" s="52"/>
-      <c r="T79" s="53"/>
+      <c r="S79" s="42"/>
+      <c r="T79" s="43"/>
     </row>
     <row r="80" spans="2:20" x14ac:dyDescent="0.4">
       <c r="F80" s="13" t="s">
@@ -7774,26 +7774,26 @@
       </c>
     </row>
     <row r="82" spans="6:20" x14ac:dyDescent="0.4">
-      <c r="F82" s="50" t="s">
+      <c r="F82" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="G82" s="48"/>
-      <c r="H82" s="51"/>
-      <c r="I82" s="50" t="s">
+      <c r="G82" s="39"/>
+      <c r="H82" s="40"/>
+      <c r="I82" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="J82" s="48"/>
-      <c r="K82" s="51"/>
-      <c r="L82" s="50" t="s">
+      <c r="J82" s="39"/>
+      <c r="K82" s="40"/>
+      <c r="L82" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="M82" s="48"/>
-      <c r="N82" s="51"/>
+      <c r="M82" s="39"/>
+      <c r="N82" s="40"/>
       <c r="O82" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="P82" s="52"/>
-      <c r="Q82" s="53"/>
+      <c r="P82" s="42"/>
+      <c r="Q82" s="43"/>
     </row>
     <row r="83" spans="6:20" x14ac:dyDescent="0.4">
       <c r="F83" s="13" t="s">
@@ -7873,76 +7873,54 @@
     </row>
   </sheetData>
   <mergeCells count="144">
-    <mergeCell ref="F82:H82"/>
-    <mergeCell ref="I82:K82"/>
-    <mergeCell ref="L82:N82"/>
-    <mergeCell ref="O82:Q82"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="I79:K79"/>
-    <mergeCell ref="L79:N79"/>
-    <mergeCell ref="O79:Q79"/>
-    <mergeCell ref="O70:Q70"/>
-    <mergeCell ref="R70:T70"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="I73:K73"/>
-    <mergeCell ref="L73:N73"/>
-    <mergeCell ref="O73:Q73"/>
-    <mergeCell ref="R73:T73"/>
-    <mergeCell ref="R79:T79"/>
-    <mergeCell ref="F76:H76"/>
-    <mergeCell ref="I76:K76"/>
-    <mergeCell ref="L76:N76"/>
-    <mergeCell ref="O76:Q76"/>
-    <mergeCell ref="R76:T76"/>
-    <mergeCell ref="F70:H70"/>
-    <mergeCell ref="I70:K70"/>
-    <mergeCell ref="L70:N70"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="R46:T46"/>
-    <mergeCell ref="R57:T57"/>
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="O57:Q57"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="O50:Q50"/>
-    <mergeCell ref="R50:T50"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="L46:N46"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="I57:K57"/>
-    <mergeCell ref="O46:Q46"/>
-    <mergeCell ref="L66:N66"/>
-    <mergeCell ref="O66:Q66"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="R66:T66"/>
-    <mergeCell ref="R60:T60"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="I63:K63"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="O63:Q63"/>
-    <mergeCell ref="R63:T63"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="I60:K60"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="O60:Q60"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="R43:T43"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="O43:Q43"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
     <mergeCell ref="B70:B72"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B6:B8"/>
@@ -7967,56 +7945,78 @@
     <mergeCell ref="D70:D71"/>
     <mergeCell ref="E70:E71"/>
     <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="R66:T66"/>
+    <mergeCell ref="R60:T60"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="I63:K63"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="O63:Q63"/>
+    <mergeCell ref="R63:T63"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="I60:K60"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="O60:Q60"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="I57:K57"/>
+    <mergeCell ref="O46:Q46"/>
+    <mergeCell ref="L66:N66"/>
+    <mergeCell ref="O66:Q66"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="I22:K22"/>
     <mergeCell ref="L19:N19"/>
     <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="R43:T43"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="O43:Q43"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="R46:T46"/>
+    <mergeCell ref="R57:T57"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="O57:Q57"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="R50:T50"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="R70:T70"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="I73:K73"/>
+    <mergeCell ref="L73:N73"/>
+    <mergeCell ref="O73:Q73"/>
+    <mergeCell ref="R73:T73"/>
+    <mergeCell ref="R79:T79"/>
+    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="L76:N76"/>
+    <mergeCell ref="O76:Q76"/>
+    <mergeCell ref="R76:T76"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="I70:K70"/>
+    <mergeCell ref="L70:N70"/>
+    <mergeCell ref="F82:H82"/>
+    <mergeCell ref="I82:K82"/>
+    <mergeCell ref="L82:N82"/>
+    <mergeCell ref="O82:Q82"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="I79:K79"/>
+    <mergeCell ref="L79:N79"/>
+    <mergeCell ref="O79:Q79"/>
+    <mergeCell ref="O70:Q70"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
@@ -8062,39 +8062,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="56" t="s">
         <v>280</v>
       </c>
-      <c r="C2" s="54"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="54" t="s">
         <v>409</v>
       </c>
-      <c r="F2" s="56"/>
-      <c r="I2" s="54" t="s">
+      <c r="F2" s="55"/>
+      <c r="I2" s="56" t="s">
         <v>280</v>
       </c>
-      <c r="J2" s="54"/>
+      <c r="J2" s="56"/>
       <c r="K2" s="18" t="s">
         <v>368</v>
       </c>
-      <c r="L2" s="55" t="s">
+      <c r="L2" s="54" t="s">
         <v>410</v>
       </c>
-      <c r="M2" s="56"/>
-      <c r="P2" s="55" t="s">
+      <c r="M2" s="55"/>
+      <c r="P2" s="54" t="s">
         <v>280</v>
       </c>
-      <c r="Q2" s="56"/>
+      <c r="Q2" s="55"/>
       <c r="R2" s="18" t="s">
         <v>395</v>
       </c>
-      <c r="S2" s="55" t="s">
+      <c r="S2" s="54" t="s">
         <v>411</v>
       </c>
-      <c r="T2" s="56"/>
+      <c r="T2" s="55"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B3" s="32" t="s">
@@ -9163,28 +9163,28 @@
       <c r="G44" s="18"/>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B46" s="54" t="s">
+      <c r="B46" s="56" t="s">
         <v>280</v>
       </c>
-      <c r="C46" s="54"/>
+      <c r="C46" s="56"/>
       <c r="D46" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="E46" s="55" t="s">
+      <c r="E46" s="54" t="s">
         <v>442</v>
       </c>
-      <c r="F46" s="56"/>
-      <c r="I46" s="54" t="s">
+      <c r="F46" s="55"/>
+      <c r="I46" s="56" t="s">
         <v>280</v>
       </c>
-      <c r="J46" s="54"/>
+      <c r="J46" s="56"/>
       <c r="K46" s="18" t="s">
         <v>481</v>
       </c>
-      <c r="L46" s="55" t="s">
+      <c r="L46" s="54" t="s">
         <v>480</v>
       </c>
-      <c r="M46" s="56"/>
+      <c r="M46" s="55"/>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B47" s="32" t="s">
@@ -9840,16 +9840,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="I46:J46"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="L46:M46"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="I46:J46"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9880,10 +9880,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="54"/>
+      <c r="C2" s="56"/>
       <c r="E2" s="22"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.4">
